--- a/Model2/excel/output_elasticity_model_shifting.xlsx
+++ b/Model2/excel/output_elasticity_model_shifting.xlsx
@@ -429,13 +429,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-159.987653645538</v>
+        <v>-352.953475558235</v>
       </c>
       <c r="E2">
-        <v>-207.641541472304</v>
+        <v>-458.084121261585</v>
       </c>
       <c r="F2">
-        <v>1163.14448282975</v>
+        <v>1840.77999067775</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-430.901366986306</v>
+        <v>-1024.8216399442</v>
       </c>
       <c r="E3">
-        <v>-367.982955464166</v>
+        <v>-875.181479529361</v>
       </c>
       <c r="F3">
-        <v>1136.55873805558</v>
+        <v>1939.09696651855</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-495.367744375118</v>
+        <v>-690.542635658914</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-315.988279142054</v>
+        <v>-244.125432659304</v>
       </c>
       <c r="E5">
-        <v>-761.832166419057</v>
+        <v>-588.574385562</v>
       </c>
       <c r="F5">
-        <v>1710.91133660936</v>
+        <v>948.214915318298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-861.064802280773</v>
+        <v>-249.8637324997</v>
       </c>
       <c r="E6">
-        <v>-1095.7464420358</v>
+        <v>-317.963636598688</v>
       </c>
       <c r="F6">
-        <v>636.886216467987</v>
+        <v>132.576473430056</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-1261.54811531552</v>
+        <v>-309.431118694181</v>
       </c>
       <c r="E7">
-        <v>-1230.15389296897</v>
+        <v>-301.730778752095</v>
       </c>
       <c r="F7">
-        <v>1023.50011938729</v>
+        <v>180.088214489186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-195.466975707964</v>
+        <v>-158.270772273821</v>
       </c>
       <c r="E8">
-        <v>-513.342284695431</v>
+        <v>-415.656299716538</v>
       </c>
       <c r="F8">
-        <v>1664.78754876704</v>
+        <v>966.993095645463</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-27.8785103282244</v>
+        <v>24.3584686618724</v>
       </c>
       <c r="E9">
-        <v>-35.1842952354455</v>
+        <v>30.7417987113549</v>
       </c>
       <c r="F9">
-        <v>270.829122722382</v>
+        <v>-169.751260383186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>129.81732675681</v>
+        <v>281.479814207081</v>
       </c>
       <c r="F10">
-        <v>-440.649317470059</v>
+        <v>-685.401297064524</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>66.8044546919791</v>
+        <v>1050.46741147962</v>
       </c>
       <c r="F11">
-        <v>-132.191450220576</v>
+        <v>-1491.13771172233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>78.6899114890184</v>
+        <v>649.991625959527</v>
       </c>
       <c r="E12">
-        <v>149.807157294754</v>
+        <v>1237.43178646197</v>
       </c>
       <c r="F12">
-        <v>-337.523537949462</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>114.205377296114</v>
+        <v>925.94101628136</v>
       </c>
       <c r="E13">
-        <v>96.8397974935415</v>
+        <v>785.146397048882</v>
       </c>
       <c r="F13">
-        <v>-343.871354981438</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,13 +669,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>56.5592278208933</v>
+        <v>1008.33264180597</v>
       </c>
       <c r="E14">
-        <v>36.2768954954108</v>
+        <v>646.741111587371</v>
       </c>
       <c r="F14">
-        <v>-156.384035016679</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>-111.904749245896</v>
+        <v>776.936911138813</v>
       </c>
       <c r="E15">
-        <v>-116.858680879894</v>
+        <v>811.331272125706</v>
       </c>
       <c r="F15">
-        <v>378.258198183958</v>
+        <v>-1883.92154108639</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,13 +709,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-627.353467830448</v>
+        <v>493.442586814821</v>
       </c>
       <c r="E16">
-        <v>-409.994992902215</v>
+        <v>322.48006945499</v>
       </c>
       <c r="F16">
-        <v>1355.76999958446</v>
+        <v>-764.975580151338</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>-488.911318704562</v>
+        <v>-796.355691974364</v>
       </c>
       <c r="E17">
-        <v>-432.372393517995</v>
+        <v>-704.26313210127</v>
       </c>
       <c r="F17">
-        <v>1711.65318498435</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -749,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-701.410910318373</v>
+        <v>-2489.01198051613</v>
       </c>
       <c r="E18">
-        <v>-383.918455232542</v>
+        <v>-1362.36494265722</v>
       </c>
       <c r="F18">
-        <v>423.272196612641</v>
+        <v>1077.485509539</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -769,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-82.1278938023061</v>
+        <v>-387.540696477821</v>
       </c>
       <c r="E19">
-        <v>-108.854442067886</v>
+        <v>-513.656497696629</v>
       </c>
       <c r="F19">
-        <v>350.53853609354</v>
+        <v>1186.58710651292</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -789,13 +789,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>6.21715253203195</v>
+        <v>-47.8779630138188</v>
       </c>
       <c r="E20">
-        <v>-0.18924332532605</v>
+        <v>1.45735284503587</v>
       </c>
       <c r="F20">
-        <v>108.936606778816</v>
+        <v>-601.804196895899</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -809,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>-2.06633406473748</v>
+        <v>-41.3355201917318</v>
       </c>
       <c r="E21">
-        <v>8.28743037156846</v>
+        <v>165.784057528485</v>
       </c>
       <c r="F21">
-        <v>-54.2419373680932</v>
+        <v>-778.386493016984</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -829,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>245.345128398232</v>
+        <v>1044.96172273044</v>
       </c>
       <c r="E22">
-        <v>197.100836089937</v>
+        <v>839.482041387191</v>
       </c>
       <c r="F22">
-        <v>-581.671919218275</v>
+        <v>-1777.20803447094</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>262.090872104372</v>
+        <v>1259.20728813559</v>
       </c>
       <c r="E23">
-        <v>597.001156699323</v>
+        <v>2868.27313559321</v>
       </c>
       <c r="F23">
-        <v>-580.293140225458</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -869,13 +869,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>51.3838248752945</v>
+        <v>698.98920606209</v>
       </c>
       <c r="E24">
-        <v>38.4678846334864</v>
+        <v>523.289891402718</v>
       </c>
       <c r="F24">
-        <v>-198.744257270893</v>
+        <v>-1939.43779738083</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -889,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>92.6114938942414</v>
+        <v>249.042275609977</v>
       </c>
       <c r="E25">
-        <v>155.333543784479</v>
+        <v>417.70861904922</v>
       </c>
       <c r="F25">
-        <v>-424.661470082585</v>
+        <v>-819.196845638569</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -909,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>18.5160277792984</v>
+        <v>164.146583574583</v>
       </c>
       <c r="E26">
-        <v>26.1889319530533</v>
+        <v>232.167706745777</v>
       </c>
       <c r="F26">
-        <v>-148.155670021675</v>
+        <v>-942.192249778869</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -929,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-151.977365842767</v>
+        <v>350.850020957076</v>
       </c>
       <c r="E27">
-        <v>-128.924799087037</v>
+        <v>297.631612515061</v>
       </c>
       <c r="F27">
-        <v>397.032069574627</v>
+        <v>-657.514610746577</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -949,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>-194.007649477016</v>
+        <v>328.346271625038</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>785.590427983367</v>
+        <v>-953.776559257614</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -969,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>-30.5313505473614</v>
+        <v>159.894244633308</v>
       </c>
       <c r="E29">
-        <v>-72.4589137578369</v>
+        <v>379.471037951207</v>
       </c>
       <c r="F29">
-        <v>164.677929077632</v>
+        <v>-618.670544190132</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -989,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>-276.070062805549</v>
+        <v>1278.89904079791</v>
       </c>
       <c r="E30">
-        <v>-341.437299610949</v>
+        <v>1581.71382484394</v>
       </c>
       <c r="F30">
-        <v>201.558842436771</v>
+        <v>-669.816789582961</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1009,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>-697.380909016949</v>
+        <v>1743.50473388829</v>
       </c>
       <c r="E31">
-        <v>-656.891398289452</v>
+        <v>1642.27791119577</v>
       </c>
       <c r="F31">
-        <v>558.235086328068</v>
+        <v>-1001.16908877231</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1029,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-158.90451238977</v>
+        <v>300.538327390395</v>
       </c>
       <c r="E32">
-        <v>-413.881018827356</v>
+        <v>782.778961190848</v>
       </c>
       <c r="F32">
-        <v>1310.2646676117</v>
+        <v>-1777.7058082732</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1049,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>-7.31959561244548</v>
+        <v>57.8375992664915</v>
       </c>
       <c r="E33">
-        <v>-9.46862630968826</v>
+        <v>74.8186980675255</v>
       </c>
       <c r="F33">
-        <v>70.2333611789945</v>
+        <v>-398.110698904791</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>201.222703737825</v>
+        <v>398.842350800918</v>
       </c>
       <c r="F34">
-        <v>-663.830278693884</v>
+        <v>-943.883884270093</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>311.181253514394</v>
+        <v>970.105749260209</v>
       </c>
       <c r="F35">
-        <v>-613.177876166483</v>
+        <v>-1371.29014719356</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1109,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>26.4367858599153</v>
+        <v>591.051955743711</v>
       </c>
       <c r="E36">
-        <v>50.6444089964807</v>
+        <v>1132.26612128526</v>
       </c>
       <c r="F36">
-        <v>-113.770179120656</v>
+        <v>-1824.66303332296</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-9.65148640319603</v>
+        <v>923.869927011445</v>
       </c>
       <c r="E37">
-        <v>-8.25383514683199</v>
+        <v>790.082455293328</v>
       </c>
       <c r="F37">
-        <v>29.1256845854441</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-12.5018166330501</v>
+        <v>652.34217166396</v>
       </c>
       <c r="E38">
-        <v>-8.0004383343985</v>
+        <v>417.461195481639</v>
       </c>
       <c r="F38">
-        <v>34.7843460921868</v>
+        <v>-1302.03722285454</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1169,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>-79.7010259583221</v>
+        <v>193.134976446216</v>
       </c>
       <c r="E39">
-        <v>-85.7967499914466</v>
+        <v>207.906398813797</v>
       </c>
       <c r="F39">
-        <v>267.113588768385</v>
+        <v>-464.333724491411</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>-132.968213410786</v>
+        <v>162.733994274357</v>
       </c>
       <c r="E40">
-        <v>-88.7891617814639</v>
+        <v>108.665180755124</v>
       </c>
       <c r="F40">
-        <v>298.760910759302</v>
+        <v>-262.295869534515</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1209,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>-121.326845378364</v>
+        <v>82.4274433805222</v>
       </c>
       <c r="E41">
-        <v>-104.155355552899</v>
+        <v>70.7614184300401</v>
       </c>
       <c r="F41">
-        <v>417.432476676637</v>
+        <v>-203.440954556107</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1229,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>-159.219177363972</v>
+        <v>179.198802825864</v>
       </c>
       <c r="E42">
-        <v>-85.837425283371</v>
+        <v>96.6087383636695</v>
       </c>
       <c r="F42">
-        <v>95.9792017022519</v>
+        <v>-77.4915036167404</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>-21.071809450812</v>
+        <v>31.9528564767661</v>
       </c>
       <c r="E43">
-        <v>-27.2649590555448</v>
+        <v>41.3440205778406</v>
       </c>
       <c r="F43">
-        <v>89.0481828068223</v>
+        <v>-96.8657277922539</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1269,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>-9.52930285269542</v>
+        <v>-101.636385105717</v>
       </c>
       <c r="E44">
-        <v>0.289035874037502</v>
+        <v>3.08276081232258</v>
       </c>
       <c r="F44">
-        <v>-165.365658637193</v>
+        <v>-1265.23335263979</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1289,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>-12.5965566931239</v>
+        <v>-46.4617631587823</v>
       </c>
       <c r="E45">
-        <v>50.5100258554753</v>
+        <v>186.303679300079</v>
       </c>
       <c r="F45">
-        <v>-330.62679576518</v>
+        <v>-874.820830335331</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1309,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>309.320025757694</v>
+        <v>1171.60419790105</v>
       </c>
       <c r="E46">
-        <v>245.292186917748</v>
+        <v>929.087456271864</v>
       </c>
       <c r="F46">
-        <v>-736.071305785201</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1329,13 +1329,13 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>194.341926954861</v>
+        <v>1201.61786584588</v>
       </c>
       <c r="E47">
-        <v>442.301392734287</v>
+        <v>2734.75345194804</v>
       </c>
       <c r="F47">
-        <v>-423.170616655967</v>
+        <v>-1876.94956457006</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1349,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>48.817678551326</v>
+        <v>644.505466819521</v>
       </c>
       <c r="E48">
-        <v>37.3441214263357</v>
+        <v>493.028163712049</v>
       </c>
       <c r="F48">
-        <v>-191.486593568527</v>
+        <v>-1813.53140934615</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1369,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>-49.4063901621903</v>
+        <v>153.886720566582</v>
       </c>
       <c r="E49">
-        <v>-83.5497970544448</v>
+        <v>260.23363031593</v>
       </c>
       <c r="F49">
-        <v>231.491121971783</v>
+        <v>-517.237003470716</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1389,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>-24.5551750418335</v>
+        <v>29.3787854058774</v>
       </c>
       <c r="E50">
-        <v>-34.737753311957</v>
+        <v>41.5616259422141</v>
       </c>
       <c r="F50">
-        <v>193.86622580473</v>
+        <v>-166.391135075035</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1409,13 +1409,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>-255.327603939695</v>
+        <v>-25.8229704673486</v>
       </c>
       <c r="E51">
-        <v>-219.445884325008</v>
+        <v>-22.1940146802317</v>
       </c>
       <c r="F51">
-        <v>674.246014484965</v>
+        <v>48.917476276456</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1429,13 +1429,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>-376.589383964644</v>
+        <v>177.034970295374</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1528.42305040481</v>
+        <v>-515.432494404558</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1449,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>-261.576463254324</v>
+        <v>162.02085705491</v>
       </c>
       <c r="E53">
-        <v>-632.367571469316</v>
+        <v>391.689430419337</v>
       </c>
       <c r="F53">
-        <v>1429.76757880809</v>
+        <v>-635.294262036401</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1469,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>-494.962249929938</v>
+        <v>1575.01052054898</v>
       </c>
       <c r="E54">
-        <v>-622.266204423917</v>
+        <v>1980.10215665636</v>
       </c>
       <c r="F54">
-        <v>365.74500707076</v>
+        <v>-834.885684192068</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1489,13 +1489,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>-1451.08637553673</v>
+        <v>1349.8898962093</v>
       </c>
       <c r="E55">
-        <v>-1388.95967101003</v>
+        <v>1292.09581024777</v>
       </c>
       <c r="F55">
-        <v>1176.26145458523</v>
+        <v>-784.957555650824</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1509,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>-239.83725661145</v>
+        <v>334.333135716362</v>
       </c>
       <c r="E56">
-        <v>-617.714723521178</v>
+        <v>861.094324588521</v>
       </c>
       <c r="F56">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1529,13 +1529,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>22.083096600878</v>
+        <v>102.990395962981</v>
       </c>
       <c r="E57">
-        <v>27.7196605272102</v>
+        <v>129.278011379223</v>
       </c>
       <c r="F57">
-        <v>-211.40622296997</v>
+        <v>-707.28060482008</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>191.995374951714</v>
+        <v>410.517851052784</v>
       </c>
       <c r="F58">
-        <v>-644.609286623188</v>
+        <v>-988.723972271044</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>164.647344972784</v>
+        <v>1161.07393895047</v>
       </c>
       <c r="F59">
-        <v>-322.728818140746</v>
+        <v>-1632.60122892251</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>-0.88587966360592</v>
+        <v>634.663089948865</v>
       </c>
       <c r="E60">
-        <v>-1.67232718361447</v>
+        <v>1198.09087098667</v>
       </c>
       <c r="F60">
-        <v>3.89156473922412</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1609,13 +1609,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>-54.4448936489262</v>
+        <v>960.16086379121</v>
       </c>
       <c r="E61">
-        <v>-45.1767713668323</v>
+        <v>796.713243643782</v>
       </c>
       <c r="F61">
-        <v>158.090554632534</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1629,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>-273.244347952108</v>
+        <v>993.693461301003</v>
       </c>
       <c r="E62">
-        <v>-180.494107140151</v>
+        <v>656.393500589324</v>
       </c>
       <c r="F62">
-        <v>766.640087470307</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1649,13 +1649,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>-228.394596555527</v>
+        <v>458.879987203125</v>
       </c>
       <c r="E63">
-        <v>-253.941410916839</v>
+        <v>510.207479289171</v>
       </c>
       <c r="F63">
-        <v>783.536909836766</v>
+        <v>-1129.30169048527</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1669,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>-176.742964686659</v>
+        <v>-278.716333036806</v>
       </c>
       <c r="E64">
-        <v>-118.638952744503</v>
+        <v>-187.088713391773</v>
       </c>
       <c r="F64">
-        <v>400.698107121643</v>
+        <v>453.288604327216</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1689,13 +1689,13 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>67.3293608488129</v>
+        <v>-813.37273102811</v>
       </c>
       <c r="E65">
-        <v>56.8482872159329</v>
+        <v>-686.756060716514</v>
       </c>
       <c r="F65">
-        <v>-230.785039731069</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1709,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>547.604668120512</v>
+        <v>-1559.11877015803</v>
       </c>
       <c r="E66">
-        <v>292.279807766838</v>
+        <v>-832.167731497808</v>
       </c>
       <c r="F66">
-        <v>-323.063746231812</v>
+        <v>659.838283374465</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1729,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>86.2716262642844</v>
+        <v>-182.628442444426</v>
       </c>
       <c r="E67">
-        <v>114.210869346596</v>
+        <v>-241.773038044927</v>
       </c>
       <c r="F67">
-        <v>-363.502608776893</v>
+        <v>552.00776728752</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1749,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>-31.8578856884137</v>
+        <v>-33.767033070556</v>
       </c>
       <c r="E68">
-        <v>0.683143648053644</v>
+        <v>0.724082394587796</v>
       </c>
       <c r="F68">
-        <v>-555.88222667533</v>
+        <v>-422.664690490501</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1769,13 +1769,13 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>-32.501363311323</v>
+        <v>-46.9933882501905</v>
       </c>
       <c r="E69">
-        <v>131.610860594503</v>
+        <v>190.294795040321</v>
       </c>
       <c r="F69">
-        <v>-869.555873884212</v>
+        <v>-901.923909501897</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1789,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>505.369530644502</v>
+        <v>1176.18734389502</v>
       </c>
       <c r="E70">
-        <v>397.365509587356</v>
+        <v>924.820858671461</v>
       </c>
       <c r="F70">
-        <v>-1197.91312051615</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1809,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>331.810646566082</v>
+        <v>1088.50038695887</v>
       </c>
       <c r="E71">
-        <v>740.851431259802</v>
+        <v>2430.35320882846</v>
       </c>
       <c r="F71">
-        <v>-719.184528936137</v>
+        <v>-1692.449946646</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1829,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>86.4651637430497</v>
+        <v>573.500756906313</v>
       </c>
       <c r="E72">
-        <v>65.7736039466181</v>
+        <v>436.259066829952</v>
       </c>
       <c r="F72">
-        <v>-333.322741862306</v>
+        <v>-1585.97011323407</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>-64.5966141507502</v>
+        <v>90.2056140782688</v>
       </c>
       <c r="E73">
-        <v>-111.005019079899</v>
+        <v>155.012395673002</v>
       </c>
       <c r="F73">
-        <v>300.972155496391</v>
+        <v>-301.500028307</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1869,13 +1869,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>-90.8820995343103</v>
+        <v>-143.51447707844</v>
       </c>
       <c r="E74">
-        <v>-130.397979797305</v>
+        <v>-205.915113961802</v>
       </c>
       <c r="F74">
-        <v>733.2341948016</v>
+        <v>830.610272755333</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1889,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>-183.865723516244</v>
+        <v>-809.861839910263</v>
       </c>
       <c r="E75">
-        <v>-155.551659675631</v>
+        <v>-685.148655751882</v>
       </c>
       <c r="F75">
-        <v>483.064560245559</v>
+        <v>1526.34449224498</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1909,13 +1909,13 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>-187.05838869771</v>
+        <v>-694.315472816605</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>751.126552852973</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1929,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>-121.537799876134</v>
+        <v>-277.758062279087</v>
       </c>
       <c r="E77">
-        <v>-290.950953375483</v>
+        <v>-664.928714442658</v>
       </c>
       <c r="F77">
-        <v>661.495812744812</v>
+        <v>1084.47521046593</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1949,13 +1949,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>-64.7232913130465</v>
+        <v>-46.3731831202786</v>
       </c>
       <c r="E78">
-        <v>-81.205360187636</v>
+        <v>-58.182316781691</v>
       </c>
       <c r="F78">
-        <v>47.3534552964575</v>
+        <v>24.3385787473562</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1969,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>-481.93782072009</v>
+        <v>-894.02127539432</v>
       </c>
       <c r="E79">
-        <v>-462.487862174439</v>
+        <v>-857.940528049417</v>
       </c>
       <c r="F79">
-        <v>388.094050425105</v>
+        <v>516.453298710152</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1989,13 +1989,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>-100.567806887826</v>
+        <v>-212.553667684844</v>
       </c>
       <c r="E80">
-        <v>-259.671705637127</v>
+        <v>-548.825465476391</v>
       </c>
       <c r="F80">
-        <v>843.094158600725</v>
+        <v>1278.27098267435</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2009,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>-15.5703865261603</v>
+        <v>15.1010410238214</v>
       </c>
       <c r="E81">
-        <v>-19.6328101561285</v>
+        <v>19.0410091029207</v>
       </c>
       <c r="F81">
-        <v>148.090981578949</v>
+        <v>-103.032285005604</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>-2.89046947485531</v>
+        <v>224.39149379799</v>
       </c>
       <c r="F82">
-        <v>9.55524315697039</v>
+        <v>-532.129054034602</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>125.573538926825</v>
+        <v>528.850531838616</v>
       </c>
       <c r="F83">
-        <v>-248.994708537673</v>
+        <v>-752.249929633123</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2069,13 +2069,13 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>91.6709254366397</v>
+        <v>453.71712725997</v>
       </c>
       <c r="E84">
-        <v>173.847825669571</v>
+        <v>860.444417545532</v>
       </c>
       <c r="F84">
-        <v>-392.553942300641</v>
+        <v>-1393.7668390581</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2089,13 +2089,13 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>214.826393039126</v>
+        <v>926.881872887643</v>
       </c>
       <c r="E85">
-        <v>182.247615716375</v>
+        <v>786.318705978256</v>
       </c>
       <c r="F85">
-        <v>-646.183727735584</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2109,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>278.694055682376</v>
+        <v>830.261011747925</v>
       </c>
       <c r="E86">
-        <v>175.040860760904</v>
+        <v>521.466458252002</v>
       </c>
       <c r="F86">
-        <v>-771.728632992821</v>
+        <v>-1649.25868156465</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2129,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>163.120662020463</v>
+        <v>223.583622207078</v>
       </c>
       <c r="E87">
-        <v>171.566066434723</v>
+        <v>235.159434164651</v>
       </c>
       <c r="F87">
-        <v>-539.120608399888</v>
+        <v>-530.095566644028</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2149,13 +2149,13 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>151.2484574808</v>
+        <v>-220.407145485216</v>
       </c>
       <c r="E88">
-        <v>100.650796466311</v>
+        <v>-146.673593301066</v>
       </c>
       <c r="F88">
-        <v>-336.695646789973</v>
+        <v>351.973075845912</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2169,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>10.9777293071165</v>
+        <v>-805.600834202291</v>
       </c>
       <c r="E89">
-        <v>9.23332023965486</v>
+        <v>-677.587347931869</v>
       </c>
       <c r="F89">
-        <v>-37.9914071694657</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2189,13 +2189,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>-169.141131153898</v>
+        <v>-1926.33461485989</v>
       </c>
       <c r="E90">
-        <v>-89.1915014175029</v>
+        <v>-1015.79477067308</v>
       </c>
       <c r="F90">
-        <v>98.500502138817</v>
+        <v>804.744780738856</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2209,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>-47.2636855865294</v>
+        <v>-257.630791183221</v>
       </c>
       <c r="E91">
-        <v>-62.2111220877159</v>
+        <v>-339.108142011311</v>
       </c>
       <c r="F91">
-        <v>198.37911336148</v>
+        <v>775.717079636903</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2229,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>-6.50518356678788</v>
+        <v>-59.4812240269598</v>
       </c>
       <c r="E92">
-        <v>0.0021732844121789</v>
+        <v>0.0198717861946081</v>
       </c>
       <c r="F92">
-        <v>-111.137418270575</v>
+        <v>-728.9837893967</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2249,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>-11.8019314400063</v>
+        <v>-52.0672557508565</v>
       </c>
       <c r="E93">
-        <v>45.8316716140098</v>
+        <v>202.198206246707</v>
       </c>
       <c r="F93">
-        <v>-309.257326483556</v>
+        <v>-978.743350160632</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2269,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>129.934340624379</v>
+        <v>1123.60645661487</v>
       </c>
       <c r="E94">
-        <v>100.395193797706</v>
+        <v>868.166855829948</v>
       </c>
       <c r="F94">
-        <v>-301.609761014526</v>
+        <v>-1870.99616808082</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2289,13 +2289,13 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>-59.0703871264795</v>
+        <v>1281.85843941029</v>
       </c>
       <c r="E95">
-        <v>-135.520858045777</v>
+        <v>2940.87382955772</v>
       </c>
       <c r="F95">
-        <v>128.47615169144</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2309,13 +2309,13 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>-106.86097976959</v>
+        <v>697.067110115664</v>
       </c>
       <c r="E96">
-        <v>-84.061006508533</v>
+        <v>548.340123838097</v>
       </c>
       <c r="F96">
-        <v>420.502648778947</v>
+        <v>-1967.71140159812</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2329,13 +2329,13 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>-117.722907194584</v>
+        <v>376.258020035474</v>
       </c>
       <c r="E97">
-        <v>-207.634253789801</v>
+        <v>663.626604916937</v>
       </c>
       <c r="F97">
-        <v>567.208206367755</v>
+        <v>-1300.48251975425</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2349,13 +2349,13 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>-73.4716793150096</v>
+        <v>342.346583361698</v>
       </c>
       <c r="E98">
-        <v>-105.895462826998</v>
+        <v>493.42753875128</v>
       </c>
       <c r="F98">
-        <v>588.334781467536</v>
+        <v>-1966.56262800573</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2369,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>-89.2992771347608</v>
+        <v>904.137112939867</v>
       </c>
       <c r="E99">
-        <v>-76.2912580699722</v>
+        <v>772.43355183986</v>
       </c>
       <c r="F99">
-        <v>238.535573674835</v>
+        <v>-1732.51393128856</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2389,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>-179.914287269051</v>
+        <v>699.044294542195</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>717.552574024816</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2409,13 +2409,13 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>-146.314126624677</v>
+        <v>287.834807082705</v>
       </c>
       <c r="E101">
-        <v>-333.060595772969</v>
+        <v>655.209681680837</v>
       </c>
       <c r="F101">
-        <v>781.148147103646</v>
+        <v>-1102.37075883318</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2429,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>-395.051642319288</v>
+        <v>1928.70159025375</v>
       </c>
       <c r="E102">
-        <v>-457.894388157838</v>
+        <v>2235.50933600352</v>
       </c>
       <c r="F102">
-        <v>282.128006386805</v>
+        <v>-988.085652592305</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2449,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>-479.467644429675</v>
+        <v>1707.7565695694</v>
       </c>
       <c r="E103">
-        <v>-418.115783014284</v>
+        <v>1489.23495376346</v>
       </c>
       <c r="F103">
-        <v>367.18360991832</v>
+        <v>-938.182165380827</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2469,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>-56.3255540653663</v>
+        <v>361.790847691946</v>
       </c>
       <c r="E104">
-        <v>-119.361432069465</v>
+        <v>766.683513490552</v>
       </c>
       <c r="F104">
-        <v>434.050904648509</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2489,13 +2489,13 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>-37.8641122232311</v>
+        <v>-37.7344865958412</v>
       </c>
       <c r="E105">
-        <v>-40.9567014239319</v>
+        <v>-40.8164884938997</v>
       </c>
       <c r="F105">
-        <v>320.537000687043</v>
+        <v>229.153271561991</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>-70.5069683115307</v>
+        <v>-83.4388706963819</v>
       </c>
       <c r="F106">
-        <v>217.601231311332</v>
+        <v>184.728945509891</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-122.850958592966</v>
+        <v>-420.818748153628</v>
       </c>
       <c r="F107">
-        <v>231.468355454153</v>
+        <v>568.781395987984</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2549,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>-101.787553370064</v>
+        <v>-373.042800997529</v>
       </c>
       <c r="E108">
-        <v>-207.197763471711</v>
+        <v>-759.362333476058</v>
       </c>
       <c r="F108">
-        <v>454.395525230513</v>
+        <v>1194.63507038679</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2569,13 +2569,13 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>-217.393359376665</v>
+        <v>-905.407532098889</v>
       </c>
       <c r="E109">
-        <v>-191.729939627098</v>
+        <v>-798.523616199624</v>
       </c>
       <c r="F109">
-        <v>669.414230006591</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2589,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>-195.490591787207</v>
+        <v>-918.914073323915</v>
       </c>
       <c r="E110">
-        <v>-129.650724643508</v>
+        <v>-609.430225784186</v>
       </c>
       <c r="F110">
-        <v>549.733150612625</v>
+        <v>1853.69464297493</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2609,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>-164.227420756537</v>
+        <v>-648.597235899049</v>
       </c>
       <c r="E111">
-        <v>-174.508785933834</v>
+        <v>-689.20230053773</v>
       </c>
       <c r="F111">
-        <v>564.378973568877</v>
+        <v>1598.95953412772</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2629,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>-284.409143641768</v>
+        <v>-569.970850704238</v>
       </c>
       <c r="E112">
-        <v>-180.211361420137</v>
+        <v>-361.153026446229</v>
       </c>
       <c r="F112">
-        <v>615.164284352442</v>
+        <v>884.376981308676</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2649,13 +2649,13 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>-158.94807103011</v>
+        <v>226.170084094625</v>
       </c>
       <c r="E113">
-        <v>-133.897961433058</v>
+        <v>190.52583023594</v>
       </c>
       <c r="F113">
-        <v>539.062925654311</v>
+        <v>-550.245612139894</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2669,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>-69.1428345577006</v>
+        <v>1271.67577882867</v>
       </c>
       <c r="E114">
-        <v>-37.3371538923384</v>
+        <v>686.705347835617</v>
       </c>
       <c r="F114">
-        <v>41.5214767531579</v>
+        <v>-547.821707479423</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2689,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>70.2300488090541</v>
+        <v>232.822123110574</v>
       </c>
       <c r="E115">
-        <v>92.8881800418058</v>
+        <v>307.936896754973</v>
       </c>
       <c r="F115">
-        <v>-296.059956383913</v>
+        <v>-704.073781231138</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2709,13 +2709,13 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>-40.9698926501217</v>
+        <v>-91.4932815621369</v>
       </c>
       <c r="E116">
-        <v>1.60765469496445</v>
+        <v>3.59018767555005</v>
       </c>
       <c r="F116">
-        <v>-671.174425702546</v>
+        <v>-1075.21918459545</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2729,13 +2729,13 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>-39.7493813867495</v>
+        <v>-83.9257178146509</v>
       </c>
       <c r="E117">
-        <v>156.958127357084</v>
+        <v>331.396943693767</v>
       </c>
       <c r="F117">
-        <v>-1017.3537870386</v>
+        <v>-1540.8981102719</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2749,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>606.708453815249</v>
+        <v>1145.41684730301</v>
       </c>
       <c r="E118">
-        <v>495.758510041705</v>
+        <v>935.952261790182</v>
       </c>
       <c r="F118">
-        <v>-1476.75771769877</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2769,13 +2769,13 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>514.384741313104</v>
+        <v>1074.65203529249</v>
       </c>
       <c r="E119">
-        <v>1179.95241941375</v>
+        <v>2465.15529569225</v>
       </c>
       <c r="F119">
-        <v>-1128.32491597861</v>
+        <v>-1691.02953540138</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2789,13 +2789,13 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>201.991427531115</v>
+        <v>457.72955525524</v>
       </c>
       <c r="E120">
-        <v>160.376520343312</v>
+        <v>363.426677198068</v>
       </c>
       <c r="F120">
-        <v>-783.414583853799</v>
+        <v>-1273.51743543319</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2809,13 +2809,13 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>44.4637048061304</v>
+        <v>398.008700711161</v>
       </c>
       <c r="E121">
-        <v>82.0193070905252</v>
+        <v>734.180788368077</v>
       </c>
       <c r="F121">
-        <v>-216.231811747783</v>
+        <v>-1388.49312382691</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2829,13 +2829,13 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>-58.7204306579188</v>
+        <v>283.496495732923</v>
       </c>
       <c r="E122">
-        <v>-87.4642995567838</v>
+        <v>422.269083320135</v>
       </c>
       <c r="F122">
-        <v>487.229754866949</v>
+        <v>-1687.44447649818</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2849,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>-282.234212841278</v>
+        <v>604.41105305213</v>
       </c>
       <c r="E123">
-        <v>-243.632604100419</v>
+        <v>521.744820798813</v>
       </c>
       <c r="F123">
-        <v>750.515973771217</v>
+        <v>-1152.97504020458</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2869,13 +2869,13 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>-294.582354792639</v>
+        <v>554.603253834104</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1192.47326245219</v>
+        <v>-1610.50308149598</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>-123.822673105736</v>
+        <v>320.168753544928</v>
       </c>
       <c r="E125">
-        <v>-282.371260236745</v>
+        <v>730.128434149605</v>
       </c>
       <c r="F125">
-        <v>659.664453138423</v>
+        <v>-1223.59890109342</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2909,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>-900.327587653843</v>
+        <v>1556.92054090745</v>
       </c>
       <c r="E126">
-        <v>-1039.94892488573</v>
+        <v>1798.36524488654</v>
       </c>
       <c r="F126">
-        <v>646.062742975306</v>
+        <v>-801.452547573253</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2929,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>-1214.97586398239</v>
+        <v>2103.31476371517</v>
       </c>
       <c r="E127">
-        <v>-1049.28844247282</v>
+        <v>1816.4837161578</v>
       </c>
       <c r="F127">
-        <v>931.952495970496</v>
+        <v>-1157.35774356975</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2949,13 +2949,13 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>-246.957353184586</v>
+        <v>364.512799868249</v>
       </c>
       <c r="E128">
-        <v>-508.975245304695</v>
+        <v>751.255183687412</v>
       </c>
       <c r="F128">
-        <v>1888.86947434352</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2969,13 +2969,13 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>-43.1255397088007</v>
+        <v>-73.9078102277717</v>
       </c>
       <c r="E129">
-        <v>-45.2743352243269</v>
+        <v>-77.5903791243491</v>
       </c>
       <c r="F129">
-        <v>359.179209333044</v>
+        <v>441.574725978513</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>-86.3245558359949</v>
+        <v>-301.844874124763</v>
       </c>
       <c r="F130">
-        <v>261.29868522385</v>
+        <v>655.426359273166</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>-490.097354601948</v>
+        <v>-696.089985813764</v>
       </c>
       <c r="F131">
-        <v>877.354331506484</v>
+        <v>893.913051799578</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3029,13 +3029,13 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>-191.743234144504</v>
+        <v>-171.912835766588</v>
       </c>
       <c r="E132">
-        <v>-420.985013432695</v>
+        <v>-377.446055905722</v>
       </c>
       <c r="F132">
-        <v>885.548559282477</v>
+        <v>569.557877507454</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3049,13 +3049,13 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>-179.749296788742</v>
+        <v>-48.2616138348039</v>
       </c>
       <c r="E133">
-        <v>-165.374265316843</v>
+        <v>-44.4020036435322</v>
       </c>
       <c r="F133">
-        <v>577.12548426077</v>
+        <v>111.158356882333</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3069,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>-11.8117531020771</v>
+        <v>366.487634727939</v>
       </c>
       <c r="E134">
-        <v>-7.81303115269748</v>
+        <v>242.417808979132</v>
       </c>
       <c r="F134">
-        <v>33.2309767538645</v>
+        <v>-739.648359887113</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3089,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>12.6035694566981</v>
+        <v>624.360796314882</v>
       </c>
       <c r="E135">
-        <v>13.5355885568115</v>
+        <v>670.53154100173</v>
       </c>
       <c r="F135">
-        <v>-43.1789562578997</v>
+        <v>-1534.44537730783</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3109,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>-123.653032286016</v>
+        <v>1079.56001104541</v>
       </c>
       <c r="E136">
-        <v>-80.3327626604259</v>
+        <v>701.349870211034</v>
       </c>
       <c r="F136">
-        <v>271.150782307053</v>
+        <v>-1698.20496494771</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3129,13 +3129,13 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>-204.303124220554</v>
+        <v>812.863795738562</v>
       </c>
       <c r="E137">
-        <v>-174.853221202877</v>
+        <v>695.691040586575</v>
       </c>
       <c r="F137">
-        <v>700.728846964295</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3149,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>-434.227919983809</v>
+        <v>1124.56928318307</v>
       </c>
       <c r="E138">
-        <v>-236.697304221267</v>
+        <v>613.001848774249</v>
       </c>
       <c r="F138">
-        <v>258.850015019994</v>
+        <v>-480.899021457797</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3169,13 +3169,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>-46.3331681520658</v>
+        <v>200.854543634056</v>
       </c>
       <c r="E139">
-        <v>-63.1771097039546</v>
+        <v>273.873124670856</v>
       </c>
       <c r="F139">
-        <v>197.233830140383</v>
+        <v>-613.349898955043</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3189,13 +3189,13 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>-11.7549335742757</v>
+        <v>-97.3854308816387</v>
       </c>
       <c r="E140">
-        <v>0.847582104150511</v>
+        <v>7.02191534292476</v>
       </c>
       <c r="F140">
-        <v>-202.106186873398</v>
+        <v>-1201.13174553515</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3209,13 +3209,13 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>-13.9994091279899</v>
+        <v>-70.211428998969</v>
       </c>
       <c r="E141">
-        <v>59.5445438739366</v>
+        <v>298.634569234934</v>
       </c>
       <c r="F141">
-        <v>-374.671368825198</v>
+        <v>-1347.98742132307</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3229,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>500.359537653749</v>
+        <v>1113.53790146231</v>
       </c>
       <c r="E142">
-        <v>419.052770753346</v>
+        <v>932.591682242612</v>
       </c>
       <c r="F142">
-        <v>-1252.76597154594</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3249,10 +3249,10 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>915.052590572654</v>
+        <v>1275.58331125828</v>
       </c>
       <c r="E143">
-        <v>2084.18387222438</v>
+        <v>2905.35231788079</v>
       </c>
       <c r="F143">
         <v>-2000</v>
@@ -3269,10 +3269,10 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>516.835107626042</v>
+        <v>720.468140030704</v>
       </c>
       <c r="E144">
-        <v>407.364662992244</v>
+        <v>567.866340211189</v>
       </c>
       <c r="F144">
         <v>-2000</v>
@@ -3289,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>314.112121620609</v>
+        <v>480.051093555269</v>
       </c>
       <c r="E145">
-        <v>562.819907827811</v>
+        <v>860.146086796828</v>
       </c>
       <c r="F145">
-        <v>-1516.42919018255</v>
+        <v>-1662.50181876649</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3309,13 +3309,13 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <v>62.1887764099474</v>
+        <v>84.6671329764149</v>
       </c>
       <c r="E146">
-        <v>89.5333082953498</v>
+        <v>121.895444111811</v>
       </c>
       <c r="F146">
-        <v>-504.90234607349</v>
+        <v>-493.114140798574</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3329,13 +3329,13 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>-296.558211231431</v>
+        <v>-626.764889529024</v>
       </c>
       <c r="E147">
-        <v>-252.456500940682</v>
+        <v>-533.557544287616</v>
       </c>
       <c r="F147">
-        <v>776.718805831191</v>
+        <v>1177.59445785314</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3349,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>-317.196470231623</v>
+        <v>-677.416613521524</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1285.63455717988</v>
+        <v>1969.61916467907</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3369,13 +3369,13 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>-201.500189357584</v>
+        <v>-151.376504711608</v>
       </c>
       <c r="E149">
-        <v>-477.774894341131</v>
+        <v>-358.927174088018</v>
       </c>
       <c r="F149">
-        <v>1089.65399577889</v>
+        <v>587.230841208748</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3389,13 +3389,13 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>-647.188577416207</v>
+        <v>-617.155909858891</v>
       </c>
       <c r="E150">
-        <v>-815.194364272042</v>
+        <v>-777.365418905727</v>
       </c>
       <c r="F150">
-        <v>468.544497569123</v>
+        <v>320.517773214639</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3409,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="D151">
-        <v>-770.146640121511</v>
+        <v>-828.705605158873</v>
       </c>
       <c r="E151">
-        <v>-748.387674656962</v>
+        <v>-805.292172309146</v>
       </c>
       <c r="F151">
-        <v>618.723371812946</v>
+        <v>477.595909986527</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="D152">
-        <v>-234.971736442325</v>
+        <v>-327.5506006006</v>
       </c>
       <c r="E152">
-        <v>-637.502208090445</v>
+        <v>-888.678078078083</v>
       </c>
       <c r="F152">
         <v>2000</v>
@@ -3449,13 +3449,13 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>-98.5711544398546</v>
+        <v>-37.2827732430596</v>
       </c>
       <c r="E153">
-        <v>-130.142486131958</v>
+        <v>-49.2240638482745</v>
       </c>
       <c r="F153">
-        <v>967.629622263645</v>
+        <v>262.545602098027</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>-96.0104992800298</v>
+        <v>92.7805628642327</v>
       </c>
       <c r="F154">
-        <v>313.828046547158</v>
+        <v>-217.554091047514</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>-17.98278637564</v>
+        <v>241.310794567678</v>
       </c>
       <c r="F155">
-        <v>34.9263080206729</v>
+        <v>-336.209259818665</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3509,13 +3509,13 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>4.4945545541168</v>
+        <v>249.306984096676</v>
       </c>
       <c r="E156">
-        <v>8.7763238095431</v>
+        <v>486.811049697513</v>
       </c>
       <c r="F156">
-        <v>-19.5366663021923</v>
+        <v>-777.383777730451</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3529,13 +3529,13 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>94.7053836193645</v>
+        <v>627.335781449765</v>
       </c>
       <c r="E157">
-        <v>81.5057756967872</v>
+        <v>539.90055829264</v>
       </c>
       <c r="F157">
-        <v>-288.972837197547</v>
+        <v>-1373.15524394883</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>170.137964768392</v>
+        <v>717.913998151684</v>
       </c>
       <c r="E158">
-        <v>106.765243735636</v>
+        <v>450.506523327884</v>
       </c>
       <c r="F158">
-        <v>-471.154850736362</v>
+        <v>-1426.17257580119</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3569,13 +3569,13 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>99.0544812349781</v>
+        <v>430.842605480961</v>
       </c>
       <c r="E159">
-        <v>105.55827964645</v>
+        <v>459.13121411517</v>
       </c>
       <c r="F159">
-        <v>-327.071338858543</v>
+        <v>-1020.52636883556</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3589,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>217.48930685328</v>
+        <v>764.477586132984</v>
       </c>
       <c r="E160">
-        <v>147.615695102591</v>
+        <v>518.870982211092</v>
       </c>
       <c r="F160">
-        <v>-491.008274072476</v>
+        <v>-1238.09190599259</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3609,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>276.30151004632</v>
+        <v>801.043123245723</v>
       </c>
       <c r="E161">
-        <v>239.764727010574</v>
+        <v>695.117032608741</v>
       </c>
       <c r="F161">
-        <v>-961.656854237575</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3629,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>628.239623142508</v>
+        <v>1383.13258916202</v>
       </c>
       <c r="E162">
-        <v>344.873639524554</v>
+        <v>759.273933699558</v>
       </c>
       <c r="F162">
-        <v>-372.766544557631</v>
+        <v>-588.725225141632</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3649,13 +3649,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>118.546255589481</v>
+        <v>215.72195447229</v>
       </c>
       <c r="E163">
-        <v>159.527429322394</v>
+        <v>290.296548585553</v>
       </c>
       <c r="F163">
-        <v>-513.180006308015</v>
+        <v>-669.905370594504</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3669,13 +3669,13 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>-44.6405540236623</v>
+        <v>-110.52029668217</v>
       </c>
       <c r="E164">
-        <v>0.919025918138189</v>
+        <v>2.27530816659214</v>
       </c>
       <c r="F164">
-        <v>-806.30964917832</v>
+        <v>-1432.0281312623</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3689,13 +3689,13 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>-36.6274282587907</v>
+        <v>-68.1821256774867</v>
       </c>
       <c r="E165">
-        <v>152.566898268644</v>
+        <v>284.003980800385</v>
       </c>
       <c r="F165">
-        <v>-1009.46700396734</v>
+        <v>-1348.01108845829</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3709,13 +3709,13 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>548.327119922717</v>
+        <v>1180.15570727033</v>
       </c>
       <c r="E166">
-        <v>427.235172067612</v>
+        <v>919.531440891124</v>
       </c>
       <c r="F166">
-        <v>-1295.36806111836</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3729,13 +3729,13 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>321.224384993915</v>
+        <v>936.4792306076</v>
       </c>
       <c r="E167">
-        <v>721.51622091918</v>
+        <v>2103.46719303423</v>
       </c>
       <c r="F167">
-        <v>-692.257218069819</v>
+        <v>-1447.75263039449</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3749,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>63.5489879518191</v>
+        <v>416.130432526952</v>
       </c>
       <c r="E168">
-        <v>49.9464745091718</v>
+        <v>327.058678833027</v>
       </c>
       <c r="F168">
-        <v>-246.199675299333</v>
+        <v>-1156.49974493986</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3769,13 +3769,13 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <v>-69.6959190946127</v>
+        <v>-27.8473044205111</v>
       </c>
       <c r="E169">
-        <v>-111.508706240069</v>
+        <v>-44.5537834717297</v>
       </c>
       <c r="F169">
-        <v>335.513224470011</v>
+        <v>96.1662501905848</v>
       </c>
     </row>
   </sheetData>

--- a/Model2/excel/output_elasticity_model_shifting.xlsx
+++ b/Model2/excel/output_elasticity_model_shifting.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="pattern" sheetId="1" r:id="rId1"/>
+    <sheet name="shifting" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -429,13 +429,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-352.953475558235</v>
+        <v>-16.5135697037422</v>
       </c>
       <c r="E2">
-        <v>-458.084121261585</v>
+        <v>-21.4322979952713</v>
       </c>
       <c r="F2">
-        <v>1840.77999067775</v>
+        <v>88.2773426530621</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-1024.8216399442</v>
+        <v>-667.749822053924</v>
       </c>
       <c r="E3">
-        <v>-875.181479529361</v>
+        <v>-570.247791852288</v>
       </c>
       <c r="F3">
-        <v>1939.09696651855</v>
+        <v>1295.05700696248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-690.542635658914</v>
+        <v>-673.700132350162</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-244.125432659304</v>
+        <v>-380.247161239448</v>
       </c>
       <c r="E5">
-        <v>-588.574385562</v>
+        <v>-916.757163931123</v>
       </c>
       <c r="F5">
-        <v>948.214915318298</v>
+        <v>1513.85263925089</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-249.8637324997</v>
+        <v>-42.6443333746283</v>
       </c>
       <c r="E6">
-        <v>-317.963636598688</v>
+        <v>-54.2669685771216</v>
       </c>
       <c r="F6">
-        <v>132.576473430056</v>
+        <v>23.1925464166961</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-309.431118694181</v>
+        <v>-1576.73675522965</v>
       </c>
       <c r="E7">
-        <v>-301.730778752095</v>
+        <v>-1537.49891429856</v>
       </c>
       <c r="F7">
-        <v>180.088214489186</v>
+        <v>940.598673046348</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-158.270772273821</v>
+        <v>-319.362175864073</v>
       </c>
       <c r="E8">
-        <v>-415.656299716538</v>
+        <v>-838.720241153696</v>
       </c>
       <c r="F8">
-        <v>966.993095645463</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>24.3584686618724</v>
+        <v>-45.2945126899376</v>
       </c>
       <c r="E9">
-        <v>30.7417987113549</v>
+        <v>-57.1642992493362</v>
       </c>
       <c r="F9">
-        <v>-169.751260383186</v>
+        <v>323.543353336237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>281.479814207081</v>
+        <v>78.4258858903868</v>
       </c>
       <c r="F10">
-        <v>-685.401297064524</v>
+        <v>-195.740622345264</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1050.46741147962</v>
+        <v>102.932866646894</v>
       </c>
       <c r="F11">
-        <v>-1491.13771172233</v>
+        <v>-149.76595608244</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>649.991625959527</v>
+        <v>-48.0048314429241</v>
       </c>
       <c r="E12">
-        <v>1237.43178646197</v>
+        <v>-91.3899532836804</v>
       </c>
       <c r="F12">
-        <v>-2000</v>
+        <v>151.401803542809</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>925.94101628136</v>
+        <v>-96.0195987938805</v>
       </c>
       <c r="E13">
-        <v>785.146397048882</v>
+        <v>-81.4192704648322</v>
       </c>
       <c r="F13">
-        <v>-2000</v>
+        <v>212.58392712527</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,13 +669,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1008.33264180597</v>
+        <v>-27.9549327814111</v>
       </c>
       <c r="E14">
-        <v>646.741111587371</v>
+        <v>-17.9301983807836</v>
       </c>
       <c r="F14">
-        <v>-2000</v>
+        <v>56.8340345496035</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>776.936911138813</v>
+        <v>-37.2438502980076</v>
       </c>
       <c r="E15">
-        <v>811.331272125706</v>
+        <v>-38.8926050595928</v>
       </c>
       <c r="F15">
-        <v>-1883.92154108639</v>
+        <v>92.5668521015832</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,13 +709,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>493.442586814821</v>
+        <v>-3.78089007071321</v>
       </c>
       <c r="E16">
-        <v>322.48006945499</v>
+        <v>-2.47092919254465</v>
       </c>
       <c r="F16">
-        <v>-764.975580151338</v>
+        <v>6.00798526298604</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>-796.355691974364</v>
+        <v>237.63115717371</v>
       </c>
       <c r="E17">
-        <v>-704.26313210127</v>
+        <v>210.150897045882</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>-611.716444191363</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -749,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-2489.01198051613</v>
+        <v>660.497099218643</v>
       </c>
       <c r="E18">
-        <v>-1362.36494265722</v>
+        <v>361.524211111144</v>
       </c>
       <c r="F18">
-        <v>1077.485509539</v>
+        <v>-293.075308816675</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -769,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-387.540696477821</v>
+        <v>136.310951062835</v>
       </c>
       <c r="E19">
-        <v>-513.656497696629</v>
+        <v>180.670072477509</v>
       </c>
       <c r="F19">
-        <v>1186.58710651292</v>
+        <v>-427.796200346551</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -789,13 +789,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>-47.8779630138188</v>
+        <v>-86.6780342912</v>
       </c>
       <c r="E20">
-        <v>1.45735284503587</v>
+        <v>2.63838459125569</v>
       </c>
       <c r="F20">
-        <v>-601.804196895899</v>
+        <v>-1116.74101339852</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -809,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>-41.3355201917318</v>
+        <v>-63.1409427111741</v>
       </c>
       <c r="E21">
-        <v>165.784057528485</v>
+        <v>253.238900351999</v>
       </c>
       <c r="F21">
-        <v>-778.386493016984</v>
+        <v>-1218.72806131716</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -829,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>1044.96172273044</v>
+        <v>1147.27688787185</v>
       </c>
       <c r="E22">
-        <v>839.482041387191</v>
+        <v>921.678108314263</v>
       </c>
       <c r="F22">
-        <v>-1777.20803447094</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>1259.20728813559</v>
+        <v>1010.02583159149</v>
       </c>
       <c r="E23">
-        <v>2868.27313559321</v>
+        <v>2300.67756619998</v>
       </c>
       <c r="F23">
-        <v>-2000</v>
+        <v>-1644.33050401754</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -869,13 +869,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>698.98920606209</v>
+        <v>476.830809525312</v>
       </c>
       <c r="E24">
-        <v>523.289891402718</v>
+        <v>356.973670508735</v>
       </c>
       <c r="F24">
-        <v>-1939.43779738083</v>
+        <v>-1356.10575828923</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -889,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>249.042275609977</v>
+        <v>-49.9212120575421</v>
       </c>
       <c r="E25">
-        <v>417.70861904922</v>
+        <v>-83.7308464948192</v>
       </c>
       <c r="F25">
-        <v>-819.196845638569</v>
+        <v>168.315527279552</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -909,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>164.146583574583</v>
+        <v>-322.18516242196</v>
       </c>
       <c r="E26">
-        <v>232.167706745777</v>
+        <v>-455.696297041935</v>
       </c>
       <c r="F26">
-        <v>-942.192249778869</v>
+        <v>1895.55801484004</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -929,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>350.850020957076</v>
+        <v>-947.833721966557</v>
       </c>
       <c r="E27">
-        <v>297.631612515061</v>
+        <v>-804.062312139841</v>
       </c>
       <c r="F27">
-        <v>-657.514610746577</v>
+        <v>1820.70641474539</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -949,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>328.346271625038</v>
+        <v>-671.725097175769</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-953.776559257614</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -969,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>159.894244633308</v>
+        <v>-337.944146258807</v>
       </c>
       <c r="E29">
-        <v>379.471037951207</v>
+        <v>-802.030218438829</v>
       </c>
       <c r="F29">
-        <v>-618.670544190132</v>
+        <v>1340.27958032554</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -989,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>1278.89904079791</v>
+        <v>-1217.95858036366</v>
       </c>
       <c r="E30">
-        <v>1581.71382484394</v>
+        <v>-1506.34402184442</v>
       </c>
       <c r="F30">
-        <v>-669.816789582961</v>
+        <v>653.847025544803</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1009,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>1743.50473388829</v>
+        <v>-1631.27021629899</v>
       </c>
       <c r="E31">
-        <v>1642.27791119577</v>
+        <v>-1536.55966132354</v>
       </c>
       <c r="F31">
-        <v>-1001.16908877231</v>
+        <v>960.138918097455</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1029,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>300.538327390395</v>
+        <v>-329.872493996203</v>
       </c>
       <c r="E32">
-        <v>782.778961190848</v>
+        <v>-859.182422481386</v>
       </c>
       <c r="F32">
-        <v>-1777.7058082732</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1049,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>57.8375992664915</v>
+        <v>-50.0399988644231</v>
       </c>
       <c r="E33">
-        <v>74.8186980675255</v>
+        <v>-64.7317249301123</v>
       </c>
       <c r="F33">
-        <v>-398.110698904791</v>
+        <v>353.048806539387</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>398.842350800918</v>
+        <v>-12.0658115879487</v>
       </c>
       <c r="F34">
-        <v>-943.883884270093</v>
+        <v>29.2683141917478</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>970.105749260209</v>
+        <v>29.4497173978307</v>
       </c>
       <c r="F35">
-        <v>-1371.29014719356</v>
+        <v>-42.6692760242659</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1109,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>591.051955743711</v>
+        <v>-177.524060804437</v>
       </c>
       <c r="E36">
-        <v>1132.26612128526</v>
+        <v>-340.07920591165</v>
       </c>
       <c r="F36">
-        <v>-1824.66303332296</v>
+        <v>561.743562187086</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>923.869927011445</v>
+        <v>-485.750781731744</v>
       </c>
       <c r="E37">
-        <v>790.082455293328</v>
+        <v>-415.408229092098</v>
       </c>
       <c r="F37">
-        <v>-2000</v>
+        <v>1077.84556400842</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>652.34217166396</v>
+        <v>-526.962372698823</v>
       </c>
       <c r="E38">
-        <v>417.461195481639</v>
+        <v>-337.225388203192</v>
       </c>
       <c r="F38">
-        <v>-1302.03722285454</v>
+        <v>1078.08105999214</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1169,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>193.134976446216</v>
+        <v>-482.783489438067</v>
       </c>
       <c r="E39">
-        <v>207.906398813797</v>
+        <v>-519.70791900441</v>
       </c>
       <c r="F39">
-        <v>-464.333724491411</v>
+        <v>1189.72221601752</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>162.733994274357</v>
+        <v>-875.446132479821</v>
       </c>
       <c r="E40">
-        <v>108.665180755124</v>
+        <v>-584.576766836513</v>
       </c>
       <c r="F40">
-        <v>-262.295869534515</v>
+        <v>1446.32689200973</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1209,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>82.4274433805222</v>
+        <v>-790.568625748758</v>
       </c>
       <c r="E41">
-        <v>70.7614184300401</v>
+        <v>-678.678787427805</v>
       </c>
       <c r="F41">
-        <v>-203.440954556107</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1229,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>179.198802825864</v>
+        <v>-927.463938383393</v>
       </c>
       <c r="E42">
-        <v>96.6087383636695</v>
+        <v>-500.009595778916</v>
       </c>
       <c r="F42">
-        <v>-77.4915036167404</v>
+        <v>411.092810623384</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>31.9528564767661</v>
+        <v>-165.453378369288</v>
       </c>
       <c r="E43">
-        <v>41.3440205778406</v>
+        <v>-214.081263280697</v>
       </c>
       <c r="F43">
-        <v>-96.8657277922539</v>
+        <v>514.114629193093</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1269,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>-101.636385105717</v>
+        <v>35.6634130146151</v>
       </c>
       <c r="E44">
-        <v>3.08276081232258</v>
+        <v>-1.08171667027305</v>
       </c>
       <c r="F44">
-        <v>-1265.23335263979</v>
+        <v>455.0595050909</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1289,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>-46.4617631587823</v>
+        <v>22.1119647765977</v>
       </c>
       <c r="E45">
-        <v>186.303679300079</v>
+        <v>-88.6651757135332</v>
       </c>
       <c r="F45">
-        <v>-874.820830335331</v>
+        <v>426.75107922839</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1309,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>1171.60419790105</v>
+        <v>-658.100495115237</v>
       </c>
       <c r="E46">
-        <v>929.087456271864</v>
+        <v>-521.876685038567</v>
       </c>
       <c r="F46">
-        <v>-2000</v>
+        <v>1151.50322728715</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1329,13 +1329,13 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>1201.61786584588</v>
+        <v>-1249.16527875794</v>
       </c>
       <c r="E47">
-        <v>2734.75345194804</v>
+        <v>-2842.96626676076</v>
       </c>
       <c r="F47">
-        <v>-1876.94956457006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1349,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>644.505466819521</v>
+        <v>-693.438027096578</v>
       </c>
       <c r="E48">
-        <v>493.028163712049</v>
+        <v>-530.460166357703</v>
       </c>
       <c r="F48">
-        <v>-1813.53140934615</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1369,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>153.886720566582</v>
+        <v>-324.461974496582</v>
       </c>
       <c r="E49">
-        <v>260.23363031593</v>
+        <v>-548.688783618515</v>
       </c>
       <c r="F49">
-        <v>-517.237003470716</v>
+        <v>1117.83091017328</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1389,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>29.3787854058774</v>
+        <v>21.6081161771858</v>
       </c>
       <c r="E50">
-        <v>41.5616259422141</v>
+        <v>30.5686034825812</v>
       </c>
       <c r="F50">
-        <v>-166.391135075035</v>
+        <v>-125.440310110873</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1409,13 +1409,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>-25.8229704673486</v>
+        <v>543.817931297246</v>
       </c>
       <c r="E51">
-        <v>-22.1940146802317</v>
+        <v>467.394065521828</v>
       </c>
       <c r="F51">
-        <v>48.917476276456</v>
+        <v>-1055.93025427682</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1429,13 +1429,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>177.034970295374</v>
+        <v>670.182986387528</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-515.432494404558</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1449,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>162.02085705491</v>
+        <v>369.907625505036</v>
       </c>
       <c r="E53">
-        <v>391.689430419337</v>
+        <v>894.260836385603</v>
       </c>
       <c r="F53">
-        <v>-635.294262036401</v>
+        <v>-1486.6925230768</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1469,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>1575.01052054898</v>
+        <v>1484.56429665946</v>
       </c>
       <c r="E54">
-        <v>1980.10215665636</v>
+        <v>1866.39322541529</v>
       </c>
       <c r="F54">
-        <v>-834.885684192068</v>
+        <v>-806.61525680757</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1489,13 +1489,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>1349.8898962093</v>
+        <v>1272.03244682722</v>
       </c>
       <c r="E55">
-        <v>1292.09581024777</v>
+        <v>1217.57174393268</v>
       </c>
       <c r="F55">
-        <v>-784.957555650824</v>
+        <v>-758.175737182937</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1509,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>334.333135716362</v>
+        <v>243.281573780278</v>
       </c>
       <c r="E56">
-        <v>861.094324588521</v>
+        <v>626.585761564726</v>
       </c>
       <c r="F56">
-        <v>-2000</v>
+        <v>-1491.70744078646</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1529,13 +1529,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>102.990395962981</v>
+        <v>-42.488217206741</v>
       </c>
       <c r="E57">
-        <v>129.278011379223</v>
+        <v>-53.3330528169845</v>
       </c>
       <c r="F57">
-        <v>-707.28060482008</v>
+        <v>299.080015906278</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>410.517851052784</v>
+        <v>127.587846866783</v>
       </c>
       <c r="F58">
-        <v>-988.723972271044</v>
+        <v>-314.975077223135</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1161.07393895047</v>
+        <v>-294.499033180666</v>
       </c>
       <c r="F59">
-        <v>-1632.60122892251</v>
+        <v>424.451410062567</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>634.663089948865</v>
+        <v>-380.461805589544</v>
       </c>
       <c r="E60">
-        <v>1198.09087098667</v>
+        <v>-718.220144285788</v>
       </c>
       <c r="F60">
-        <v>-2000</v>
+        <v>1228.91454349646</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1609,13 +1609,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>960.16086379121</v>
+        <v>-936.742306137767</v>
       </c>
       <c r="E61">
-        <v>796.713243643782</v>
+        <v>-777.281213311007</v>
       </c>
       <c r="F61">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1629,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>993.693461301003</v>
+        <v>-969.457035415615</v>
       </c>
       <c r="E62">
-        <v>656.393500589324</v>
+        <v>-640.383903013976</v>
       </c>
       <c r="F62">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1649,13 +1649,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>458.879987203125</v>
+        <v>-792.857738840219</v>
       </c>
       <c r="E63">
-        <v>510.207479289171</v>
+        <v>-881.541927409264</v>
       </c>
       <c r="F63">
-        <v>-1129.30169048527</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1669,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>-278.716333036806</v>
+        <v>-439.790448879827</v>
       </c>
       <c r="E64">
-        <v>-187.088713391773</v>
+        <v>-295.209930277219</v>
       </c>
       <c r="F64">
-        <v>453.288604327216</v>
+        <v>733.131770614331</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1689,13 +1689,13 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>-813.37273102811</v>
+        <v>793.53437173475</v>
       </c>
       <c r="E65">
-        <v>-686.756060716514</v>
+        <v>670.005912894161</v>
       </c>
       <c r="F65">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1709,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>-1559.11877015803</v>
+        <v>2821.16025740741</v>
       </c>
       <c r="E66">
-        <v>-832.167731497808</v>
+        <v>1505.77273299104</v>
       </c>
       <c r="F66">
-        <v>659.838283374465</v>
+        <v>-1223.79854339952</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1729,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>-182.628442444426</v>
+        <v>415.615160234762</v>
       </c>
       <c r="E67">
-        <v>-241.773038044927</v>
+        <v>550.212982175903</v>
       </c>
       <c r="F67">
-        <v>552.00776728752</v>
+        <v>-1287.63276640163</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1749,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>-33.767033070556</v>
+        <v>-90.665487037737</v>
       </c>
       <c r="E68">
-        <v>0.724082394587796</v>
+        <v>1.94418274248644</v>
       </c>
       <c r="F68">
-        <v>-422.664690490501</v>
+        <v>-1163.23893293576</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1769,13 +1769,13 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>-46.9933882501905</v>
+        <v>-82.161276946518</v>
       </c>
       <c r="E69">
-        <v>190.294795040321</v>
+        <v>332.703470402037</v>
       </c>
       <c r="F69">
-        <v>-901.923909501897</v>
+        <v>-1616.30823918715</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>1176.18734389502</v>
+        <v>1147.49984770245</v>
       </c>
       <c r="E70">
-        <v>924.820858671461</v>
+        <v>902.264252362402</v>
       </c>
       <c r="F70">
         <v>-2000</v>
@@ -1809,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>1088.50038695887</v>
+        <v>830.380675564438</v>
       </c>
       <c r="E71">
-        <v>2430.35320882846</v>
+        <v>1854.03548182977</v>
       </c>
       <c r="F71">
-        <v>-1692.449946646</v>
+        <v>-1323.39151236398</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1829,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>573.500756906313</v>
+        <v>295.716466027587</v>
       </c>
       <c r="E72">
-        <v>436.259066829952</v>
+        <v>224.949989972761</v>
       </c>
       <c r="F72">
-        <v>-1585.97011323407</v>
+        <v>-838.224550272484</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>90.2056140782688</v>
+        <v>69.2502139610251</v>
       </c>
       <c r="E73">
-        <v>155.012395673002</v>
+        <v>119.001923291074</v>
       </c>
       <c r="F73">
-        <v>-301.500028307</v>
+        <v>-237.245932250778</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1869,13 +1869,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>-143.51447707844</v>
+        <v>315.053979324994</v>
       </c>
       <c r="E74">
-        <v>-205.915113961802</v>
+        <v>452.040639923504</v>
       </c>
       <c r="F74">
-        <v>830.610272755333</v>
+        <v>-1869.00481367936</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1889,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>-809.861839910263</v>
+        <v>1003.46516807161</v>
       </c>
       <c r="E75">
-        <v>-685.148655751882</v>
+        <v>848.938395559277</v>
       </c>
       <c r="F75">
-        <v>1526.34449224498</v>
+        <v>-1938.50888310887</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1909,13 +1909,13 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>-694.315472816605</v>
+        <v>677.380949089371</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1929,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>-277.758062279087</v>
+        <v>148.797797244801</v>
       </c>
       <c r="E77">
-        <v>-664.928714442658</v>
+        <v>356.209023140691</v>
       </c>
       <c r="F77">
-        <v>1084.47521046593</v>
+        <v>-595.488423230094</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1949,13 +1949,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>-46.3731831202786</v>
+        <v>813.993842067102</v>
       </c>
       <c r="E78">
-        <v>-58.182316781691</v>
+        <v>1021.2809298567</v>
       </c>
       <c r="F78">
-        <v>24.3385787473562</v>
+        <v>-437.898332382534</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1969,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>-894.02127539432</v>
+        <v>-49.69441078194</v>
       </c>
       <c r="E79">
-        <v>-857.940528049417</v>
+        <v>-47.6888528279742</v>
       </c>
       <c r="F79">
-        <v>516.453298710152</v>
+        <v>29.4248740597104</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1989,13 +1989,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>-212.553667684844</v>
+        <v>-33.3409367301119</v>
       </c>
       <c r="E80">
-        <v>-548.825465476391</v>
+        <v>-86.0881645545305</v>
       </c>
       <c r="F80">
-        <v>1278.27098267435</v>
+        <v>205.520898472503</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2009,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>15.1010410238214</v>
+        <v>-27.7866701875955</v>
       </c>
       <c r="E81">
-        <v>19.0410091029207</v>
+        <v>-35.0364083606692</v>
       </c>
       <c r="F81">
-        <v>-103.032285005604</v>
+        <v>194.324167489453</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>224.39149379799</v>
+        <v>-202.446332243739</v>
       </c>
       <c r="F82">
-        <v>-532.129054034602</v>
+        <v>492.089797088232</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>528.850531838616</v>
+        <v>-374.563776939151</v>
       </c>
       <c r="F83">
-        <v>-752.249929633123</v>
+        <v>546.108393259332</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2069,13 +2069,13 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>453.71712725997</v>
+        <v>-219.505752992633</v>
       </c>
       <c r="E84">
-        <v>860.444417545532</v>
+        <v>-416.27809142285</v>
       </c>
       <c r="F84">
-        <v>-1393.7668390581</v>
+        <v>691.153841568608</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2089,13 +2089,13 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>926.881872887643</v>
+        <v>-574.471282382327</v>
       </c>
       <c r="E85">
-        <v>786.318705978256</v>
+        <v>-487.351763582607</v>
       </c>
       <c r="F85">
-        <v>-2000</v>
+        <v>1270.56765628055</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2109,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>830.261011747925</v>
+        <v>-317.345855739903</v>
       </c>
       <c r="E86">
-        <v>521.466458252002</v>
+        <v>-199.317102805113</v>
       </c>
       <c r="F86">
-        <v>-1649.25868156465</v>
+        <v>646.146254295527</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2129,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>223.583622207078</v>
+        <v>-5.3960198189925</v>
       </c>
       <c r="E87">
-        <v>235.159434164651</v>
+        <v>-5.67539319226307</v>
       </c>
       <c r="F87">
-        <v>-530.095566644028</v>
+        <v>13.1132875888579</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2149,13 +2149,13 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>-220.407145485216</v>
+        <v>-313.05025297264</v>
       </c>
       <c r="E88">
-        <v>-146.673593301066</v>
+        <v>-208.324486877329</v>
       </c>
       <c r="F88">
-        <v>351.973075845912</v>
+        <v>512.414838889723</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2169,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>-805.600834202291</v>
+        <v>-785.952033368088</v>
       </c>
       <c r="E89">
-        <v>-677.587347931869</v>
+        <v>-661.060827250607</v>
       </c>
       <c r="F89">
         <v>2000</v>
@@ -2189,13 +2189,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>-1926.33461485989</v>
+        <v>-1611.44638600157</v>
       </c>
       <c r="E90">
-        <v>-1015.79477067308</v>
+        <v>-849.747909575664</v>
       </c>
       <c r="F90">
-        <v>804.744780738856</v>
+        <v>690.027129781047</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2209,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>-257.630791183221</v>
+        <v>52.3754954820706</v>
       </c>
       <c r="E91">
-        <v>-339.108142011311</v>
+        <v>68.9395738695512</v>
       </c>
       <c r="F91">
-        <v>775.717079636903</v>
+        <v>-161.643258434393</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2229,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>-59.4812240269598</v>
+        <v>-34.235013467827</v>
       </c>
       <c r="E92">
-        <v>0.0198717861946081</v>
+        <v>0.0114374053178311</v>
       </c>
       <c r="F92">
-        <v>-728.9837893967</v>
+        <v>-430.063259667029</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2249,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>-52.0672557508565</v>
+        <v>30.1072270251236</v>
       </c>
       <c r="E93">
-        <v>202.198206246707</v>
+        <v>-116.918535685304</v>
       </c>
       <c r="F93">
-        <v>-978.743350160632</v>
+        <v>580.094514548808</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2269,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>1123.60645661487</v>
+        <v>-5.53427869961706</v>
       </c>
       <c r="E94">
-        <v>868.166855829948</v>
+        <v>-4.27612115402917</v>
       </c>
       <c r="F94">
-        <v>-1870.99616808082</v>
+        <v>9.44590477705788</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2289,13 +2289,13 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>1281.85843941029</v>
+        <v>809.5556994039</v>
       </c>
       <c r="E95">
-        <v>2940.87382955772</v>
+        <v>1857.30428317927</v>
       </c>
       <c r="F95">
-        <v>-2000</v>
+        <v>-1294.67430470831</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2309,13 +2309,13 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>697.067110115664</v>
+        <v>582.052206858062</v>
       </c>
       <c r="E96">
-        <v>548.340123838097</v>
+        <v>457.864923702724</v>
       </c>
       <c r="F96">
-        <v>-1967.71140159812</v>
+        <v>-1684.11838088181</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2329,13 +2329,13 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>376.258020035474</v>
+        <v>564.530456320053</v>
       </c>
       <c r="E97">
-        <v>663.626604916937</v>
+        <v>995.692876033751</v>
       </c>
       <c r="F97">
-        <v>-1300.48251975425</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2349,13 +2349,13 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>342.346583361698</v>
+        <v>339.675596330275</v>
       </c>
       <c r="E98">
-        <v>493.42753875128</v>
+        <v>489.577818552498</v>
       </c>
       <c r="F98">
-        <v>-1966.56262800573</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2369,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>904.137112939867</v>
+        <v>595.386395815574</v>
       </c>
       <c r="E99">
-        <v>772.43355183986</v>
+        <v>508.657837240606</v>
       </c>
       <c r="F99">
-        <v>-1732.51393128856</v>
+        <v>-1169.4057137457</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2389,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>699.044294542195</v>
+        <v>546.428547144889</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-2000</v>
+        <v>-1602.44283572993</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2409,13 +2409,13 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>287.834807082705</v>
+        <v>308.65775190136</v>
       </c>
       <c r="E101">
-        <v>655.209681680837</v>
+        <v>702.609769198283</v>
       </c>
       <c r="F101">
-        <v>-1102.37075883318</v>
+        <v>-1211.6729930012</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2429,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>1928.70159025375</v>
+        <v>1594.0067237659</v>
       </c>
       <c r="E102">
-        <v>2235.50933600352</v>
+        <v>1847.57296340602</v>
       </c>
       <c r="F102">
-        <v>-988.085652592305</v>
+        <v>-837.034905448259</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2449,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>1707.7565695694</v>
+        <v>1361.71794670341</v>
       </c>
       <c r="E103">
-        <v>1489.23495376346</v>
+        <v>1187.47484245313</v>
       </c>
       <c r="F103">
-        <v>-938.182165380827</v>
+        <v>-766.782574581584</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2469,10 +2469,10 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>361.790847691946</v>
+        <v>352.966680675068</v>
       </c>
       <c r="E104">
-        <v>766.683513490552</v>
+        <v>747.983915600536</v>
       </c>
       <c r="F104">
         <v>-2000</v>
@@ -2489,13 +2489,13 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>-37.7344865958412</v>
+        <v>81.4211134393308</v>
       </c>
       <c r="E105">
-        <v>-40.8164884938997</v>
+        <v>88.0712642377184</v>
       </c>
       <c r="F105">
-        <v>229.153271561991</v>
+        <v>-506.813901740526</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>-83.4388706963819</v>
+        <v>-50.5343766846781</v>
       </c>
       <c r="F106">
-        <v>184.728945509891</v>
+        <v>114.677261209614</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-420.818748153628</v>
+        <v>-687.519960075282</v>
       </c>
       <c r="F107">
-        <v>568.781395987984</v>
+        <v>952.487926182943</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2549,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>-373.042800997529</v>
+        <v>-239.498848273011</v>
       </c>
       <c r="E108">
-        <v>-759.362333476058</v>
+        <v>-487.521549278279</v>
       </c>
       <c r="F108">
-        <v>1194.63507038679</v>
+        <v>786.147235026609</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2569,13 +2569,13 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>-905.407532098889</v>
+        <v>-152.767622524039</v>
       </c>
       <c r="E109">
-        <v>-798.523616199624</v>
+        <v>-134.733310748283</v>
       </c>
       <c r="F109">
-        <v>2000</v>
+        <v>345.892446297956</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2589,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>-918.914073323915</v>
+        <v>114.965390561119</v>
       </c>
       <c r="E110">
-        <v>-609.430225784186</v>
+        <v>76.2458492703181</v>
       </c>
       <c r="F110">
-        <v>1853.69464297493</v>
+        <v>-237.713735339574</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2609,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>-648.597235899049</v>
+        <v>172.554483320408</v>
       </c>
       <c r="E111">
-        <v>-689.20230053773</v>
+        <v>183.357159559397</v>
       </c>
       <c r="F111">
-        <v>1598.95953412772</v>
+        <v>-436.026106056681</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2629,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>-569.970850704238</v>
+        <v>82.5813546248901</v>
       </c>
       <c r="E112">
-        <v>-361.153026446229</v>
+        <v>52.326370925739</v>
       </c>
       <c r="F112">
-        <v>884.376981308676</v>
+        <v>-131.338076764685</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2649,13 +2649,13 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>226.170084094625</v>
+        <v>-802.019082794704</v>
       </c>
       <c r="E113">
-        <v>190.52583023594</v>
+        <v>-675.621412204979</v>
       </c>
       <c r="F113">
-        <v>-550.245612139894</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2669,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>1271.67577882867</v>
+        <v>-1952.27154717006</v>
       </c>
       <c r="E114">
-        <v>686.705347835617</v>
+        <v>-1054.22729141216</v>
       </c>
       <c r="F114">
-        <v>-547.821707479423</v>
+        <v>862.039026767328</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2689,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>232.822123110574</v>
+        <v>-202.275000063408</v>
       </c>
       <c r="E115">
-        <v>307.936896754973</v>
+        <v>-267.53443778646</v>
       </c>
       <c r="F115">
-        <v>-704.073781231138</v>
+        <v>626.989116396904</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2709,13 +2709,13 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>-91.4932815621369</v>
+        <v>-25.4388053751545</v>
       </c>
       <c r="E116">
-        <v>3.59018767555005</v>
+        <v>0.998216305932431</v>
       </c>
       <c r="F116">
-        <v>-1075.21918459545</v>
+        <v>-306.42795168331</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2729,13 +2729,13 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>-83.9257178146509</v>
+        <v>-46.9704494670693</v>
       </c>
       <c r="E117">
-        <v>331.396943693767</v>
+        <v>185.471912574954</v>
       </c>
       <c r="F117">
-        <v>-1540.8981102719</v>
+        <v>-883.949469539588</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2749,10 +2749,10 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>1145.41684730301</v>
+        <v>1117.47985102733</v>
       </c>
       <c r="E118">
-        <v>935.952261790182</v>
+        <v>913.124157844081</v>
       </c>
       <c r="F118">
         <v>-2000</v>
@@ -2769,13 +2769,13 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>1074.65203529249</v>
+        <v>1082.53315892733</v>
       </c>
       <c r="E119">
-        <v>2465.15529569225</v>
+        <v>2483.23388580923</v>
       </c>
       <c r="F119">
-        <v>-1691.02953540138</v>
+        <v>-1746.01673080786</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2789,13 +2789,13 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>457.72955525524</v>
+        <v>686.19748195447</v>
       </c>
       <c r="E120">
-        <v>363.426677198068</v>
+        <v>544.824925341193</v>
       </c>
       <c r="F120">
-        <v>-1273.51743543319</v>
+        <v>-1956.90131557132</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2809,13 +2809,13 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>398.008700711161</v>
+        <v>358.169110844638</v>
       </c>
       <c r="E121">
-        <v>734.180788368077</v>
+        <v>660.691285640618</v>
       </c>
       <c r="F121">
-        <v>-1388.49312382691</v>
+        <v>-1280.74645190805</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2829,13 +2829,13 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>283.496495732923</v>
+        <v>221.680693365961</v>
       </c>
       <c r="E122">
-        <v>422.269083320135</v>
+        <v>330.194216106302</v>
       </c>
       <c r="F122">
-        <v>-1687.44447649818</v>
+        <v>-1352.48835127423</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2849,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>604.41105305213</v>
+        <v>892.443988933674</v>
       </c>
       <c r="E123">
-        <v>521.744820798813</v>
+        <v>770.383047642606</v>
       </c>
       <c r="F123">
-        <v>-1152.97504020458</v>
+        <v>-1744.98758716561</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2869,13 +2869,13 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>554.603253834104</v>
+        <v>671.934566808033</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>-1610.50308149598</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>320.168753544928</v>
+        <v>349.153974619098</v>
       </c>
       <c r="E125">
-        <v>730.128434149605</v>
+        <v>796.227745347365</v>
       </c>
       <c r="F125">
-        <v>-1223.59890109342</v>
+        <v>-1367.73193917029</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2909,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>1556.92054090745</v>
+        <v>1804.04748796611</v>
       </c>
       <c r="E126">
-        <v>1798.36524488654</v>
+        <v>2083.8162367568</v>
       </c>
       <c r="F126">
-        <v>-801.452547573253</v>
+        <v>-951.882178707156</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2929,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>2103.31476371517</v>
+        <v>1903.70040464195</v>
       </c>
       <c r="E127">
-        <v>1816.4837161578</v>
+        <v>1644.09095829624</v>
       </c>
       <c r="F127">
-        <v>-1157.35774356975</v>
+        <v>-1073.70708551437</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2949,10 +2949,10 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>364.512799868249</v>
+        <v>355.622243773902</v>
       </c>
       <c r="E128">
-        <v>751.255183687412</v>
+        <v>732.931886524304</v>
       </c>
       <c r="F128">
         <v>-2000</v>
@@ -2969,13 +2969,13 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>-73.9078102277717</v>
+        <v>-73.3335483419269</v>
       </c>
       <c r="E129">
-        <v>-77.5903791243491</v>
+        <v>-76.9875037678494</v>
       </c>
       <c r="F129">
-        <v>441.574725978513</v>
+        <v>449.097293637577</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>-301.844874124763</v>
+        <v>-295.815663859619</v>
       </c>
       <c r="F130">
-        <v>655.426359273166</v>
+        <v>658.392887224672</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>-696.089985813764</v>
+        <v>-1067.66443734453</v>
       </c>
       <c r="F131">
-        <v>893.913051799578</v>
+        <v>1405.36306340912</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3029,13 +3029,13 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>-171.912835766588</v>
+        <v>-588.947485043209</v>
       </c>
       <c r="E132">
-        <v>-377.446055905722</v>
+        <v>-1293.07334367383</v>
       </c>
       <c r="F132">
-        <v>569.557877507454</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3049,13 +3049,13 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>-48.2616138348039</v>
+        <v>-847.160800552105</v>
       </c>
       <c r="E133">
-        <v>-44.4020036435322</v>
+        <v>-779.411088106741</v>
       </c>
       <c r="F133">
-        <v>111.158356882333</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3069,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>366.487634727939</v>
+        <v>-966.807827395885</v>
       </c>
       <c r="E134">
-        <v>242.417808979132</v>
+        <v>-639.507074761666</v>
       </c>
       <c r="F134">
-        <v>-739.648359887113</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3089,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>624.360796314882</v>
+        <v>-793.94482621253</v>
       </c>
       <c r="E135">
-        <v>670.53154100173</v>
+        <v>-852.656109949212</v>
       </c>
       <c r="F135">
-        <v>-1534.44537730783</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3109,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>1079.56001104541</v>
+        <v>-633.497729529132</v>
       </c>
       <c r="E136">
-        <v>701.349870211034</v>
+        <v>-411.559844601868</v>
       </c>
       <c r="F136">
-        <v>-1698.20496494771</v>
+        <v>1021.43855184195</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3129,13 +3129,13 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>812.863795738562</v>
+        <v>581.217558107259</v>
       </c>
       <c r="E137">
-        <v>695.691040586575</v>
+        <v>497.43616326206</v>
       </c>
       <c r="F137">
-        <v>-2000</v>
+        <v>-1465.80029811427</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3149,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>1124.56928318307</v>
+        <v>2509.08259501993</v>
       </c>
       <c r="E138">
-        <v>613.001848774249</v>
+        <v>1367.69898704777</v>
       </c>
       <c r="F138">
-        <v>-480.899021457797</v>
+        <v>-1099.78172738166</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3169,13 +3169,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>200.854543634056</v>
+        <v>62.0350568020949</v>
       </c>
       <c r="E139">
-        <v>273.873124670856</v>
+        <v>84.5872567188599</v>
       </c>
       <c r="F139">
-        <v>-613.349898955043</v>
+        <v>-194.172484282069</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3189,13 +3189,13 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>-97.3854308816387</v>
+        <v>62.6112688980163</v>
       </c>
       <c r="E140">
-        <v>7.02191534292476</v>
+        <v>-4.51454622867871</v>
       </c>
       <c r="F140">
-        <v>-1201.13174553515</v>
+        <v>791.540290691675</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3209,13 +3209,13 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>-70.211428998969</v>
+        <v>49.3897684971424</v>
       </c>
       <c r="E141">
-        <v>298.634569234934</v>
+        <v>-210.072525941237</v>
       </c>
       <c r="F141">
-        <v>-1347.98742132307</v>
+        <v>971.938718753525</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3229,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>1113.53790146231</v>
+        <v>-1010.68637579183</v>
       </c>
       <c r="E142">
-        <v>932.591682242612</v>
+        <v>-846.453188689508</v>
       </c>
       <c r="F142">
-        <v>-2000</v>
+        <v>1860.65249117467</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3249,13 +3249,13 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>1275.58331125828</v>
+        <v>-847.962924617617</v>
       </c>
       <c r="E143">
-        <v>2905.35231788079</v>
+        <v>-1931.37604323513</v>
       </c>
       <c r="F143">
-        <v>-2000</v>
+        <v>1362.76790400415</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3269,13 +3269,13 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>720.468140030704</v>
+        <v>-702.895746371419</v>
       </c>
       <c r="E144">
-        <v>567.866340211189</v>
+        <v>-554.015941669453</v>
       </c>
       <c r="F144">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3289,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>480.051093555269</v>
+        <v>-563.418968943222</v>
       </c>
       <c r="E145">
-        <v>860.146086796828</v>
+        <v>-1009.52300259227</v>
       </c>
       <c r="F145">
-        <v>-1662.50181876649</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3309,13 +3309,13 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <v>84.6671329764149</v>
+        <v>-318.83160456105</v>
       </c>
       <c r="E146">
-        <v>121.895444111811</v>
+        <v>-459.022511671405</v>
       </c>
       <c r="F146">
-        <v>-493.114140798574</v>
+        <v>1903.34639187567</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3329,13 +3329,13 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>-626.764889529024</v>
+        <v>-223.263248570165</v>
       </c>
       <c r="E147">
-        <v>-533.557544287616</v>
+        <v>-190.061365317203</v>
       </c>
       <c r="F147">
-        <v>1177.59445785314</v>
+        <v>429.964102591926</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3349,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>-677.416613521524</v>
+        <v>197.311668207771</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1969.61916467907</v>
+        <v>-588.034831510799</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3369,13 +3369,13 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>-151.376504711608</v>
+        <v>186.533692091767</v>
       </c>
       <c r="E149">
-        <v>-358.927174088018</v>
+        <v>442.28799642491</v>
       </c>
       <c r="F149">
-        <v>587.230841208748</v>
+        <v>-741.705560963674</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3389,13 +3389,13 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>-617.155909858891</v>
+        <v>2244.52020055533</v>
       </c>
       <c r="E150">
-        <v>-777.365418905727</v>
+        <v>2827.1824964716</v>
       </c>
       <c r="F150">
-        <v>320.517773214639</v>
+        <v>-1194.82584587305</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3409,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="D151">
-        <v>-828.705605158873</v>
+        <v>1140.24998155935</v>
       </c>
       <c r="E151">
-        <v>-805.292172309146</v>
+        <v>1108.03448041038</v>
       </c>
       <c r="F151">
-        <v>477.595909986527</v>
+        <v>-673.572366675151</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3429,13 +3429,13 @@
         <v>6</v>
       </c>
       <c r="D152">
-        <v>-327.5506006006</v>
+        <v>319.561561561559</v>
       </c>
       <c r="E152">
-        <v>-888.678078078083</v>
+        <v>867.003003003003</v>
       </c>
       <c r="F152">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3449,13 +3449,13 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>-37.2827732430596</v>
+        <v>21.3750748344974</v>
       </c>
       <c r="E153">
-        <v>-49.2240638482745</v>
+        <v>28.2212924868963</v>
       </c>
       <c r="F153">
-        <v>262.545602098027</v>
+        <v>-154.286542798756</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>92.7805628642327</v>
+        <v>388.392149890964</v>
       </c>
       <c r="F154">
-        <v>-217.554091047514</v>
+        <v>-933.479017525937</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>241.310794567678</v>
+        <v>1130.21072208705</v>
       </c>
       <c r="F155">
-        <v>-336.209259818665</v>
+        <v>-1614.04712030224</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3509,13 +3509,13 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>249.306984096676</v>
+        <v>625.756114072947</v>
       </c>
       <c r="E156">
-        <v>486.811049697513</v>
+        <v>1221.88711178811</v>
       </c>
       <c r="F156">
-        <v>-777.383777730451</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3529,13 +3529,13 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>627.335781449765</v>
+        <v>460.897081936982</v>
       </c>
       <c r="E157">
-        <v>539.90055829264</v>
+        <v>396.659331750792</v>
       </c>
       <c r="F157">
-        <v>-1373.15524394883</v>
+        <v>-1034.06396588426</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>717.913998151684</v>
+        <v>-352.073518261599</v>
       </c>
       <c r="E158">
-        <v>450.506523327884</v>
+        <v>-220.933728937178</v>
       </c>
       <c r="F158">
-        <v>-1426.17257580119</v>
+        <v>716.897201678541</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3569,13 +3569,13 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>430.842605480961</v>
+        <v>-823.75970300371</v>
       </c>
       <c r="E159">
-        <v>459.13121411517</v>
+        <v>-877.846776915287</v>
       </c>
       <c r="F159">
-        <v>-1020.52636883556</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3589,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>764.477586132984</v>
+        <v>-954.055699148372</v>
       </c>
       <c r="E160">
-        <v>518.870982211092</v>
+        <v>-647.542618228041</v>
       </c>
       <c r="F160">
-        <v>-1238.09190599259</v>
+        <v>1583.74670090801</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3609,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>801.043123245723</v>
+        <v>-195.396016252642</v>
       </c>
       <c r="E161">
-        <v>695.117032608741</v>
+        <v>-169.557786665428</v>
       </c>
       <c r="F161">
-        <v>-2000</v>
+        <v>500.050274066249</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3629,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>1383.13258916202</v>
+        <v>270.289342340562</v>
       </c>
       <c r="E162">
-        <v>759.273933699558</v>
+        <v>148.375979139004</v>
       </c>
       <c r="F162">
-        <v>-588.725225141632</v>
+        <v>-117.923841176871</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3649,13 +3649,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>215.72195447229</v>
+        <v>-2.83412567130836</v>
       </c>
       <c r="E163">
-        <v>290.296548585553</v>
+        <v>-3.81387653682032</v>
       </c>
       <c r="F163">
-        <v>-669.905370594504</v>
+        <v>9.02115370275715</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3669,13 +3669,13 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>-110.52029668217</v>
+        <v>-86.8965656442617</v>
       </c>
       <c r="E164">
-        <v>2.27530816659214</v>
+        <v>1.78896068319275</v>
       </c>
       <c r="F164">
-        <v>-1432.0281312623</v>
+        <v>-1154.08018711967</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3689,13 +3689,13 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>-68.1821256774867</v>
+        <v>-68.3509530417714</v>
       </c>
       <c r="E165">
-        <v>284.003980800385</v>
+        <v>284.707209733899</v>
       </c>
       <c r="F165">
-        <v>-1348.01108845829</v>
+        <v>-1385.13265366496</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3709,10 +3709,10 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>1180.15570727033</v>
+        <v>1151.37142172715</v>
       </c>
       <c r="E166">
-        <v>919.531440891124</v>
+        <v>897.103844771826</v>
       </c>
       <c r="F166">
         <v>-2000</v>
@@ -3729,13 +3729,13 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>936.4792306076</v>
+        <v>1262.1469366829</v>
       </c>
       <c r="E167">
-        <v>2103.46719303423</v>
+        <v>2834.96375288388</v>
       </c>
       <c r="F167">
-        <v>-1447.75263039449</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3749,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>416.130432526952</v>
+        <v>486.762588929221</v>
       </c>
       <c r="E168">
-        <v>327.058678833027</v>
+        <v>382.572186018198</v>
       </c>
       <c r="F168">
-        <v>-1156.49974493986</v>
+        <v>-1386.6189182261</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3769,13 +3769,13 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <v>-27.8473044205111</v>
+        <v>253.629544693202</v>
       </c>
       <c r="E169">
-        <v>-44.5537834717297</v>
+        <v>405.78993376361</v>
       </c>
       <c r="F169">
-        <v>96.1662501905848</v>
+        <v>-897.76615105852</v>
       </c>
     </row>
   </sheetData>

--- a/Model2/excel/output_elasticity_model_shifting.xlsx
+++ b/Model2/excel/output_elasticity_model_shifting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="7">
   <si>
     <t>BEL_forward</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +429,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-16.5135697037422</v>
+        <v>255.095154959536</v>
       </c>
       <c r="E2">
-        <v>-21.4322979952713</v>
+        <v>1008.01490686699</v>
       </c>
       <c r="F2">
-        <v>88.2773426530621</v>
+        <v>-1650.02760704461</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-667.749822053924</v>
+        <v>312.676203240811</v>
       </c>
       <c r="E3">
-        <v>-570.247791852288</v>
+        <v>299.260660996248</v>
       </c>
       <c r="F3">
-        <v>1295.05700696248</v>
+        <v>-862.961858986961</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-673.700132350162</v>
+        <v>364.836034338619</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>324.26344711863</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>-910.72848266401</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,13 +489,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-380.247161239448</v>
+        <v>353.350103202186</v>
       </c>
       <c r="E5">
-        <v>-916.757163931123</v>
+        <v>1232.83888351224</v>
       </c>
       <c r="F5">
-        <v>1513.85263925089</v>
+        <v>-1489.21400913045</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>-42.6443333746283</v>
+        <v>1357.00254910386</v>
       </c>
       <c r="E6">
-        <v>-54.2669685771216</v>
+        <v>1447.23888147949</v>
       </c>
       <c r="F6">
-        <v>23.1925464166961</v>
+        <v>-653.223238422028</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-1576.73675522965</v>
+        <v>1491.14421812069</v>
       </c>
       <c r="E7">
-        <v>-1537.49891429856</v>
+        <v>794.347105953232</v>
       </c>
       <c r="F7">
-        <v>940.598673046348</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-319.362175864073</v>
+        <v>582.383481521892</v>
       </c>
       <c r="E8">
-        <v>-838.720241153696</v>
+        <v>74.5862374629688</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>-45.2945126899376</v>
+        <v>-223.266653357193</v>
       </c>
       <c r="E9">
-        <v>-57.1642992493362</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>323.543353336237</v>
+        <v>-824.586237462969</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>78.4258858903868</v>
+        <v>341.464244168137</v>
       </c>
       <c r="F10">
-        <v>-195.740622345264</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102.932866646894</v>
+        <v>552.757324109306</v>
       </c>
       <c r="F11">
-        <v>-149.76595608244</v>
+        <v>-1122.13462619397</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>-48.0048314429241</v>
+        <v>204.756074389353</v>
       </c>
       <c r="E12">
-        <v>-91.3899532836804</v>
+        <v>629.093135566895</v>
       </c>
       <c r="F12">
-        <v>151.401803542809</v>
+        <v>-987.424478956642</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-96.0195987938805</v>
+        <v>252.32485959256</v>
       </c>
       <c r="E13">
-        <v>-81.4192704648322</v>
+        <v>163.795564186757</v>
       </c>
       <c r="F13">
-        <v>212.58392712527</v>
+        <v>-853.526164165158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,13 +669,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-27.9549327814111</v>
+        <v>56.421073624675</v>
       </c>
       <c r="E14">
-        <v>-17.9301983807836</v>
+        <v>51.5945233411652</v>
       </c>
       <c r="F14">
-        <v>56.8340345496035</v>
+        <v>-256.758452028144</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>-37.2438502980076</v>
+        <v>129.745305423661</v>
       </c>
       <c r="E15">
-        <v>-38.8926050595928</v>
+        <v>178.345147549723</v>
       </c>
       <c r="F15">
-        <v>92.5668521015832</v>
+        <v>-711.894568448578</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,13 +709,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-3.78089007071321</v>
+        <v>-55.159805363046</v>
       </c>
       <c r="E16">
-        <v>-2.47092919254465</v>
+        <v>-27.9841832479685</v>
       </c>
       <c r="F16">
-        <v>6.00798526298604</v>
+        <v>154.79926332065</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>237.63115717371</v>
+        <v>81.443745433493</v>
       </c>
       <c r="E17">
-        <v>210.150897045882</v>
+        <v>93.3134444581319</v>
       </c>
       <c r="F17">
-        <v>-611.716444191363</v>
+        <v>-350.478163979902</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -749,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>660.497099218643</v>
+        <v>1134.41556843339</v>
       </c>
       <c r="E18">
-        <v>361.524211111144</v>
+        <v>797.454079255811</v>
       </c>
       <c r="F18">
-        <v>-293.075308816675</v>
+        <v>-934.943598991886</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -769,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>136.310951062835</v>
+        <v>38.2003236055589</v>
       </c>
       <c r="E19">
-        <v>180.670072477509</v>
+        <v>37.561853547737</v>
       </c>
       <c r="F19">
-        <v>-427.796200346551</v>
+        <v>-102.907784531402</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -789,13 +789,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>-86.6780342912</v>
+        <v>158.159817686914</v>
       </c>
       <c r="E20">
-        <v>2.63838459125569</v>
+        <v>36.9461171811917</v>
       </c>
       <c r="F20">
-        <v>-1116.74101339852</v>
+        <v>-250.724132021706</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -809,13 +809,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>-63.1409427111741</v>
+        <v>64.5044819200385</v>
       </c>
       <c r="E21">
-        <v>253.238900351999</v>
+        <v>237.906774783947</v>
       </c>
       <c r="F21">
-        <v>-1218.72806131716</v>
+        <v>-1070.47802243576</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -829,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="D22">
-        <v>1147.27688787185</v>
+        <v>430.628792791673</v>
       </c>
       <c r="E22">
-        <v>921.678108314263</v>
+        <v>463.12575474509</v>
       </c>
       <c r="F22">
-        <v>-2000</v>
+        <v>-1050.67365484493</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>1010.02583159149</v>
+        <v>1051.931047425</v>
       </c>
       <c r="E23">
-        <v>2300.67756619998</v>
+        <v>2196.51591110158</v>
       </c>
       <c r="F23">
-        <v>-1644.33050401754</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -869,13 +869,13 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>476.830809525312</v>
+        <v>427.695813965742</v>
       </c>
       <c r="E24">
-        <v>356.973670508735</v>
+        <v>447.560777309771</v>
       </c>
       <c r="F24">
-        <v>-1356.10575828923</v>
+        <v>-1572.50756809593</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -889,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>-49.9212120575421</v>
+        <v>530.921005216821</v>
       </c>
       <c r="E25">
-        <v>-83.7308464948192</v>
+        <v>374.196756847007</v>
       </c>
       <c r="F25">
-        <v>168.315527279552</v>
+        <v>-1341.98167856367</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -909,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>-322.18516242196</v>
+        <v>167.882311001719</v>
       </c>
       <c r="E26">
-        <v>-455.696297041935</v>
+        <v>648.755553798361</v>
       </c>
       <c r="F26">
-        <v>1895.55801484004</v>
+        <v>-1081.56562325421</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -929,13 +929,13 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-947.833721966557</v>
+        <v>277.3259391479</v>
       </c>
       <c r="E27">
-        <v>-804.062312139841</v>
+        <v>264.207917840946</v>
       </c>
       <c r="F27">
-        <v>1820.70641474539</v>
+        <v>-762.937979662848</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -949,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>-671.725097175769</v>
+        <v>351.184124463005</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>307.746229181512</v>
       </c>
       <c r="F28">
-        <v>2000</v>
+        <v>-875.953854678976</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -969,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>-337.944146258807</v>
+        <v>336.693005586544</v>
       </c>
       <c r="E29">
-        <v>-802.030218438829</v>
+        <v>1163.54968012293</v>
       </c>
       <c r="F29">
-        <v>1340.27958032554</v>
+        <v>-1415.88074721498</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -989,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>-1217.95858036366</v>
+        <v>1471.69593981028</v>
       </c>
       <c r="E30">
-        <v>-1506.34402184442</v>
+        <v>1552.99211643767</v>
       </c>
       <c r="F30">
-        <v>653.847025544803</v>
+        <v>-709.846822627451</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1009,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>-1631.27021629899</v>
+        <v>1508.75534552929</v>
       </c>
       <c r="E31">
-        <v>-1536.55966132354</v>
+        <v>790.366675003016</v>
       </c>
       <c r="F31">
-        <v>960.138918097455</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1029,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-329.872493996203</v>
+        <v>590.498812093113</v>
       </c>
       <c r="E32">
-        <v>-859.182422481386</v>
+        <v>75.6561999200128</v>
       </c>
       <c r="F32">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1049,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>-50.0399988644231</v>
+        <v>-220.394728585283</v>
       </c>
       <c r="E33">
-        <v>-64.7317249301123</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>353.048806539387</v>
+        <v>-825.656199920014</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>-12.0658115879487</v>
+        <v>332.646593027383</v>
       </c>
       <c r="F34">
-        <v>29.2683141917478</v>
+        <v>-731.587313215414</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>29.4497173978307</v>
+        <v>184.617816821403</v>
       </c>
       <c r="F35">
-        <v>-42.6692760242659</v>
+        <v>-376.288771341614</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1109,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>-177.524060804437</v>
+        <v>-87.5935599935015</v>
       </c>
       <c r="E36">
-        <v>-340.07920591165</v>
+        <v>-269.980453489177</v>
       </c>
       <c r="F36">
-        <v>561.743562187086</v>
+        <v>419.697697542232</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-485.750781731744</v>
+        <v>-192.561306942663</v>
       </c>
       <c r="E37">
-        <v>-415.408229092098</v>
+        <v>-125.956084502487</v>
       </c>
       <c r="F37">
-        <v>1077.84556400842</v>
+        <v>652.329820316119</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-526.962372698823</v>
+        <v>-248.061476431537</v>
       </c>
       <c r="E38">
-        <v>-337.225388203192</v>
+        <v>-231.441634670327</v>
       </c>
       <c r="F38">
-        <v>1078.08105999214</v>
+        <v>1139.91472712376</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1169,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>-482.783489438067</v>
+        <v>-302.473735014015</v>
       </c>
       <c r="E39">
-        <v>-519.70791900441</v>
+        <v>-418.727932687262</v>
       </c>
       <c r="F39">
-        <v>1189.72221601752</v>
+        <v>1676.87991698516</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>-875.446132479821</v>
+        <v>-612.303171450847</v>
       </c>
       <c r="E40">
-        <v>-584.576766836513</v>
+        <v>-306.607234678429</v>
       </c>
       <c r="F40">
-        <v>1446.32689200973</v>
+        <v>1712.76202319555</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1209,10 +1209,10 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>-790.568625748758</v>
+        <v>-469.337376567534</v>
       </c>
       <c r="E41">
-        <v>-678.678787427805</v>
+        <v>-510.593763504508</v>
       </c>
       <c r="F41">
         <v>2000</v>
@@ -1229,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>-927.463938383393</v>
+        <v>-2309.9473465369</v>
       </c>
       <c r="E42">
-        <v>-500.009595778916</v>
+        <v>-1532.56889753219</v>
       </c>
       <c r="F42">
-        <v>411.092810623384</v>
+        <v>1837.86462796262</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>-165.453378369288</v>
+        <v>-503.351024799123</v>
       </c>
       <c r="E43">
-        <v>-214.081263280697</v>
+        <v>-481.566354693258</v>
       </c>
       <c r="F43">
-        <v>514.114629193093</v>
+        <v>1333.10900706888</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1269,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>35.6634130146151</v>
+        <v>-336.960021031637</v>
       </c>
       <c r="E44">
-        <v>-1.08171667027305</v>
+        <v>-76.9674553000021</v>
       </c>
       <c r="F44">
-        <v>455.0595050909</v>
+        <v>527.824964445439</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1289,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>22.1119647765977</v>
+        <v>-74.3299981542775</v>
       </c>
       <c r="E45">
-        <v>-88.6651757135332</v>
+        <v>-266.119419212122</v>
       </c>
       <c r="F45">
-        <v>426.75107922839</v>
+        <v>1195.26340400279</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1309,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>-658.100495115237</v>
+        <v>-17.9325050154239</v>
       </c>
       <c r="E46">
-        <v>-521.876685038567</v>
+        <v>-19.1206023617674</v>
       </c>
       <c r="F46">
-        <v>1151.50322728715</v>
+        <v>42.7283953219567</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1329,13 +1329,13 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <v>-1249.16527875794</v>
+        <v>789.331908852012</v>
       </c>
       <c r="E47">
-        <v>-2842.96626676076</v>
+        <v>1736.04496135364</v>
       </c>
       <c r="F47">
-        <v>2000</v>
+        <v>-1523.54848007195</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1349,13 +1349,13 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>-693.438027096578</v>
+        <v>509.599470971172</v>
       </c>
       <c r="E48">
-        <v>-530.460166357703</v>
+        <v>573.763162371046</v>
       </c>
       <c r="F48">
-        <v>2000</v>
+        <v>-1922.62391513989</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1369,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>-324.461974496582</v>
+        <v>735.405110743693</v>
       </c>
       <c r="E49">
-        <v>-548.688783618515</v>
+        <v>571.774231833286</v>
       </c>
       <c r="F49">
-        <v>1117.83091017328</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1389,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="D50">
-        <v>21.6081161771858</v>
+        <v>264.545989228775</v>
       </c>
       <c r="E50">
-        <v>30.5686034825812</v>
+        <v>814.781249496075</v>
       </c>
       <c r="F50">
-        <v>-125.440310110873</v>
+        <v>-1747.39170083434</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1409,13 +1409,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>543.817931297246</v>
+        <v>298.674932372679</v>
       </c>
       <c r="E51">
-        <v>467.394065521828</v>
+        <v>273.794328056023</v>
       </c>
       <c r="F51">
-        <v>-1055.93025427682</v>
+        <v>-807.04063164025</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1429,13 +1429,13 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <v>670.182986387528</v>
+        <v>342.492398972649</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>241.481292943238</v>
       </c>
       <c r="F52">
-        <v>-2000</v>
+        <v>-843.026463929684</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1449,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <v>369.907625505036</v>
+        <v>480.507620671594</v>
       </c>
       <c r="E53">
-        <v>894.260836385603</v>
+        <v>1426.23388268791</v>
       </c>
       <c r="F53">
-        <v>-1486.6925230768</v>
+        <v>-1964.7992871497</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1469,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>1484.56429665946</v>
+        <v>2213.85963485082</v>
       </c>
       <c r="E54">
-        <v>1866.39322541529</v>
+        <v>2018.85637849304</v>
       </c>
       <c r="F54">
-        <v>-806.61525680757</v>
+        <v>-1014.15640299321</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1489,13 +1489,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>1272.03244682722</v>
+        <v>1723.88284123696</v>
       </c>
       <c r="E55">
-        <v>1217.57174393268</v>
+        <v>708.10262057911</v>
       </c>
       <c r="F55">
-        <v>-758.175737182937</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1509,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>243.281573780278</v>
+        <v>506.175443771769</v>
       </c>
       <c r="E56">
-        <v>626.585761564726</v>
+        <v>60.8886305114822</v>
       </c>
       <c r="F56">
-        <v>-1491.70744078646</v>
+        <v>-1366.69020744084</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1529,13 +1529,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>-42.488217206741</v>
+        <v>156.185163368959</v>
       </c>
       <c r="E57">
-        <v>-53.3330528169845</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>299.080015906278</v>
+        <v>689.111369488518</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>127.587846866783</v>
+        <v>-368.323511922941</v>
       </c>
       <c r="F58">
-        <v>-314.975077223135</v>
+        <v>734.838177061513</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-294.499033180666</v>
+        <v>-364.667026731259</v>
       </c>
       <c r="F59">
-        <v>424.451410062567</v>
+        <v>728.762471551846</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>-380.461805589544</v>
+        <v>-197.597488055477</v>
       </c>
       <c r="E60">
-        <v>-718.220144285788</v>
+        <v>-627.078139576397</v>
       </c>
       <c r="F60">
-        <v>1228.91454349646</v>
+        <v>959.124597256195</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1609,13 +1609,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>-936.742306137767</v>
+        <v>-268.289095829047</v>
       </c>
       <c r="E61">
-        <v>-777.281213311007</v>
+        <v>-182.539032922719</v>
       </c>
       <c r="F61">
-        <v>2000</v>
+        <v>921.797741222678</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1629,13 +1629,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>-969.457035415615</v>
+        <v>-131.377321348743</v>
       </c>
       <c r="E62">
-        <v>-640.383903013976</v>
+        <v>-124.702082574977</v>
       </c>
       <c r="F62">
-        <v>2000</v>
+        <v>625.300863897335</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1649,13 +1649,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>-792.857738840219</v>
+        <v>-193.063601287929</v>
       </c>
       <c r="E63">
-        <v>-881.541927409264</v>
+        <v>-255.11105786796</v>
       </c>
       <c r="F63">
-        <v>2000</v>
+        <v>1051.30868347412</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1669,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>-439.790448879827</v>
+        <v>-365.844921977554</v>
       </c>
       <c r="E64">
-        <v>-295.209930277219</v>
+        <v>-168.982369265829</v>
       </c>
       <c r="F64">
-        <v>733.131770614331</v>
+        <v>994.48127406652</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1689,13 +1689,13 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>793.53437173475</v>
+        <v>-136.868733043837</v>
       </c>
       <c r="E65">
-        <v>670.005912894161</v>
+        <v>-130.642295910967</v>
       </c>
       <c r="F65">
-        <v>-2000</v>
+        <v>553.615847002891</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1709,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>2821.16025740741</v>
+        <v>273.622153950122</v>
       </c>
       <c r="E66">
-        <v>1505.77273299104</v>
+        <v>166.283750294842</v>
       </c>
       <c r="F66">
-        <v>-1223.79854339952</v>
+        <v>-201.129966902712</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1729,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>415.615160234762</v>
+        <v>44.5274315864208</v>
       </c>
       <c r="E67">
-        <v>550.212982175903</v>
+        <v>41.8666527834234</v>
       </c>
       <c r="F67">
-        <v>-1287.63276640163</v>
+        <v>-117.917674614528</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1749,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>-90.665487037737</v>
+        <v>301.453116604276</v>
       </c>
       <c r="E68">
-        <v>1.94418274248644</v>
+        <v>66.3650347908289</v>
       </c>
       <c r="F68">
-        <v>-1163.23893293576</v>
+        <v>-466.116117049216</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1769,13 +1769,13 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>-82.161276946518</v>
+        <v>17.7893322410591</v>
       </c>
       <c r="E69">
-        <v>332.703470402037</v>
+        <v>61.3824741303822</v>
       </c>
       <c r="F69">
-        <v>-1616.30823918715</v>
+        <v>-280.51110352698</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1789,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>1147.49984770245</v>
+        <v>517.164649928394</v>
       </c>
       <c r="E70">
-        <v>902.264252362402</v>
+        <v>514.788803690811</v>
       </c>
       <c r="F70">
-        <v>-2000</v>
+        <v>-1192.41885364761</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1809,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>830.380675564438</v>
+        <v>1074.03418663201</v>
       </c>
       <c r="E71">
-        <v>1854.03548182977</v>
+        <v>2290.57400478285</v>
       </c>
       <c r="F71">
-        <v>-1323.39151236398</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1829,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>295.716466027587</v>
+        <v>509.369884883481</v>
       </c>
       <c r="E72">
-        <v>224.949989972761</v>
+        <v>588.963850887387</v>
       </c>
       <c r="F72">
-        <v>-838.224550272484</v>
+        <v>-1918.50427236846</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>69.2502139610251</v>
+        <v>716.102124176319</v>
       </c>
       <c r="E73">
-        <v>119.001923291074</v>
+        <v>573.660459214996</v>
       </c>
       <c r="F73">
-        <v>-237.245932250778</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1869,13 +1869,13 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>315.053979324994</v>
+        <v>197.955424052635</v>
       </c>
       <c r="E74">
-        <v>452.040639923504</v>
+        <v>571.124043396977</v>
       </c>
       <c r="F74">
-        <v>-1869.00481367936</v>
+        <v>-1311.85800685515</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1889,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="D75">
-        <v>1003.46516807161</v>
+        <v>175.073622474412</v>
       </c>
       <c r="E75">
-        <v>848.938395559277</v>
+        <v>161.074529900472</v>
       </c>
       <c r="F75">
-        <v>-1938.50888310887</v>
+        <v>-479.104699864571</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1909,13 +1909,13 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>677.380949089371</v>
+        <v>269.276868379771</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>176.132344359934</v>
       </c>
       <c r="F76">
-        <v>-2000</v>
+        <v>-658.412110635676</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1929,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>148.797797244801</v>
+        <v>493.847520389071</v>
       </c>
       <c r="E77">
-        <v>356.209023140691</v>
+        <v>1405.81316700458</v>
       </c>
       <c r="F77">
-        <v>-595.488423230094</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1949,13 +1949,13 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>813.993842067102</v>
+        <v>2326.09618932308</v>
       </c>
       <c r="E78">
-        <v>1021.2809298567</v>
+        <v>2044.28116092538</v>
       </c>
       <c r="F78">
-        <v>-437.898332382534</v>
+        <v>-1052.51632559496</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1969,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <v>-49.69441078194</v>
+        <v>1778.18529208006</v>
       </c>
       <c r="E79">
-        <v>-47.6888528279742</v>
+        <v>670.958160213524</v>
       </c>
       <c r="F79">
-        <v>29.4248740597104</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1989,13 +1989,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>-33.3409367301119</v>
+        <v>418.372527460074</v>
       </c>
       <c r="E80">
-        <v>-86.0881645545305</v>
+        <v>46.1557426122216</v>
       </c>
       <c r="F80">
-        <v>205.520898472503</v>
+        <v>-1041.71253217466</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2009,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>-27.7866701875955</v>
+        <v>160.404002939086</v>
       </c>
       <c r="E81">
-        <v>-35.0364083606692</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>194.324167489453</v>
+        <v>703.844257387777</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>-202.446332243739</v>
+        <v>-410.061213953831</v>
       </c>
       <c r="F82">
-        <v>492.089797088232</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-374.563776939151</v>
+        <v>-336.9007053249</v>
       </c>
       <c r="F83">
-        <v>546.108393259332</v>
+        <v>636.640073430647</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2069,13 +2069,13 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>-219.505752992633</v>
+        <v>-65.294294966748</v>
       </c>
       <c r="E84">
-        <v>-416.27809142285</v>
+        <v>-216.107750288674</v>
       </c>
       <c r="F84">
-        <v>691.153841568608</v>
+        <v>332.204984724244</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2089,13 +2089,13 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>-574.471282382327</v>
+        <v>-54.0468488126664</v>
       </c>
       <c r="E85">
-        <v>-487.351763582607</v>
+        <v>-36.9931530035007</v>
       </c>
       <c r="F85">
-        <v>1270.56765628055</v>
+        <v>190.987323591106</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2109,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>-317.345855739903</v>
+        <v>102.399700563019</v>
       </c>
       <c r="E86">
-        <v>-199.317102805113</v>
+        <v>93.9159422085844</v>
       </c>
       <c r="F86">
-        <v>646.146254295527</v>
+        <v>-482.94113321468</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2129,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>-5.3960198189925</v>
+        <v>126.025426341562</v>
       </c>
       <c r="E87">
-        <v>-5.67539319226307</v>
+        <v>160.147408928583</v>
       </c>
       <c r="F87">
-        <v>13.1132875888579</v>
+        <v>-669.18850032878</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2149,13 +2149,13 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>-313.05025297264</v>
+        <v>198.504674625645</v>
       </c>
       <c r="E88">
-        <v>-208.324486877329</v>
+        <v>87.2338917239631</v>
       </c>
       <c r="F88">
-        <v>512.414838889723</v>
+        <v>-532.16061841694</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2169,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>-785.952033368088</v>
+        <v>217.309541312412</v>
       </c>
       <c r="E89">
-        <v>-661.060827250607</v>
+        <v>200.718472602063</v>
       </c>
       <c r="F89">
-        <v>2000</v>
+        <v>-847.970593214415</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2189,13 +2189,13 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>-1611.44638600157</v>
+        <v>925.553331907275</v>
       </c>
       <c r="E90">
-        <v>-849.747909575664</v>
+        <v>569.835192472732</v>
       </c>
       <c r="F90">
-        <v>690.027129781047</v>
+        <v>-670.3545483948</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2209,13 +2209,13 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>52.3754954820706</v>
+        <v>89.6605781001585</v>
       </c>
       <c r="E91">
-        <v>68.9395738695512</v>
+        <v>89.4892241576381</v>
       </c>
       <c r="F91">
-        <v>-161.643258434393</v>
+        <v>-236.161646060229</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2229,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>-34.235013467827</v>
+        <v>266.152724834045</v>
       </c>
       <c r="E92">
-        <v>0.0114374053178311</v>
+        <v>63.6662024834895</v>
       </c>
       <c r="F92">
-        <v>-430.063259667029</v>
+        <v>-426.719794642034</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2249,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>30.1072270251236</v>
+        <v>37.0116460692504</v>
       </c>
       <c r="E93">
-        <v>-116.918535685304</v>
+        <v>138.447584230558</v>
       </c>
       <c r="F93">
-        <v>580.094514548808</v>
+        <v>-627.594323074128</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2269,13 +2269,13 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>-5.53427869961706</v>
+        <v>607.123797893481</v>
       </c>
       <c r="E94">
-        <v>-4.27612115402917</v>
+        <v>639.17314825443</v>
       </c>
       <c r="F94">
-        <v>9.44590477705788</v>
+        <v>-1501.5496874649</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2289,13 +2289,13 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>809.5556994039</v>
+        <v>1089.28005030427</v>
       </c>
       <c r="E95">
-        <v>1857.30428317927</v>
+        <v>2084.21854546884</v>
       </c>
       <c r="F95">
-        <v>-1294.67430470831</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2309,13 +2309,13 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>582.052206858062</v>
+        <v>486.358944992649</v>
       </c>
       <c r="E96">
-        <v>457.864923702724</v>
+        <v>484.586488069648</v>
       </c>
       <c r="F96">
-        <v>-1684.11838088181</v>
+        <v>-1695.04517932922</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2329,13 +2329,13 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>564.530456320053</v>
+        <v>722.390555663625</v>
       </c>
       <c r="E97">
-        <v>995.692876033751</v>
+        <v>591.30798737081</v>
       </c>
       <c r="F97">
-        <v>-2000</v>
+        <v>-1738.54569930314</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2349,13 +2349,13 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>339.675596330275</v>
+        <v>96.6018374032564</v>
       </c>
       <c r="E98">
-        <v>489.577818552498</v>
+        <v>641.334666010291</v>
       </c>
       <c r="F98">
-        <v>-2000</v>
+        <v>-603.84141051394</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2369,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>595.386395815574</v>
+        <v>-68.1093311357176</v>
       </c>
       <c r="E99">
-        <v>508.657837240606</v>
+        <v>-57.5093309163617</v>
       </c>
       <c r="F99">
-        <v>-1169.4057137457</v>
+        <v>155.544155262181</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2389,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>546.428547144889</v>
+        <v>-12.9205461301513</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-17.1586909668895</v>
       </c>
       <c r="F100">
-        <v>-1602.44283572993</v>
+        <v>39.1946997950108</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2409,13 +2409,13 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>308.65775190136</v>
+        <v>330.367462924233</v>
       </c>
       <c r="E101">
-        <v>702.609769198283</v>
+        <v>1102.3392685473</v>
       </c>
       <c r="F101">
-        <v>-1211.6729930012</v>
+        <v>-1267.367913166</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2429,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>1594.0067237659</v>
+        <v>1379.13010102739</v>
       </c>
       <c r="E102">
-        <v>1847.57296340602</v>
+        <v>1570.46951814773</v>
       </c>
       <c r="F102">
-        <v>-837.034905448259</v>
+        <v>-681.689102631221</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2449,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>1361.71794670341</v>
+        <v>963.58676004283</v>
       </c>
       <c r="E103">
-        <v>1187.47484245313</v>
+        <v>868.906134614668</v>
       </c>
       <c r="F103">
-        <v>-766.782574581584</v>
+        <v>-1313.01655460699</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2469,10 +2469,10 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>352.966680675068</v>
+        <v>334.495979381029</v>
       </c>
       <c r="E104">
-        <v>747.983915600536</v>
+        <v>363.279243328743</v>
       </c>
       <c r="F104">
         <v>-2000</v>
@@ -2489,13 +2489,13 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>81.4211134393308</v>
+        <v>27.1164364908512</v>
       </c>
       <c r="E105">
-        <v>88.0712642377184</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>-506.813901740526</v>
+        <v>-837.195144976702</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>-50.5343766846781</v>
+        <v>320.339623563124</v>
       </c>
       <c r="F106">
-        <v>114.677261209614</v>
+        <v>-855.399392190004</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-687.519960075282</v>
+        <v>655.883112837728</v>
       </c>
       <c r="F107">
-        <v>952.487926182943</v>
+        <v>-1133.17236076788</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2549,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>-239.498848273011</v>
+        <v>210.507234906972</v>
       </c>
       <c r="E108">
-        <v>-487.521549278279</v>
+        <v>363.559529743512</v>
       </c>
       <c r="F108">
-        <v>786.147235026609</v>
+        <v>-576.459357205565</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2569,13 +2569,13 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>-152.767622524039</v>
+        <v>189.744087546072</v>
       </c>
       <c r="E109">
-        <v>-134.733310748283</v>
+        <v>183.541514669147</v>
       </c>
       <c r="F109">
-        <v>345.892446297956</v>
+        <v>-812.384649393454</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2589,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>114.965390561119</v>
+        <v>-131.14588438766</v>
       </c>
       <c r="E110">
-        <v>76.2458492703181</v>
+        <v>-111.447717976177</v>
       </c>
       <c r="F110">
-        <v>-237.713735339574</v>
+        <v>470.646111857781</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2609,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>172.554483320408</v>
+        <v>-204.49602887054</v>
       </c>
       <c r="E111">
-        <v>183.357159559397</v>
+        <v>-184.281397249187</v>
       </c>
       <c r="F111">
-        <v>-436.026106056681</v>
+        <v>909.032597606635</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2629,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>82.5813546248901</v>
+        <v>-112.624240117701</v>
       </c>
       <c r="E112">
-        <v>52.326370925739</v>
+        <v>-55.8278429741893</v>
       </c>
       <c r="F112">
-        <v>-131.338076764685</v>
+        <v>370.154221352524</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2649,13 +2649,13 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>-802.019082794704</v>
+        <v>214.211671723074</v>
       </c>
       <c r="E113">
-        <v>-675.621412204979</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>2000</v>
+        <v>-967.003297590469</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2669,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>-1952.27154717006</v>
+        <v>1961.0917055297</v>
       </c>
       <c r="E114">
-        <v>-1054.22729141216</v>
+        <v>1392.20639088021</v>
       </c>
       <c r="F114">
-        <v>862.039026767328</v>
+        <v>-1887.20041259384</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2689,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>-202.275000063408</v>
+        <v>409.034342054777</v>
       </c>
       <c r="E115">
-        <v>-267.53443778646</v>
+        <v>466.336551761966</v>
       </c>
       <c r="F115">
-        <v>626.989116396904</v>
+        <v>-1343.8748838316</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2709,13 +2709,13 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>-25.4388053751545</v>
+        <v>812.613625052871</v>
       </c>
       <c r="E116">
-        <v>0.998216305932431</v>
+        <v>185.544051084702</v>
       </c>
       <c r="F116">
-        <v>-306.42795168331</v>
+        <v>-1289.51505244465</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2729,13 +2729,13 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>-46.9704494670693</v>
+        <v>100.722852588891</v>
       </c>
       <c r="E117">
-        <v>185.471912574954</v>
+        <v>242.260616244785</v>
       </c>
       <c r="F117">
-        <v>-883.949469539588</v>
+        <v>-1406.35061166871</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2749,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>1117.47985102733</v>
+        <v>740.203692876349</v>
       </c>
       <c r="E118">
-        <v>913.124157844081</v>
+        <v>584.896244727136</v>
       </c>
       <c r="F118">
-        <v>-2000</v>
+        <v>-1397.76703334292</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2769,13 +2769,13 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>1082.53315892733</v>
+        <v>1075.62316618212</v>
       </c>
       <c r="E119">
-        <v>2483.23388580923</v>
+        <v>2077.47185030187</v>
       </c>
       <c r="F119">
-        <v>-1746.01673080786</v>
+        <v>-1949.8444322788</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2789,13 +2789,13 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>686.19748195447</v>
+        <v>552.191340893598</v>
       </c>
       <c r="E120">
-        <v>544.824925341193</v>
+        <v>467.774844507954</v>
       </c>
       <c r="F120">
-        <v>-1956.90131557132</v>
+        <v>-1895.49033540231</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2809,13 +2809,13 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>358.169110844638</v>
+        <v>857.389606154519</v>
       </c>
       <c r="E121">
-        <v>660.691285640618</v>
+        <v>701.8797223105</v>
       </c>
       <c r="F121">
-        <v>-1280.74645190805</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2829,13 +2829,13 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>221.680693365961</v>
+        <v>284.894904576114</v>
       </c>
       <c r="E122">
-        <v>330.194216106302</v>
+        <v>1824.37526883396</v>
       </c>
       <c r="F122">
-        <v>-1352.48835127423</v>
+        <v>-1745.62462035532</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2849,13 +2849,13 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>892.443988933674</v>
+        <v>275.070149007495</v>
       </c>
       <c r="E123">
-        <v>770.383047642606</v>
+        <v>228.455801849537</v>
       </c>
       <c r="F123">
-        <v>-1744.98758716561</v>
+        <v>-627.137822750653</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2869,13 +2869,13 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>671.934566808033</v>
+        <v>48.53596518323</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>63.3775701152226</v>
       </c>
       <c r="F124">
-        <v>-2000</v>
+        <v>-145.065694506338</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>349.153974619098</v>
+        <v>59.2356404718887</v>
       </c>
       <c r="E125">
-        <v>796.227745347365</v>
+        <v>197.006044370988</v>
       </c>
       <c r="F125">
-        <v>-1367.73193917029</v>
+        <v>-227.234844483753</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2909,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>1804.04748796611</v>
+        <v>91.663278172884</v>
       </c>
       <c r="E126">
-        <v>2083.8162367568</v>
+        <v>104.05651024193</v>
       </c>
       <c r="F126">
-        <v>-951.882178707156</v>
+        <v>-45.0929776841303</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2929,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>1903.70040464195</v>
+        <v>253.479995882771</v>
       </c>
       <c r="E127">
-        <v>1644.09095829624</v>
+        <v>227.360039601916</v>
       </c>
       <c r="F127">
-        <v>-1073.70708551437</v>
+        <v>-344.691043071627</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2949,10 +2949,10 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>355.622243773902</v>
+        <v>336.730073046724</v>
       </c>
       <c r="E128">
-        <v>732.931886524304</v>
+        <v>355.812982687605</v>
       </c>
       <c r="F128">
         <v>-2000</v>
@@ -2969,13 +2969,13 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>-73.3335483419269</v>
+        <v>32.9168430522829</v>
       </c>
       <c r="E129">
-        <v>-76.9875037678494</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>449.097293637577</v>
+        <v>-1005.024415948</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>-295.815663859619</v>
+        <v>313.32757630564</v>
       </c>
       <c r="F130">
-        <v>658.392887224672</v>
+        <v>-850.788566739606</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>-1067.66443734453</v>
+        <v>191.099551130275</v>
       </c>
       <c r="F131">
-        <v>1405.36306340912</v>
+        <v>-332.173934251464</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3029,13 +3029,13 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>-588.947485043209</v>
+        <v>12.0051771746785</v>
       </c>
       <c r="E132">
-        <v>-1293.07334367383</v>
+        <v>20.6413238429154</v>
       </c>
       <c r="F132">
-        <v>2000</v>
+        <v>-32.5204280368648</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3049,13 +3049,13 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>-847.160800552105</v>
+        <v>-2.85044162677241</v>
       </c>
       <c r="E133">
-        <v>-779.411088106741</v>
+        <v>-2.76423328025862</v>
       </c>
       <c r="F133">
-        <v>2000</v>
+        <v>12.207515105024</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3069,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>-966.807827395885</v>
+        <v>94.660189963082</v>
       </c>
       <c r="E134">
-        <v>-639.507074761666</v>
+        <v>80.587251371487</v>
       </c>
       <c r="F134">
-        <v>2000</v>
+        <v>-340.472468068097</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3089,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>-793.94482621253</v>
+        <v>121.480952299459</v>
       </c>
       <c r="E135">
-        <v>-852.656109949212</v>
+        <v>111.280991127492</v>
       </c>
       <c r="F135">
-        <v>2000</v>
+        <v>-539.772066064816</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3109,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>-633.497729529132</v>
+        <v>146.899293382118</v>
       </c>
       <c r="E136">
-        <v>-411.559844601868</v>
+        <v>74.6775537090317</v>
       </c>
       <c r="F136">
-        <v>1021.43855184195</v>
+        <v>-490.997272700366</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3129,13 +3129,13 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>581.217558107259</v>
+        <v>328.097147983643</v>
       </c>
       <c r="E137">
-        <v>497.43616326206</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>-1465.80029811427</v>
+        <v>-1493.58568038784</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3149,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>2509.08259501993</v>
+        <v>1605.92302197293</v>
       </c>
       <c r="E138">
-        <v>1367.69898704777</v>
+        <v>1158.88301021368</v>
       </c>
       <c r="F138">
-        <v>-1099.78172738166</v>
+        <v>-1551.1914264553</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3169,13 +3169,13 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>62.0350568020949</v>
+        <v>472.963833810237</v>
       </c>
       <c r="E139">
-        <v>84.5872567188599</v>
+        <v>550.16730991443</v>
       </c>
       <c r="F139">
-        <v>-194.172484282069</v>
+        <v>-1566.5685188325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3189,13 +3189,13 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>62.6112688980163</v>
+        <v>224.580567113522</v>
       </c>
       <c r="E140">
-        <v>-4.51454622867871</v>
+        <v>52.3964700789938</v>
       </c>
       <c r="F140">
-        <v>791.540290691675</v>
+        <v>-362.579795221116</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3209,13 +3209,13 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>49.3897684971424</v>
+        <v>38.9821507219792</v>
       </c>
       <c r="E141">
-        <v>-210.072525941237</v>
+        <v>96.1406623414966</v>
       </c>
       <c r="F141">
-        <v>971.938718753525</v>
+        <v>-555.156246354141</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3229,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>-1010.68637579183</v>
+        <v>371.950015920822</v>
       </c>
       <c r="E142">
-        <v>-846.453188689508</v>
+        <v>301.483439644059</v>
       </c>
       <c r="F142">
-        <v>1860.65249117467</v>
+        <v>-716.034766200829</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3249,13 +3249,13 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>-847.962924617617</v>
+        <v>838.488725468378</v>
       </c>
       <c r="E143">
-        <v>-1931.37604323513</v>
+        <v>1643.87481212918</v>
       </c>
       <c r="F143">
-        <v>1362.76790400415</v>
+        <v>-1529.40446994656</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3269,13 +3269,13 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>-702.895746371419</v>
+        <v>577.705363153634</v>
       </c>
       <c r="E144">
-        <v>-554.015941669453</v>
+        <v>494.133855216607</v>
       </c>
       <c r="F144">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3289,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>-563.418968943222</v>
+        <v>598.839888134125</v>
       </c>
       <c r="E145">
-        <v>-1009.52300259227</v>
+        <v>412.314601797814</v>
       </c>
       <c r="F145">
-        <v>2000</v>
+        <v>-1410.43618617045</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3309,13 +3309,13 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <v>-318.83160456105</v>
+        <v>197.590939176878</v>
       </c>
       <c r="E146">
-        <v>-459.022511671405</v>
+        <v>768.188415335266</v>
       </c>
       <c r="F146">
-        <v>1903.34639187567</v>
+        <v>-1267.82820171924</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3329,13 +3329,13 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>-223.263248570165</v>
+        <v>289.141317545235</v>
       </c>
       <c r="E147">
-        <v>-190.061365317203</v>
+        <v>277.409492390164</v>
       </c>
       <c r="F147">
-        <v>429.964102591926</v>
+        <v>-801.083598824478</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3349,13 +3349,13 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>197.311668207771</v>
+        <v>397.425650849821</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>349.356729130508</v>
       </c>
       <c r="F148">
-        <v>-588.034831510799</v>
+        <v>-989.5624260669</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3369,13 +3369,13 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>186.533692091767</v>
+        <v>366.966294677614</v>
       </c>
       <c r="E149">
-        <v>442.28799642491</v>
+        <v>1274.69011432452</v>
       </c>
       <c r="F149">
-        <v>-741.705560963674</v>
+        <v>-1552.28333148594</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3389,13 +3389,13 @@
         <v>6</v>
       </c>
       <c r="D150">
-        <v>2244.52020055533</v>
+        <v>1302.7232249769</v>
       </c>
       <c r="E150">
-        <v>2827.1824964716</v>
+        <v>1377.35832316194</v>
       </c>
       <c r="F150">
-        <v>-1194.82584587305</v>
+        <v>-626.445904414296</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3409,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="D151">
-        <v>1140.24998155935</v>
+        <v>1500.43372271496</v>
       </c>
       <c r="E151">
-        <v>1108.03448041038</v>
+        <v>788.238659570334</v>
       </c>
       <c r="F151">
-        <v>-673.572366675151</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="D152">
-        <v>319.561561561559</v>
+        <v>589.881316037597</v>
       </c>
       <c r="E152">
-        <v>867.003003003003</v>
+        <v>75.3294276986526</v>
       </c>
       <c r="F152">
         <v>-2000</v>
@@ -3449,13 +3449,13 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>21.3750748344974</v>
+        <v>-221.263176311144</v>
       </c>
       <c r="E153">
-        <v>28.2212924868963</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>-154.286542798756</v>
+        <v>-825.329427698653</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>388.392149890964</v>
+        <v>348.010807750422</v>
       </c>
       <c r="F154">
-        <v>-933.479017525937</v>
+        <v>-749.999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>1130.21072208705</v>
+        <v>163.152018375932</v>
       </c>
       <c r="F155">
-        <v>-1614.04712030224</v>
+        <v>-323.310408731779</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3509,13 +3509,13 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <v>625.756114072947</v>
+        <v>-6.01274552343637</v>
       </c>
       <c r="E156">
-        <v>1221.88711178811</v>
+        <v>-19.0860087822944</v>
       </c>
       <c r="F156">
-        <v>-2000</v>
+        <v>29.2628842366375</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3529,13 +3529,13 @@
         <v>6</v>
       </c>
       <c r="D157">
-        <v>460.897081936982</v>
+        <v>-37.7690645962703</v>
       </c>
       <c r="E157">
-        <v>396.659331750792</v>
+        <v>-25.1569373988295</v>
       </c>
       <c r="F157">
-        <v>-1034.06396588426</v>
+        <v>130.981589870577</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="D158">
-        <v>-352.073518261599</v>
+        <v>-99.7768587853242</v>
       </c>
       <c r="E158">
-        <v>-220.933728937178</v>
+        <v>-93.694667957799</v>
       </c>
       <c r="F158">
-        <v>716.897201678541</v>
+        <v>464.506386818616</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3569,13 +3569,13 @@
         <v>6</v>
       </c>
       <c r="D159">
-        <v>-823.75970300371</v>
+        <v>-156.323150693598</v>
       </c>
       <c r="E159">
-        <v>-877.846776915287</v>
+        <v>-215.051284497765</v>
       </c>
       <c r="F159">
-        <v>2000</v>
+        <v>860.977212590856</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3589,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <v>-954.055699148372</v>
+        <v>-224.199809752259</v>
       </c>
       <c r="E160">
-        <v>-647.542618228041</v>
+        <v>-111.149762598245</v>
       </c>
       <c r="F160">
-        <v>1583.74670090801</v>
+        <v>627.315718887112</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3609,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="D161">
-        <v>-195.396016252642</v>
+        <v>114.482912283517</v>
       </c>
       <c r="E161">
-        <v>-169.557786665428</v>
+        <v>126.079594965339</v>
       </c>
       <c r="F161">
-        <v>500.050274066249</v>
+        <v>-482.861433164127</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3629,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="D162">
-        <v>270.289342340562</v>
+        <v>1475.7415142735</v>
       </c>
       <c r="E162">
-        <v>148.375979139004</v>
+        <v>1011.75517673366</v>
       </c>
       <c r="F162">
-        <v>-117.923841176871</v>
+        <v>-1187.50338296222</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3649,13 +3649,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>-2.83412567130836</v>
+        <v>573.990045129243</v>
       </c>
       <c r="E163">
-        <v>-3.81387653682032</v>
+        <v>565.164190982438</v>
       </c>
       <c r="F163">
-        <v>9.02115370275715</v>
+        <v>-1542.08636925694</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3669,13 +3669,13 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>-86.8965656442617</v>
+        <v>614.395800622743</v>
       </c>
       <c r="E164">
-        <v>1.78896068319275</v>
+        <v>143.808493953147</v>
       </c>
       <c r="F164">
-        <v>-1154.08018711967</v>
+        <v>-980.556850072247</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3689,13 +3689,13 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>-68.3509530417714</v>
+        <v>90.4742074357438</v>
       </c>
       <c r="E165">
-        <v>284.707209733899</v>
+        <v>333.964065393703</v>
       </c>
       <c r="F165">
-        <v>-1385.13265366496</v>
+        <v>-1500.30904235598</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3709,10 +3709,10 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>1151.37142172715</v>
+        <v>820.486381597133</v>
       </c>
       <c r="E166">
-        <v>897.103844771826</v>
+        <v>883.360669510496</v>
       </c>
       <c r="F166">
         <v>-2000</v>
@@ -3729,10 +3729,10 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>1262.1469366829</v>
+        <v>1049.80902139766</v>
       </c>
       <c r="E167">
-        <v>2834.96375288388</v>
+        <v>2170.64501215103</v>
       </c>
       <c r="F167">
         <v>-2000</v>
@@ -3749,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>486.762588929221</v>
+        <v>477.357342804872</v>
       </c>
       <c r="E168">
-        <v>382.572186018198</v>
+        <v>492.711380032841</v>
       </c>
       <c r="F168">
-        <v>-1386.6189182261</v>
+        <v>-1735.39902942122</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3769,13 +3769,6733 @@
         <v>6</v>
       </c>
       <c r="D169">
-        <v>253.629544693202</v>
+        <v>469.869306262192</v>
       </c>
       <c r="E169">
-        <v>405.78993376361</v>
+        <v>327.959501485017</v>
       </c>
       <c r="F169">
-        <v>-897.76615105852</v>
+        <v>-1171.45529790173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>299.861217030769</v>
+      </c>
+      <c r="F170">
+        <v>-587.909788750644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>119.256877025225</v>
+      </c>
+      <c r="E171">
+        <v>169.424750606086</v>
+      </c>
+      <c r="F171">
+        <v>-372.146403047321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1">
+        <v>3</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>348.18410492117</v>
+      </c>
+      <c r="E172">
+        <v>438.025488465979</v>
+      </c>
+      <c r="F172">
+        <v>-960.108338498608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>902.79361700338</v>
+      </c>
+      <c r="E173">
+        <v>1702.98140675906</v>
+      </c>
+      <c r="F173">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>2387.15793898716</v>
+      </c>
+      <c r="E174">
+        <v>1868.39872936719</v>
+      </c>
+      <c r="F174">
+        <v>-1292.40758770082</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>2109.0173670332</v>
+      </c>
+      <c r="E175">
+        <v>410.053378814955</v>
+      </c>
+      <c r="F175">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>481.887094349549</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>-1067.12404725845</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>183.512421924545</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1">
+        <v>9</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>34.5536265627866</v>
+      </c>
+      <c r="F178">
+        <v>-86.7911279240184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1">
+        <v>10</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>307.314078544321</v>
+      </c>
+      <c r="F179">
+        <v>-465.937720387445</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>209.304008302361</v>
+      </c>
+      <c r="E180">
+        <v>443.990747453734</v>
+      </c>
+      <c r="F180">
+        <v>-785.268692356125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="1">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>300.801028415339</v>
+      </c>
+      <c r="E181">
+        <v>194.685163234646</v>
+      </c>
+      <c r="F181">
+        <v>-560.171174970186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>247.39234946252</v>
+      </c>
+      <c r="E182">
+        <v>116.655838387647</v>
+      </c>
+      <c r="F182">
+        <v>-787.671913641733</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1">
+        <v>14</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>227.981484048999</v>
+      </c>
+      <c r="E183">
+        <v>213.235777542463</v>
+      </c>
+      <c r="F183">
+        <v>-957.406303914188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1">
+        <v>15</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>349.487537156713</v>
+      </c>
+      <c r="E184">
+        <v>431.388708812573</v>
+      </c>
+      <c r="F184">
+        <v>-1103.57302423449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1">
+        <v>16</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>395.546315966591</v>
+      </c>
+      <c r="E185">
+        <v>647.764704662105</v>
+      </c>
+      <c r="F185">
+        <v>-1127.39237630554</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1">
+        <v>17</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>640.270983280762</v>
+      </c>
+      <c r="E186">
+        <v>-51.4548910712729</v>
+      </c>
+      <c r="F186">
+        <v>-589.618885984555</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1">
+        <v>18</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>-397.085079692634</v>
+      </c>
+      <c r="E187">
+        <v>927.015941168346</v>
+      </c>
+      <c r="F187">
+        <v>-965.329151018441</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1">
+        <v>19</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>-933.060055700422</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1">
+        <v>20</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>-1655.22978595295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1">
+        <v>21</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>321.330843991679</v>
+      </c>
+      <c r="E190">
+        <v>936.088458782288</v>
+      </c>
+      <c r="F190">
+        <v>-1265.76527171234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1">
+        <v>22</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>945.986717642793</v>
+      </c>
+      <c r="E191">
+        <v>1150.59052107709</v>
+      </c>
+      <c r="F191">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1">
+        <v>23</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>898.644174146796</v>
+      </c>
+      <c r="E192">
+        <v>483.529354980003</v>
+      </c>
+      <c r="F192">
+        <v>-1001.70601081107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1">
+        <v>24</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>865.618303459046</v>
+      </c>
+      <c r="E193">
+        <v>401.129821313224</v>
+      </c>
+      <c r="F193">
+        <v>-1527.65869579279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1">
+        <v>25</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>532.163661172191</v>
+      </c>
+      <c r="F194">
+        <v>-1063.98721965939</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1">
+        <v>26</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>219.843611631576</v>
+      </c>
+      <c r="E195">
+        <v>309.295245753015</v>
+      </c>
+      <c r="F195">
+        <v>-683.70210708842</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1">
+        <v>27</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>367.964931006313</v>
+      </c>
+      <c r="E196">
+        <v>456.429694265849</v>
+      </c>
+      <c r="F196">
+        <v>-1013.73849757847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1">
+        <v>28</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>831.055283261473</v>
+      </c>
+      <c r="E197">
+        <v>1556.69009651628</v>
+      </c>
+      <c r="F197">
+        <v>-1837.92692888904</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1">
+        <v>29</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>2249.36319658975</v>
+      </c>
+      <c r="E198">
+        <v>1742.63808507093</v>
+      </c>
+      <c r="F198">
+        <v>-1220.18606975849</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1">
+        <v>30</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>2132.63564020238</v>
+      </c>
+      <c r="E199">
+        <v>407.411368332081</v>
+      </c>
+      <c r="F199">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1">
+        <v>31</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200">
+        <v>716.957904426075</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>-1561.78430472938</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1">
+        <v>32</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>-285.150598984422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1">
+        <v>33</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>194.658592820511</v>
+      </c>
+      <c r="F202">
+        <v>-491.912276387291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
+      <c r="B203" s="1">
+        <v>34</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>530.066657920795</v>
+      </c>
+      <c r="F203">
+        <v>-806.212025979259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1">
+        <v>35</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>245.439040560687</v>
+      </c>
+      <c r="E204">
+        <v>521.468754956794</v>
+      </c>
+      <c r="F204">
+        <v>-914.104902684377</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>2</v>
+      </c>
+      <c r="B205" s="1">
+        <v>36</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>369.598421904173</v>
+      </c>
+      <c r="E205">
+        <v>242.308678762338</v>
+      </c>
+      <c r="F205">
+        <v>-688.92081779818</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1">
+        <v>37</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>141.905545529928</v>
+      </c>
+      <c r="E206">
+        <v>68.2865480821728</v>
+      </c>
+      <c r="F206">
+        <v>-456.519425601391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1">
+        <v>38</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>34.6904996412708</v>
+      </c>
+      <c r="E207">
+        <v>32.6822695301863</v>
+      </c>
+      <c r="F207">
+        <v>-147.137048243934</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1">
+        <v>39</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>-54.7987458033754</v>
+      </c>
+      <c r="E208">
+        <v>-66.8859509628267</v>
+      </c>
+      <c r="F208">
+        <v>172.57042875282</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1">
+        <v>40</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>-73.8513470747075</v>
+      </c>
+      <c r="E209">
+        <v>-115.610104814915</v>
+      </c>
+      <c r="F209">
+        <v>208.706993287041</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>2</v>
+      </c>
+      <c r="B210" s="1">
+        <v>41</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>-359.829046420135</v>
+      </c>
+      <c r="E210">
+        <v>27.1912134886185</v>
+      </c>
+      <c r="F210">
+        <v>318.791081404673</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1">
+        <v>42</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>-423.797879803239</v>
+      </c>
+      <c r="E211">
+        <v>954.252217632634</v>
+      </c>
+      <c r="F211">
+        <v>-1010.20816865906</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1">
+        <v>43</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>-1010.63134598715</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>-1597.01988572868</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>358.434721964568</v>
+      </c>
+      <c r="E214">
+        <v>1054.76469877902</v>
+      </c>
+      <c r="F214">
+        <v>-1389.9742345647</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1">
+        <v>46</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>932.108515479134</v>
+      </c>
+      <c r="E215">
+        <v>1198.31125591329</v>
+      </c>
+      <c r="F215">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1">
+        <v>47</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>939.486740884679</v>
+      </c>
+      <c r="E216">
+        <v>539.712338910115</v>
+      </c>
+      <c r="F216">
+        <v>-1085.89371098864</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1">
+        <v>48</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>859.037506699199</v>
+      </c>
+      <c r="E217">
+        <v>431.490027959757</v>
+      </c>
+      <c r="F217">
+        <v>-1604.36630579611</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1">
+        <v>49</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>331.051485339077</v>
+      </c>
+      <c r="F218">
+        <v>-820.379855573785</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1">
+        <v>50</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>178.528821653057</v>
+      </c>
+      <c r="E219">
+        <v>230.634502621325</v>
+      </c>
+      <c r="F219">
+        <v>-548.32410011882</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1">
+        <v>51</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>409.154696277987</v>
+      </c>
+      <c r="E220">
+        <v>427.878245612889</v>
+      </c>
+      <c r="F220">
+        <v>-1114.04358091719</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1">
+        <v>52</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221">
+        <v>924.512306609533</v>
+      </c>
+      <c r="E221">
+        <v>1552.79834453439</v>
+      </c>
+      <c r="F221">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1">
+        <v>53</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>2290.03856424101</v>
+      </c>
+      <c r="E222">
+        <v>1575.22251401521</v>
+      </c>
+      <c r="F222">
+        <v>-1192.49451438767</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1">
+        <v>54</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>2377.63697157599</v>
+      </c>
+      <c r="E223">
+        <v>371.516669037489</v>
+      </c>
+      <c r="F223">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1">
+        <v>55</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>285.969980530213</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>-508.559255877248</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1">
+        <v>56</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1">
+        <v>57</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>-315.136321669454</v>
+      </c>
+      <c r="F226">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1">
+        <v>58</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>-1072.32426472426</v>
+      </c>
+      <c r="F227">
+        <v>1614.3460902262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1">
+        <v>59</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>-534.294414909346</v>
+      </c>
+      <c r="E228">
+        <v>-1148.23675684911</v>
+      </c>
+      <c r="F228">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1">
+        <v>60</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>-877.736112743042</v>
+      </c>
+      <c r="E229">
+        <v>-584.094341052696</v>
+      </c>
+      <c r="F229">
+        <v>1639.08857753159</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1">
+        <v>61</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230">
+        <v>-535.824612204877</v>
+      </c>
+      <c r="E230">
+        <v>-259.120864121781</v>
+      </c>
+      <c r="F230">
+        <v>1760.94648488834</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1">
+        <v>62</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>-479.33394256673</v>
+      </c>
+      <c r="E231">
+        <v>-432.402406585156</v>
+      </c>
+      <c r="F231">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1">
+        <v>63</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>-652.478638038687</v>
+      </c>
+      <c r="E232">
+        <v>-747.055223666632</v>
+      </c>
+      <c r="F232">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1">
+        <v>64</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>-730.129930946503</v>
+      </c>
+      <c r="E233">
+        <v>-1038.88866643157</v>
+      </c>
+      <c r="F233">
+        <v>1988.53351734559</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1">
+        <v>65</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234">
+        <v>-659.605099309423</v>
+      </c>
+      <c r="E234">
+        <v>46.4136778170194</v>
+      </c>
+      <c r="F234">
+        <v>546.056127832902</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>325.734295381331</v>
+      </c>
+      <c r="E235">
+        <v>-724.370752518471</v>
+      </c>
+      <c r="F235">
+        <v>778.259995051246</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1">
+        <v>67</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>208.670266794751</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1">
+        <v>68</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>402.102027588746</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1">
+        <v>69</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>-172.756256836018</v>
+      </c>
+      <c r="E238">
+        <v>-478.471568388359</v>
+      </c>
+      <c r="F238">
+        <v>655.675443579775</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1">
+        <v>70</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>-258.718445531436</v>
+      </c>
+      <c r="E239">
+        <v>-321.084678134262</v>
+      </c>
+      <c r="F239">
+        <v>528.542502771034</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="1">
+        <v>71</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240">
+        <v>-174.14525344555</v>
+      </c>
+      <c r="E240">
+        <v>-101.336088502607</v>
+      </c>
+      <c r="F240">
+        <v>196.814339123141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="1">
+        <v>72</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>-180.573854344233</v>
+      </c>
+      <c r="E241">
+        <v>-94.0648950570577</v>
+      </c>
+      <c r="F241">
+        <v>348.505948017138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1">
+        <v>73</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>-71.9806934506935</v>
+      </c>
+      <c r="F242">
+        <v>195.247848607129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>2</v>
+      </c>
+      <c r="B243" s="1">
+        <v>74</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243">
+        <v>103.859241085029</v>
+      </c>
+      <c r="E243">
+        <v>132.302556392997</v>
+      </c>
+      <c r="F243">
+        <v>-322.883217618509</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244" s="1">
+        <v>75</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244">
+        <v>406.384504929218</v>
+      </c>
+      <c r="E244">
+        <v>394.820078432265</v>
+      </c>
+      <c r="F244">
+        <v>-1098.80560467743</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" s="1">
+        <v>76</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>932.967603550696</v>
+      </c>
+      <c r="E245">
+        <v>1504.63095696807</v>
+      </c>
+      <c r="F245">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>2</v>
+      </c>
+      <c r="B246" s="1">
+        <v>77</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>2147.69279015992</v>
+      </c>
+      <c r="E246">
+        <v>1414.90670390628</v>
+      </c>
+      <c r="F246">
+        <v>-1104.28355047806</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>2</v>
+      </c>
+      <c r="B247" s="1">
+        <v>78</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247">
+        <v>2460.07072175788</v>
+      </c>
+      <c r="E247">
+        <v>346.510660668654</v>
+      </c>
+      <c r="F247">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="1">
+        <v>79</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>37.8664870256366</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>-60.7081306916207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1">
+        <v>80</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>749.999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>2</v>
+      </c>
+      <c r="B250" s="1">
+        <v>81</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>-346.398202604063</v>
+      </c>
+      <c r="F250">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>2</v>
+      </c>
+      <c r="B251" s="1">
+        <v>82</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>-1188.91942724542</v>
+      </c>
+      <c r="F251">
+        <v>1691.54171000646</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="1">
+        <v>83</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>-507.435138201788</v>
+      </c>
+      <c r="E252">
+        <v>-1143.98260790632</v>
+      </c>
+      <c r="F252">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>2</v>
+      </c>
+      <c r="B253" s="1">
+        <v>84</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>-1032.17125557207</v>
+      </c>
+      <c r="E253">
+        <v>-682.327481988629</v>
+      </c>
+      <c r="F253">
+        <v>1986.3287275398</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" s="1">
+        <v>85</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254">
+        <v>-614.098878160947</v>
+      </c>
+      <c r="E254">
+        <v>-285.880823913985</v>
+      </c>
+      <c r="F254">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>2</v>
+      </c>
+      <c r="B255" s="1">
+        <v>86</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>-493.445711871567</v>
+      </c>
+      <c r="E255">
+        <v>-426.188034188034</v>
+      </c>
+      <c r="F255">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="1">
+        <v>87</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>-661.992619926199</v>
+      </c>
+      <c r="E256">
+        <v>-718.952361576848</v>
+      </c>
+      <c r="F256">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1">
+        <v>88</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>-662.502572406395</v>
+      </c>
+      <c r="E257">
+        <v>-895.972148699401</v>
+      </c>
+      <c r="F257">
+        <v>1736.47182048643</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>2</v>
+      </c>
+      <c r="B258" s="1">
+        <v>89</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258">
+        <v>-615.11979514521</v>
+      </c>
+      <c r="E258">
+        <v>43.8859017393374</v>
+      </c>
+      <c r="F258">
+        <v>497.964137034668</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="B259" s="1">
+        <v>90</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259">
+        <v>316.831674682709</v>
+      </c>
+      <c r="E259">
+        <v>-765.95241840042</v>
+      </c>
+      <c r="F259">
+        <v>751.742777717252</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="1">
+        <v>91</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>258.186403309833</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>2</v>
+      </c>
+      <c r="B261" s="1">
+        <v>92</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>63.0720880374258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>2</v>
+      </c>
+      <c r="B262" s="1">
+        <v>93</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>-1.74277771725167</v>
+      </c>
+      <c r="E262">
+        <v>-5.08075584456446</v>
+      </c>
+      <c r="F262">
+        <v>7.26529297347702</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>2</v>
+      </c>
+      <c r="B263" s="1">
+        <v>94</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263">
+        <v>353.25778741698</v>
+      </c>
+      <c r="E263">
+        <v>392.750413077454</v>
+      </c>
+      <c r="F263">
+        <v>-721.732652076245</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264" s="1">
+        <v>95</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>375.306455195381</v>
+      </c>
+      <c r="E264">
+        <v>188.546852165198</v>
+      </c>
+      <c r="F264">
+        <v>-385.992016366774</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>2</v>
+      </c>
+      <c r="B265" s="1">
+        <v>96</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265">
+        <v>178.324425788471</v>
+      </c>
+      <c r="E265">
+        <v>53.3934363818429</v>
+      </c>
+      <c r="F265">
+        <v>-299.635261329995</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>2</v>
+      </c>
+      <c r="B266" s="1">
+        <v>97</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>-237.342572822899</v>
+      </c>
+      <c r="F266">
+        <v>362.354918972772</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>2</v>
+      </c>
+      <c r="B267" s="1">
+        <v>98</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267">
+        <v>20.3820203096668</v>
+      </c>
+      <c r="E267">
+        <v>26.123001243139</v>
+      </c>
+      <c r="F267">
+        <v>-58.5378045518146</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>2</v>
+      </c>
+      <c r="B268" s="1">
+        <v>99</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>284.77013181523</v>
+      </c>
+      <c r="E268">
+        <v>366.707970754464</v>
+      </c>
+      <c r="F268">
+        <v>-770.751880647983</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="B269" s="1">
+        <v>100</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269">
+        <v>799.868752499185</v>
+      </c>
+      <c r="E269">
+        <v>1839.26869021536</v>
+      </c>
+      <c r="F269">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>2</v>
+      </c>
+      <c r="B270" s="1">
+        <v>101</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270">
+        <v>2095.42244714921</v>
+      </c>
+      <c r="E270">
+        <v>1649.73635195433</v>
+      </c>
+      <c r="F270">
+        <v>-1214.21331805469</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="1">
+        <v>102</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>1997.59927384246</v>
+      </c>
+      <c r="E271">
+        <v>512.627341946173</v>
+      </c>
+      <c r="F271">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272" s="1">
+        <v>103</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272">
+        <v>256.454192107903</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>-746.157509953387</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="1">
+        <v>104</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>-68.1680096530272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="1">
+        <v>105</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>131.28409951514</v>
+      </c>
+      <c r="F274">
+        <v>-574.574528332798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="1">
+        <v>106</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>896.629857232661</v>
+      </c>
+      <c r="F275">
+        <v>-1848.87968021655</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="1">
+        <v>107</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276">
+        <v>662.823342390145</v>
+      </c>
+      <c r="E276">
+        <v>1712.46929100815</v>
+      </c>
+      <c r="F276">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="1">
+        <v>108</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277">
+        <v>758.707478454213</v>
+      </c>
+      <c r="E277">
+        <v>372.558688656061</v>
+      </c>
+      <c r="F277">
+        <v>-1809.45053863455</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="1">
+        <v>109</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278">
+        <v>565.787570172538</v>
+      </c>
+      <c r="E278">
+        <v>261.679870010487</v>
+      </c>
+      <c r="F278">
+        <v>-1776.22982647983</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1">
+        <v>110</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279">
+        <v>261.145061273165</v>
+      </c>
+      <c r="E279">
+        <v>480.29283616707</v>
+      </c>
+      <c r="F279">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="1">
+        <v>111</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280">
+        <v>678.516535072122</v>
+      </c>
+      <c r="E280">
+        <v>659.212483740207</v>
+      </c>
+      <c r="F280">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="1">
+        <v>112</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281">
+        <v>652.551891160339</v>
+      </c>
+      <c r="E281">
+        <v>1245.88057079089</v>
+      </c>
+      <c r="F281">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="1">
+        <v>113</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>808.66882127119</v>
+      </c>
+      <c r="E282">
+        <v>-69.3655635131802</v>
+      </c>
+      <c r="F282">
+        <v>-752.45727970189</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="1">
+        <v>114</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <v>-389.358159846007</v>
+      </c>
+      <c r="E283">
+        <v>888.276122821437</v>
+      </c>
+      <c r="F283">
+        <v>-1262.73549655388</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="1">
+        <v>115</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>-971.298072407019</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="1">
+        <v>116</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>-1743.99348538242</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>2</v>
+      </c>
+      <c r="B286" s="1">
+        <v>117</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286">
+        <v>512.735496553884</v>
+      </c>
+      <c r="E286">
+        <v>988.30606979944</v>
+      </c>
+      <c r="F286">
+        <v>-1565.38089101941</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="1">
+        <v>118</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>1156.876327984</v>
+      </c>
+      <c r="E287">
+        <v>1336.94071508707</v>
+      </c>
+      <c r="F287">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="1">
+        <v>119</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>596.160498766148</v>
+      </c>
+      <c r="E288">
+        <v>619.311418513415</v>
+      </c>
+      <c r="F288">
+        <v>-1285.86686737918</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="1">
+        <v>120</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289">
+        <v>827.368781264732</v>
+      </c>
+      <c r="E289">
+        <v>328.483015477655</v>
+      </c>
+      <c r="F289">
+        <v>-1738.00772484059</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="1">
+        <v>121</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>250.932001852837</v>
+      </c>
+      <c r="F290">
+        <v>-389.637132290971</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="1">
+        <v>122</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291">
+        <v>88.0108065358593</v>
+      </c>
+      <c r="E291">
+        <v>111.060232920284</v>
+      </c>
+      <c r="F291">
+        <v>-252.21028452691</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="1">
+        <v>123</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292">
+        <v>305.870289813757</v>
+      </c>
+      <c r="E292">
+        <v>388.624048288937</v>
+      </c>
+      <c r="F292">
+        <v>-815.723266756809</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="1">
+        <v>124</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293">
+        <v>799.64313147046</v>
+      </c>
+      <c r="E293">
+        <v>1835.57462668606</v>
+      </c>
+      <c r="F293">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="1">
+        <v>125</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294">
+        <v>2392.24958098778</v>
+      </c>
+      <c r="E294">
+        <v>1880.98538101342</v>
+      </c>
+      <c r="F294">
+        <v>-1378.77672955974</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="1">
+        <v>126</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>1997.66639681556</v>
+      </c>
+      <c r="E295">
+        <v>511.287935025309</v>
+      </c>
+      <c r="F295">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="1">
+        <v>127</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>444.737512784734</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>-1287.45090012559</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="1">
+        <v>128</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>-180.677036201423</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="1">
+        <v>129</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>168.675689236644</v>
+      </c>
+      <c r="F298">
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1">
+        <v>130</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>905.780461293047</v>
+      </c>
+      <c r="F299">
+        <v>-1878.4371585999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="1">
+        <v>131</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300">
+        <v>670.202740310935</v>
+      </c>
+      <c r="E300">
+        <v>1726.85451343088</v>
+      </c>
+      <c r="F300">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="1">
+        <v>132</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301">
+        <v>761.329030189407</v>
+      </c>
+      <c r="E301">
+        <v>375.274259741584</v>
+      </c>
+      <c r="F301">
+        <v>-1818.26936093667</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>2</v>
+      </c>
+      <c r="B302" s="1">
+        <v>133</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>631.198018429443</v>
+      </c>
+      <c r="E302">
+        <v>294.766100914672</v>
+      </c>
+      <c r="F302">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="1">
+        <v>134</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>261.039021470547</v>
+      </c>
+      <c r="E303">
+        <v>488.989599246874</v>
+      </c>
+      <c r="F303">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1">
+        <v>135</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>666.449003246619</v>
+      </c>
+      <c r="E304">
+        <v>664.982761577537</v>
+      </c>
+      <c r="F304">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="1">
+        <v>136</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>646.889480143341</v>
+      </c>
+      <c r="E305">
+        <v>1248.14432281184</v>
+      </c>
+      <c r="F305">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="1">
+        <v>137</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306">
+        <v>940.549401896986</v>
+      </c>
+      <c r="E306">
+        <v>-82.7369107479985</v>
+      </c>
+      <c r="F306">
+        <v>-878.772040186557</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="1">
+        <v>138</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>-391.319084125163</v>
+      </c>
+      <c r="E307">
+        <v>913.34122588888</v>
+      </c>
+      <c r="F307">
+        <v>-1279.26994014127</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="1">
+        <v>139</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>-954.746646586859</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="1">
+        <v>140</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>-1748.24744739765</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="1">
+        <v>141</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>529.269940141272</v>
+      </c>
+      <c r="E310">
+        <v>1045.071345704</v>
+      </c>
+      <c r="F310">
+        <v>-1644.03295692485</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="1">
+        <v>142</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311">
+        <v>1144.94672056568</v>
+      </c>
+      <c r="E311">
+        <v>1348.38972365924</v>
+      </c>
+      <c r="F311">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="1">
+        <v>143</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312">
+        <v>553.131889655763</v>
+      </c>
+      <c r="E312">
+        <v>582.089454314581</v>
+      </c>
+      <c r="F312">
+        <v>-1206.73319896099</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="1">
+        <v>144</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313">
+        <v>818.153679790192</v>
+      </c>
+      <c r="E313">
+        <v>491.342578429905</v>
+      </c>
+      <c r="F313">
+        <v>-1734.83172717032</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="1">
+        <v>145</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>573.154979333645</v>
+      </c>
+      <c r="F314">
+        <v>-1119.07788668653</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="1">
+        <v>146</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315">
+        <v>221.852326248658</v>
+      </c>
+      <c r="E315">
+        <v>316.467431841947</v>
+      </c>
+      <c r="F315">
+        <v>-694.265009107929</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="1">
+        <v>147</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>352.545157346524</v>
+      </c>
+      <c r="E316">
+        <v>445.080291268377</v>
+      </c>
+      <c r="F316">
+        <v>-969.066489657163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="1">
+        <v>148</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>825.686262320176</v>
+      </c>
+      <c r="E317">
+        <v>1566.15919524745</v>
+      </c>
+      <c r="F317">
+        <v>-1840.8340554171</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="1">
+        <v>149</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>2265.048622775</v>
+      </c>
+      <c r="E318">
+        <v>1775.93955171802</v>
+      </c>
+      <c r="F318">
+        <v>-1223.42973840254</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="1">
+        <v>150</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>2096.19876435093</v>
+      </c>
+      <c r="E319">
+        <v>408.307448807993</v>
+      </c>
+      <c r="F319">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="1">
+        <v>151</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>683.809985606842</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>-1513.69750443415</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="1">
+        <v>152</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>-307.021102795357</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="1">
+        <v>153</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>172.594128230662</v>
+      </c>
+      <c r="F322">
+        <v>-432.132557825317</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="1">
+        <v>154</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>726.078419203343</v>
+      </c>
+      <c r="F323">
+        <v>-1073.75682232499</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="1">
+        <v>155</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324">
+        <v>319.153555341319</v>
+      </c>
+      <c r="E324">
+        <v>698.399825577739</v>
+      </c>
+      <c r="F324">
+        <v>-1206.97434652205</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="1">
+        <v>156</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>479.01547279463</v>
+      </c>
+      <c r="E325">
+        <v>318.860136799118</v>
+      </c>
+      <c r="F325">
+        <v>-913.397535482048</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="1">
+        <v>157</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>239.041630689317</v>
+      </c>
+      <c r="E326">
+        <v>115.690626531834</v>
+      </c>
+      <c r="F326">
+        <v>-780.341143830928</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="1">
+        <v>158</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>221.722443842476</v>
+      </c>
+      <c r="E327">
+        <v>207.732308762549</v>
+      </c>
+      <c r="F327">
+        <v>-932.092279944251</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="1">
+        <v>159</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>425.809920908448</v>
+      </c>
+      <c r="E328">
+        <v>518.893862674387</v>
+      </c>
+      <c r="F328">
+        <v>-1345.44671962543</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="1">
+        <v>160</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>695.855861036558</v>
+      </c>
+      <c r="E329">
+        <v>1100.90940376476</v>
+      </c>
+      <c r="F329">
+        <v>-1956.77716448754</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="1">
+        <v>161</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>1282.51207219001</v>
+      </c>
+      <c r="E330">
+        <v>-100.494272920783</v>
+      </c>
+      <c r="F330">
+        <v>-1152.62264772096</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="1">
+        <v>162</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>-513.086814874015</v>
+      </c>
+      <c r="E331">
+        <v>1188.15814207796</v>
+      </c>
+      <c r="F331">
+        <v>-1240.42927637424</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="1">
+        <v>163</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>-885.601640054728</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="1">
+        <v>164</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>-1782.18785670707</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="1">
+        <v>165</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334">
+        <v>490.429276374237</v>
+      </c>
+      <c r="E334">
+        <v>1416.70521597772</v>
+      </c>
+      <c r="F334">
+        <v>-1923.44759753781</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="1">
+        <v>166</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335">
+        <v>947.69160955254</v>
+      </c>
+      <c r="E335">
+        <v>1128.13241649279</v>
+      </c>
+      <c r="F335">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="1">
+        <v>167</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>886.987394598097</v>
+      </c>
+      <c r="E336">
+        <v>468.827681893002</v>
+      </c>
+      <c r="F336">
+        <v>-970.005069773884</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="1">
+        <v>168</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337">
+        <v>880.871641311015</v>
+      </c>
+      <c r="E337">
+        <v>397.428410894069</v>
+      </c>
+      <c r="F337">
+        <v>-1525.31044550978</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>3</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338">
+        <v>-190.644784013429</v>
+      </c>
+      <c r="E338">
+        <v>-195.155070391647</v>
+      </c>
+      <c r="F338">
+        <v>1030.16015595653</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>3</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339">
+        <v>-859.806249821395</v>
+      </c>
+      <c r="E339">
+        <v>-632.858393758312</v>
+      </c>
+      <c r="F339">
+        <v>1805.77645421584</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>3</v>
+      </c>
+      <c r="B340" s="1">
+        <v>3</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340">
+        <v>-873.313344770639</v>
+      </c>
+      <c r="E340">
+        <v>-61.7146796829011</v>
+      </c>
+      <c r="F340">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>3</v>
+      </c>
+      <c r="B341" s="1">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341">
+        <v>-390.360599318856</v>
+      </c>
+      <c r="E341">
+        <v>-631.212750945128</v>
+      </c>
+      <c r="F341">
+        <v>1058.51290637764</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>3</v>
+      </c>
+      <c r="B342" s="1">
+        <v>5</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342">
+        <v>359.209789499202</v>
+      </c>
+      <c r="E342">
+        <v>408.865860322934</v>
+      </c>
+      <c r="F342">
+        <v>-158.666535653652</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>3</v>
+      </c>
+      <c r="B343" s="1">
+        <v>6</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343">
+        <v>-1699.43846739524</v>
+      </c>
+      <c r="E343">
+        <v>-2259.12079305561</v>
+      </c>
+      <c r="F343">
+        <v>998.488508333603</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>3</v>
+      </c>
+      <c r="B344" s="1">
+        <v>7</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>-254.029454846615</v>
+      </c>
+      <c r="E344">
+        <v>-853.996803838912</v>
+      </c>
+      <c r="F344">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>3</v>
+      </c>
+      <c r="B345" s="1">
+        <v>8</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345">
+        <v>-3.31179865311502</v>
+      </c>
+      <c r="E345">
+        <v>138.113831393681</v>
+      </c>
+      <c r="F345">
+        <v>-434.085737617472</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>3</v>
+      </c>
+      <c r="B346" s="1">
+        <v>9</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>343.485116460571</v>
+      </c>
+      <c r="F346">
+        <v>-689.144038794246</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>3</v>
+      </c>
+      <c r="B347" s="1">
+        <v>10</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>1071.59256159761</v>
+      </c>
+      <c r="F347">
+        <v>-1337.43911172693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>3</v>
+      </c>
+      <c r="B348" s="1">
+        <v>11</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>532.57271144227</v>
+      </c>
+      <c r="E348">
+        <v>974.200563450737</v>
+      </c>
+      <c r="F348">
+        <v>-1706.46002381218</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>3</v>
+      </c>
+      <c r="B349" s="1">
+        <v>12</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>795.854782427141</v>
+      </c>
+      <c r="E349">
+        <v>710.040495678932</v>
+      </c>
+      <c r="F349">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>3</v>
+      </c>
+      <c r="B350" s="1">
+        <v>13</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>539.934272381405</v>
+      </c>
+      <c r="E350">
+        <v>322.462400378719</v>
+      </c>
+      <c r="F350">
+        <v>-1079.33253066514</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>3</v>
+      </c>
+      <c r="B351" s="1">
+        <v>14</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351">
+        <v>-140.819681334602</v>
+      </c>
+      <c r="E351">
+        <v>-106.615693650034</v>
+      </c>
+      <c r="F351">
+        <v>270.26108028089</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>3</v>
+      </c>
+      <c r="B352" s="1">
+        <v>15</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>-987.659147250015</v>
+      </c>
+      <c r="E352">
+        <v>-617.501615048256</v>
+      </c>
+      <c r="F352">
+        <v>1393.59093649688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>3</v>
+      </c>
+      <c r="B353" s="1">
+        <v>16</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353">
+        <v>-849.127383830886</v>
+      </c>
+      <c r="E353">
+        <v>-802.21102521188</v>
+      </c>
+      <c r="F353">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>3</v>
+      </c>
+      <c r="B354" s="1">
+        <v>17</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>-2145.87421529061</v>
+      </c>
+      <c r="E354">
+        <v>-1966.17804994189</v>
+      </c>
+      <c r="F354">
+        <v>831.115507168339</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>3</v>
+      </c>
+      <c r="B355" s="1">
+        <v>18</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>-78.6729904849881</v>
+      </c>
+      <c r="E355">
+        <v>-172.219110395406</v>
+      </c>
+      <c r="F355">
+        <v>362.13740317589</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>3</v>
+      </c>
+      <c r="B356" s="1">
+        <v>19</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>-33.2641342717696</v>
+      </c>
+      <c r="E356">
+        <v>48.3106228644158</v>
+      </c>
+      <c r="F356">
+        <v>-751.414622616914</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>3</v>
+      </c>
+      <c r="B357" s="1">
+        <v>20</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>175.682759811316</v>
+      </c>
+      <c r="F357">
+        <v>-1119.13063159988</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>3</v>
+      </c>
+      <c r="B358" s="1">
+        <v>21</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>1745.70748449188</v>
+      </c>
+      <c r="E358">
+        <v>798.060457138624</v>
+      </c>
+      <c r="F358">
+        <v>-1912.46293047217</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>3</v>
+      </c>
+      <c r="B359" s="1">
+        <v>22</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359">
+        <v>963.51640473873</v>
+      </c>
+      <c r="E359">
+        <v>2550.53685556342</v>
+      </c>
+      <c r="F359">
+        <v>-1548.26441905932</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>3</v>
+      </c>
+      <c r="B360" s="1">
+        <v>23</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>490.047301426603</v>
+      </c>
+      <c r="E360">
+        <v>538.716684526737</v>
+      </c>
+      <c r="F360">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1">
+        <v>3</v>
+      </c>
+      <c r="B361" s="1">
+        <v>24</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361">
+        <v>275.440024396248</v>
+      </c>
+      <c r="E361">
+        <v>397.67537896026</v>
+      </c>
+      <c r="F361">
+        <v>-1122.6150274058</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>3</v>
+      </c>
+      <c r="B362" s="1">
+        <v>25</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362">
+        <v>-150.566901483249</v>
+      </c>
+      <c r="E362">
+        <v>-156.317208792825</v>
+      </c>
+      <c r="F362">
+        <v>821.543587146377</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>3</v>
+      </c>
+      <c r="B363" s="1">
+        <v>26</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>-635.115197906113</v>
+      </c>
+      <c r="E363">
+        <v>-468.834119641162</v>
+      </c>
+      <c r="F363">
+        <v>1341.3555539501</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>3</v>
+      </c>
+      <c r="B364" s="1">
+        <v>27</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364">
+        <v>-875.66372051345</v>
+      </c>
+      <c r="E364">
+        <v>-61.5846144374935</v>
+      </c>
+      <c r="F364">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>3</v>
+      </c>
+      <c r="B365" s="1">
+        <v>28</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365">
+        <v>-459.722270494763</v>
+      </c>
+      <c r="E365">
+        <v>-742.233078424236</v>
+      </c>
+      <c r="F365">
+        <v>1245.26250437235</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>3</v>
+      </c>
+      <c r="B366" s="1">
+        <v>29</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>145.629180905245</v>
+      </c>
+      <c r="E366">
+        <v>164.75963124418</v>
+      </c>
+      <c r="F366">
+        <v>-64.1679366334051</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>3</v>
+      </c>
+      <c r="B367" s="1">
+        <v>30</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367">
+        <v>-1505.58885350444</v>
+      </c>
+      <c r="E367">
+        <v>-1994.098297416</v>
+      </c>
+      <c r="F367">
+        <v>884.692246717464</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>3</v>
+      </c>
+      <c r="B368" s="1">
+        <v>31</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>-256.403932784448</v>
+      </c>
+      <c r="E368">
+        <v>-866.565374207095</v>
+      </c>
+      <c r="F368">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>3</v>
+      </c>
+      <c r="B369" s="1">
+        <v>32</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369">
+        <v>-1.52568345949916</v>
+      </c>
+      <c r="E369">
+        <v>59.2624371111506</v>
+      </c>
+      <c r="F369">
+        <v>-182.787669355734</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>3</v>
+      </c>
+      <c r="B370" s="1">
+        <v>33</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>326.863697836895</v>
+      </c>
+      <c r="F370">
+        <v>-646.801177478497</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>3</v>
+      </c>
+      <c r="B371" s="1">
+        <v>34</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>1073.08410683999</v>
+      </c>
+      <c r="F371">
+        <v>-1341.81790814516</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>3</v>
+      </c>
+      <c r="B372" s="1">
+        <v>35</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372">
+        <v>545.494387053704</v>
+      </c>
+      <c r="E372">
+        <v>993.926679997378</v>
+      </c>
+      <c r="F372">
+        <v>-1749.03469746134</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>3</v>
+      </c>
+      <c r="B373" s="1">
+        <v>36</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373">
+        <v>800.300942269101</v>
+      </c>
+      <c r="E373">
+        <v>712.201103947506</v>
+      </c>
+      <c r="F373">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>3</v>
+      </c>
+      <c r="B374" s="1">
+        <v>37</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>965.575186133911</v>
+      </c>
+      <c r="E374">
+        <v>581.586783357362</v>
+      </c>
+      <c r="F374">
+        <v>-1936.06525905876</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>3</v>
+      </c>
+      <c r="B375" s="1">
+        <v>38</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375">
+        <v>489.599711621762</v>
+      </c>
+      <c r="E375">
+        <v>376.087971389325</v>
+      </c>
+      <c r="F375">
+        <v>-945.174160062819</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1">
+        <v>3</v>
+      </c>
+      <c r="B376" s="1">
+        <v>39</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376">
+        <v>-160.836446133362</v>
+      </c>
+      <c r="E376">
+        <v>-101.124497195636</v>
+      </c>
+      <c r="F376">
+        <v>228.903622723619</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1">
+        <v>3</v>
+      </c>
+      <c r="B377" s="1">
+        <v>40</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <v>-851.671123211834</v>
+      </c>
+      <c r="E377">
+        <v>-781.915067423715</v>
+      </c>
+      <c r="F377">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1">
+        <v>3</v>
+      </c>
+      <c r="B378" s="1">
+        <v>41</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>-2334.875581236</v>
+      </c>
+      <c r="E378">
+        <v>-2054.36929995137</v>
+      </c>
+      <c r="F378">
+        <v>896.866350205459</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1">
+        <v>3</v>
+      </c>
+      <c r="B379" s="1">
+        <v>42</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>-93.7260937272449</v>
+      </c>
+      <c r="E379">
+        <v>-196.257534562332</v>
+      </c>
+      <c r="F379">
+        <v>419.320968006425</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1">
+        <v>3</v>
+      </c>
+      <c r="B380" s="1">
+        <v>43</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380">
+        <v>-5.46700340901305</v>
+      </c>
+      <c r="E380">
+        <v>7.52216845150576</v>
+      </c>
+      <c r="F380">
+        <v>-118.556542454278</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="1">
+        <v>3</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>12.2752810432617</v>
+      </c>
+      <c r="F381">
+        <v>-79.0332762693197</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1">
+        <v>3</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382">
+        <v>107.615055138651</v>
+      </c>
+      <c r="E382">
+        <v>48.3704634993214</v>
+      </c>
+      <c r="F382">
+        <v>-116.529323795081</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1">
+        <v>3</v>
+      </c>
+      <c r="B383" s="1">
+        <v>46</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383">
+        <v>-223.667516781373</v>
+      </c>
+      <c r="E383">
+        <v>-599.570163075352</v>
+      </c>
+      <c r="F383">
+        <v>357.512467943152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1">
+        <v>3</v>
+      </c>
+      <c r="B384" s="1">
+        <v>47</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384">
+        <v>-171.59460975598</v>
+      </c>
+      <c r="E384">
+        <v>-200.202975300463</v>
+      </c>
+      <c r="F384">
+        <v>709.736550601512</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1">
+        <v>3</v>
+      </c>
+      <c r="B385" s="1">
+        <v>48</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>-53.4331936354413</v>
+      </c>
+      <c r="E385">
+        <v>-86.4897727564271</v>
+      </c>
+      <c r="F385">
+        <v>225.592582218416</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1">
+        <v>3</v>
+      </c>
+      <c r="B386" s="1">
+        <v>49</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386">
+        <v>3.94089411074242</v>
+      </c>
+      <c r="E386">
+        <v>4.46034849445414</v>
+      </c>
+      <c r="F386">
+        <v>-23.2722273586905</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1">
+        <v>3</v>
+      </c>
+      <c r="B387" s="1">
+        <v>50</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387">
+        <v>392.018218789227</v>
+      </c>
+      <c r="E387">
+        <v>287.597974206124</v>
+      </c>
+      <c r="F387">
+        <v>-847.506301167942</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1">
+        <v>3</v>
+      </c>
+      <c r="B388" s="1">
+        <v>51</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388">
+        <v>776.107693180658</v>
+      </c>
+      <c r="E388">
+        <v>50.6059449604771</v>
+      </c>
+      <c r="F388">
+        <v>-1721.00533103709</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1">
+        <v>3</v>
+      </c>
+      <c r="B389" s="1">
+        <v>52</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389">
+        <v>465.865228375906</v>
+      </c>
+      <c r="E389">
+        <v>691.866448006484</v>
+      </c>
+      <c r="F389">
+        <v>-1236.78171693603</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1">
+        <v>3</v>
+      </c>
+      <c r="B390" s="1">
+        <v>53</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>2539.33297230014</v>
+      </c>
+      <c r="E390">
+        <v>2431.13936652321</v>
+      </c>
+      <c r="F390">
+        <v>-1067.58022834551</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1">
+        <v>3</v>
+      </c>
+      <c r="B391" s="1">
+        <v>54</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>1844.02301998365</v>
+      </c>
+      <c r="E391">
+        <v>2225.00472838743</v>
+      </c>
+      <c r="F391">
+        <v>-986.151340719394</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1">
+        <v>3</v>
+      </c>
+      <c r="B392" s="1">
+        <v>55</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392">
+        <v>314.132928475394</v>
+      </c>
+      <c r="E392">
+        <v>1080.39632765466</v>
+      </c>
+      <c r="F392">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1">
+        <v>3</v>
+      </c>
+      <c r="B393" s="1">
+        <v>56</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393">
+        <v>17.9960935413912</v>
+      </c>
+      <c r="E393">
+        <v>-281.718968245144</v>
+      </c>
+      <c r="F393">
+        <v>588.820962873529</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1">
+        <v>3</v>
+      </c>
+      <c r="B394" s="1">
+        <v>57</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>-460.081553234027</v>
+      </c>
+      <c r="F394">
+        <v>670.729394638341</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1">
+        <v>3</v>
+      </c>
+      <c r="B395" s="1">
+        <v>58</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>-1156.91526861549</v>
+      </c>
+      <c r="F395">
+        <v>1284.07445844064</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="1">
+        <v>3</v>
+      </c>
+      <c r="B396" s="1">
+        <v>59</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396">
+        <v>-473.667950298331</v>
+      </c>
+      <c r="E396">
+        <v>-988.194389304162</v>
+      </c>
+      <c r="F396">
+        <v>1687.16001014809</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1">
+        <v>3</v>
+      </c>
+      <c r="B397" s="1">
+        <v>60</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397">
+        <v>-781.670111358214</v>
+      </c>
+      <c r="E397">
+        <v>-728.83403366575</v>
+      </c>
+      <c r="F397">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="1">
+        <v>3</v>
+      </c>
+      <c r="B398" s="1">
+        <v>61</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398">
+        <v>-974.698052682719</v>
+      </c>
+      <c r="E398">
+        <v>-618.109118982018</v>
+      </c>
+      <c r="F398">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1">
+        <v>3</v>
+      </c>
+      <c r="B399" s="1">
+        <v>62</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399">
+        <v>-807.136076336001</v>
+      </c>
+      <c r="E399">
+        <v>-624.016001399572</v>
+      </c>
+      <c r="F399">
+        <v>1608.0850323357</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1">
+        <v>3</v>
+      </c>
+      <c r="B400" s="1">
+        <v>63</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400">
+        <v>-187.978719956971</v>
+      </c>
+      <c r="E400">
+        <v>-111.233296388806</v>
+      </c>
+      <c r="F400">
+        <v>260.907160888455</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="1">
+        <v>3</v>
+      </c>
+      <c r="B401" s="1">
+        <v>64</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401">
+        <v>882.524605612942</v>
+      </c>
+      <c r="E401">
+        <v>698.502019091458</v>
+      </c>
+      <c r="F401">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="1">
+        <v>3</v>
+      </c>
+      <c r="B402" s="1">
+        <v>65</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402">
+        <v>2827.71467492749</v>
+      </c>
+      <c r="E402">
+        <v>2089.6330033732</v>
+      </c>
+      <c r="F402">
+        <v>-1011.22143365094</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="1">
+        <v>3</v>
+      </c>
+      <c r="B403" s="1">
+        <v>66</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403">
+        <v>369.248730237556</v>
+      </c>
+      <c r="E403">
+        <v>675.22470284765</v>
+      </c>
+      <c r="F403">
+        <v>-1467.4401957937</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="1">
+        <v>3</v>
+      </c>
+      <c r="B404" s="1">
+        <v>67</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>-64.7814377576711</v>
+      </c>
+      <c r="E404">
+        <v>68.9487477480026</v>
+      </c>
+      <c r="F404">
+        <v>-1118.35072293566</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1">
+        <v>3</v>
+      </c>
+      <c r="B405" s="1">
+        <v>68</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>123.13145720553</v>
+      </c>
+      <c r="F405">
+        <v>-799.938992803705</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="1">
+        <v>3</v>
+      </c>
+      <c r="B406" s="1">
+        <v>69</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406">
+        <v>-535.632885716308</v>
+      </c>
+      <c r="E406">
+        <v>-232.266299506339</v>
+      </c>
+      <c r="F406">
+        <v>570.411247351443</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="1">
+        <v>3</v>
+      </c>
+      <c r="B407" s="1">
+        <v>70</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407">
+        <v>-621.022555834722</v>
+      </c>
+      <c r="E407">
+        <v>-1577.44465486628</v>
+      </c>
+      <c r="F407">
+        <v>973.752863871576</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="1">
+        <v>3</v>
+      </c>
+      <c r="B408" s="1">
+        <v>71</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408">
+        <v>-500.311365876969</v>
+      </c>
+      <c r="E408">
+        <v>-564.300454617859</v>
+      </c>
+      <c r="F408">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="1">
+        <v>3</v>
+      </c>
+      <c r="B409" s="1">
+        <v>72</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409">
+        <v>-405.339894576759</v>
+      </c>
+      <c r="E409">
+        <v>-645.60318793335</v>
+      </c>
+      <c r="F409">
+        <v>1649.59146855768</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="1">
+        <v>3</v>
+      </c>
+      <c r="B410" s="1">
+        <v>73</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410">
+        <v>-168.231108462827</v>
+      </c>
+      <c r="E410">
+        <v>-195.306016743629</v>
+      </c>
+      <c r="F410">
+        <v>1014.142108328</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="1">
+        <v>3</v>
+      </c>
+      <c r="B411" s="1">
+        <v>74</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411">
+        <v>175.026518921339</v>
+      </c>
+      <c r="E411">
+        <v>130.206119920368</v>
+      </c>
+      <c r="F411">
+        <v>-379.521837987094</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="1">
+        <v>3</v>
+      </c>
+      <c r="B412" s="1">
+        <v>75</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412">
+        <v>634.984893815588</v>
+      </c>
+      <c r="E412">
+        <v>41.3174821204026</v>
+      </c>
+      <c r="F412">
+        <v>-1423.55863749139</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="1">
+        <v>3</v>
+      </c>
+      <c r="B413" s="1">
+        <v>76</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413">
+        <v>325.845411433776</v>
+      </c>
+      <c r="E413">
+        <v>475.894354858515</v>
+      </c>
+      <c r="F413">
+        <v>-861.559823343058</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1">
+        <v>3</v>
+      </c>
+      <c r="B414" s="1">
+        <v>77</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414">
+        <v>1942.55595271114</v>
+      </c>
+      <c r="E414">
+        <v>1810.42684193446</v>
+      </c>
+      <c r="F414">
+        <v>-809.863893633658</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="1">
+        <v>3</v>
+      </c>
+      <c r="B415" s="1">
+        <v>78</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415">
+        <v>2357.84809801056</v>
+      </c>
+      <c r="E415">
+        <v>2823.98789103862</v>
+      </c>
+      <c r="F415">
+        <v>-1239.70427116567</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="1">
+        <v>3</v>
+      </c>
+      <c r="B416" s="1">
+        <v>79</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416">
+        <v>323.86687046706</v>
+      </c>
+      <c r="E416">
+        <v>1110.67675988769</v>
+      </c>
+      <c r="F416">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="1">
+        <v>3</v>
+      </c>
+      <c r="B417" s="1">
+        <v>80</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417">
+        <v>21.8572086536053</v>
+      </c>
+      <c r="E417">
+        <v>-305.755647898133</v>
+      </c>
+      <c r="F417">
+        <v>596.82657410623</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="1">
+        <v>3</v>
+      </c>
+      <c r="B418" s="1">
+        <v>81</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>-438.043071375966</v>
+      </c>
+      <c r="F418">
+        <v>579.047131948189</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="1">
+        <v>3</v>
+      </c>
+      <c r="B419" s="1">
+        <v>82</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>-529.53808948899</v>
+      </c>
+      <c r="F419">
+        <v>551.400529733098</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="1">
+        <v>3</v>
+      </c>
+      <c r="B420" s="1">
+        <v>83</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420">
+        <v>-247.618285754073</v>
+      </c>
+      <c r="E420">
+        <v>-560.909174933133</v>
+      </c>
+      <c r="F420">
+        <v>920.835610711389</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="1">
+        <v>3</v>
+      </c>
+      <c r="B421" s="1">
+        <v>84</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421">
+        <v>-752.365000741953</v>
+      </c>
+      <c r="E421">
+        <v>-736.647738406036</v>
+      </c>
+      <c r="F421">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="1">
+        <v>3</v>
+      </c>
+      <c r="B422" s="1">
+        <v>85</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422">
+        <v>-953.9963636349</v>
+      </c>
+      <c r="E422">
+        <v>-600.177374915329</v>
+      </c>
+      <c r="F422">
+        <v>1978.50809789599</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="1">
+        <v>3</v>
+      </c>
+      <c r="B423" s="1">
+        <v>86</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423">
+        <v>-772.345341380382</v>
+      </c>
+      <c r="E423">
+        <v>-575.196978098842</v>
+      </c>
+      <c r="F423">
+        <v>1512.49999216036</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="1">
+        <v>3</v>
+      </c>
+      <c r="B424" s="1">
+        <v>87</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424">
+        <v>-163.125897763468</v>
+      </c>
+      <c r="E424">
+        <v>-93.5515449381037</v>
+      </c>
+      <c r="F424">
+        <v>221.88846403865</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="1">
+        <v>3</v>
+      </c>
+      <c r="B425" s="1">
+        <v>88</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425">
+        <v>892.399650283945</v>
+      </c>
+      <c r="E425">
+        <v>676.627072584011</v>
+      </c>
+      <c r="F425">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1">
+        <v>3</v>
+      </c>
+      <c r="B426" s="1">
+        <v>89</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426">
+        <v>2880.42593502757</v>
+      </c>
+      <c r="E426">
+        <v>2070.25870509727</v>
+      </c>
+      <c r="F426">
+        <v>-1002.58430644022</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="1">
+        <v>3</v>
+      </c>
+      <c r="B427" s="1">
+        <v>90</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427">
+        <v>348.700436966511</v>
+      </c>
+      <c r="E427">
+        <v>638.698491615856</v>
+      </c>
+      <c r="F427">
+        <v>-1364.17966747858</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="1">
+        <v>3</v>
+      </c>
+      <c r="B428" s="1">
+        <v>91</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428">
+        <v>-29.64590518717</v>
+      </c>
+      <c r="E428">
+        <v>31.0906439145873</v>
+      </c>
+      <c r="F428">
+        <v>-477.425501346963</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="1">
+        <v>3</v>
+      </c>
+      <c r="B429" s="1">
+        <v>92</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>98.8263618327087</v>
+      </c>
+      <c r="F429">
+        <v>-623.752955116564</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="1">
+        <v>3</v>
+      </c>
+      <c r="B430" s="1">
+        <v>93</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430">
+        <v>-600.897364716529</v>
+      </c>
+      <c r="E430">
+        <v>-274.640754067675</v>
+      </c>
+      <c r="F430">
+        <v>665.321457327293</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="1">
+        <v>3</v>
+      </c>
+      <c r="B431" s="1">
+        <v>94</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431">
+        <v>-620.067785162256</v>
+      </c>
+      <c r="E431">
+        <v>-1555.10022758246</v>
+      </c>
+      <c r="F431">
+        <v>985.634450289988</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="1">
+        <v>3</v>
+      </c>
+      <c r="B432" s="1">
+        <v>95</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432">
+        <v>-506.416090135387</v>
+      </c>
+      <c r="E432">
+        <v>-499.813224437013</v>
+      </c>
+      <c r="F432">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="1">
+        <v>3</v>
+      </c>
+      <c r="B433" s="1">
+        <v>96</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>-467.198531152796</v>
+      </c>
+      <c r="E433">
+        <v>-707.892236121893</v>
+      </c>
+      <c r="F433">
+        <v>1750.23361113711</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="1">
+        <v>3</v>
+      </c>
+      <c r="B434" s="1">
+        <v>97</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434">
+        <v>-410.927864467231</v>
+      </c>
+      <c r="E434">
+        <v>-448.362708673899</v>
+      </c>
+      <c r="F434">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="1">
+        <v>3</v>
+      </c>
+      <c r="B435" s="1">
+        <v>98</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435">
+        <v>-965.924993522583</v>
+      </c>
+      <c r="E435">
+        <v>-730.404915966876</v>
+      </c>
+      <c r="F435">
+        <v>1690.43762253465</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="1">
+        <v>3</v>
+      </c>
+      <c r="B436" s="1">
+        <v>99</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436">
+        <v>-706.898690738478</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="1">
+        <v>3</v>
+      </c>
+      <c r="B437" s="1">
+        <v>100</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437">
+        <v>-306.26875664219</v>
+      </c>
+      <c r="E437">
+        <v>-736.163733845065</v>
+      </c>
+      <c r="F437">
+        <v>1194.07616354746</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="1">
+        <v>3</v>
+      </c>
+      <c r="B438" s="1">
+        <v>101</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438">
+        <v>-221.106210920189</v>
+      </c>
+      <c r="E438">
+        <v>-306.555132632323</v>
+      </c>
+      <c r="F438">
+        <v>116.771179783015</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="1">
+        <v>3</v>
+      </c>
+      <c r="B439" s="1">
+        <v>102</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439">
+        <v>-495.105525825014</v>
+      </c>
+      <c r="E439">
+        <v>-553.898429268762</v>
+      </c>
+      <c r="F439">
+        <v>291.544349803997</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="1">
+        <v>3</v>
+      </c>
+      <c r="B440" s="1">
+        <v>103</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440">
+        <v>-183.29850046148</v>
+      </c>
+      <c r="E440">
+        <v>-642.800879121694</v>
+      </c>
+      <c r="F440">
+        <v>1301.34879956851</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="1">
+        <v>3</v>
+      </c>
+      <c r="B441" s="1">
+        <v>104</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441">
+        <v>5.36380588704651</v>
+      </c>
+      <c r="E441">
+        <v>8.36302891120704</v>
+      </c>
+      <c r="F441">
+        <v>-47.264371031506</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>3</v>
+      </c>
+      <c r="B442" s="1">
+        <v>105</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>247.802971843234</v>
+      </c>
+      <c r="F442">
+        <v>-626.254298880423</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>3</v>
+      </c>
+      <c r="B443" s="1">
+        <v>106</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>1001.02003849703</v>
+      </c>
+      <c r="F443">
+        <v>-1474.82884230293</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>3</v>
+      </c>
+      <c r="B444" s="1">
+        <v>107</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444">
+        <v>665.623626568708</v>
+      </c>
+      <c r="E444">
+        <v>1246.91820986073</v>
+      </c>
+      <c r="F444">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>3</v>
+      </c>
+      <c r="B445" s="1">
+        <v>108</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445">
+        <v>901.447385925236</v>
+      </c>
+      <c r="E445">
+        <v>801.629639483835</v>
+      </c>
+      <c r="F445">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>3</v>
+      </c>
+      <c r="B446" s="1">
+        <v>109</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446">
+        <v>967.861751177566</v>
+      </c>
+      <c r="E446">
+        <v>591.040920921253</v>
+      </c>
+      <c r="F446">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>3</v>
+      </c>
+      <c r="B447" s="1">
+        <v>110</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447">
+        <v>525.236569851138</v>
+      </c>
+      <c r="E447">
+        <v>503.719871284743</v>
+      </c>
+      <c r="F447">
+        <v>-1187.64452270405</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1">
+        <v>3</v>
+      </c>
+      <c r="B448" s="1">
+        <v>111</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448">
+        <v>297.194577372176</v>
+      </c>
+      <c r="E448">
+        <v>192.357111005364</v>
+      </c>
+      <c r="F448">
+        <v>-463.005775337406</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1">
+        <v>3</v>
+      </c>
+      <c r="B449" s="1">
+        <v>112</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449">
+        <v>-342.145527091696</v>
+      </c>
+      <c r="E449">
+        <v>-381.956025050733</v>
+      </c>
+      <c r="F449">
+        <v>864.107310126547</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>3</v>
+      </c>
+      <c r="B450" s="1">
+        <v>113</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450">
+        <v>-951.564982842421</v>
+      </c>
+      <c r="E450">
+        <v>-780.509221481036</v>
+      </c>
+      <c r="F450">
+        <v>447.783059022664</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>3</v>
+      </c>
+      <c r="B451" s="1">
+        <v>114</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451">
+        <v>50.8590700155028</v>
+      </c>
+      <c r="E451">
+        <v>99.0084848338429</v>
+      </c>
+      <c r="F451">
+        <v>-218.911804404834</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>3</v>
+      </c>
+      <c r="B452" s="1">
+        <v>115</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452">
+        <v>-52.1482822579783</v>
+      </c>
+      <c r="E452">
+        <v>-5.40233441309268</v>
+      </c>
+      <c r="F452">
+        <v>-1034.46444631472</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>3</v>
+      </c>
+      <c r="B453" s="1">
+        <v>116</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453">
+        <v>-45.1492527169305</v>
+      </c>
+      <c r="E453">
+        <v>253.685628434574</v>
+      </c>
+      <c r="F453">
+        <v>-1332.36533371813</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="1">
+        <v>3</v>
+      </c>
+      <c r="B454" s="1">
+        <v>117</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454">
+        <v>1292.78175873403</v>
+      </c>
+      <c r="E454">
+        <v>863.315798055386</v>
+      </c>
+      <c r="F454">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="1">
+        <v>3</v>
+      </c>
+      <c r="B455" s="1">
+        <v>118</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455">
+        <v>908.760964990725</v>
+      </c>
+      <c r="E455">
+        <v>1801.48227558867</v>
+      </c>
+      <c r="F455">
+        <v>-1345.91104271752</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="1">
+        <v>3</v>
+      </c>
+      <c r="B456" s="1">
+        <v>119</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456">
+        <v>492.379409682228</v>
+      </c>
+      <c r="E456">
+        <v>314.58462321166</v>
+      </c>
+      <c r="F456">
+        <v>-1339.50532168309</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="1">
+        <v>3</v>
+      </c>
+      <c r="B457" s="1">
+        <v>120</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457">
+        <v>227.1120823796</v>
+      </c>
+      <c r="E457">
+        <v>272.422883885353</v>
+      </c>
+      <c r="F457">
+        <v>-644.028154187401</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="1">
+        <v>3</v>
+      </c>
+      <c r="B458" s="1">
+        <v>121</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458">
+        <v>-277.371043463109</v>
+      </c>
+      <c r="E458">
+        <v>-295.896950325831</v>
+      </c>
+      <c r="F458">
+        <v>1347.68918120772</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="1">
+        <v>3</v>
+      </c>
+      <c r="B459" s="1">
+        <v>122</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459">
+        <v>-1060.73440262555</v>
+      </c>
+      <c r="E459">
+        <v>-786.289270306909</v>
+      </c>
+      <c r="F459">
+        <v>1822.82022798193</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="1">
+        <v>3</v>
+      </c>
+      <c r="B460" s="1">
+        <v>123</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460">
+        <v>-708.081430291461</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="1">
+        <v>3</v>
+      </c>
+      <c r="B461" s="1">
+        <v>124</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461">
+        <v>-310.452561103747</v>
+      </c>
+      <c r="E461">
+        <v>-735.958442060507</v>
+      </c>
+      <c r="F461">
+        <v>1194.52418866123</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="1">
+        <v>3</v>
+      </c>
+      <c r="B462" s="1">
+        <v>125</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462">
+        <v>276.116583996852</v>
+      </c>
+      <c r="E462">
+        <v>379.690211399589</v>
+      </c>
+      <c r="F462">
+        <v>-144.93485291201</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="1">
+        <v>3</v>
+      </c>
+      <c r="B463" s="1">
+        <v>126</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463">
+        <v>-1179.48638332443</v>
+      </c>
+      <c r="E463">
+        <v>-1306.50357779605</v>
+      </c>
+      <c r="F463">
+        <v>687.30620293934</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="1">
+        <v>3</v>
+      </c>
+      <c r="B464" s="1">
+        <v>127</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464">
+        <v>-200.728724737096</v>
+      </c>
+      <c r="E464">
+        <v>-686.670770635817</v>
+      </c>
+      <c r="F464">
+        <v>1421.89535609002</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="1">
+        <v>3</v>
+      </c>
+      <c r="B465" s="1">
+        <v>128</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465">
+        <v>24.7037741484764</v>
+      </c>
+      <c r="E465">
+        <v>37.4417849005858</v>
+      </c>
+      <c r="F465">
+        <v>-217.432661783194</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="1">
+        <v>3</v>
+      </c>
+      <c r="B466" s="1">
+        <v>129</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>241.40215235126</v>
+      </c>
+      <c r="F466">
+        <v>-632.590313268844</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="1">
+        <v>3</v>
+      </c>
+      <c r="B467" s="1">
+        <v>130</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>988.233229084591</v>
+      </c>
+      <c r="F467">
+        <v>-1477.46075637529</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="1">
+        <v>3</v>
+      </c>
+      <c r="B468" s="1">
+        <v>131</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468">
+        <v>672.764459514195</v>
+      </c>
+      <c r="E468">
+        <v>1235.96808070854</v>
+      </c>
+      <c r="F468">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="1">
+        <v>3</v>
+      </c>
+      <c r="B469" s="1">
+        <v>132</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469">
+        <v>910.351428527799</v>
+      </c>
+      <c r="E469">
+        <v>804.785173647695</v>
+      </c>
+      <c r="F469">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="1">
+        <v>3</v>
+      </c>
+      <c r="B470" s="1">
+        <v>133</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470">
+        <v>964.066799528679</v>
+      </c>
+      <c r="E470">
+        <v>592.990006255182</v>
+      </c>
+      <c r="F470">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="1">
+        <v>3</v>
+      </c>
+      <c r="B471" s="1">
+        <v>134</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471">
+        <v>514.875152113621</v>
+      </c>
+      <c r="E471">
+        <v>495.370219631313</v>
+      </c>
+      <c r="F471">
+        <v>-1168.05494068602</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="1">
+        <v>3</v>
+      </c>
+      <c r="B472" s="1">
+        <v>135</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472">
+        <v>-48.8433261181563</v>
+      </c>
+      <c r="E472">
+        <v>-32.1270823359837</v>
+      </c>
+      <c r="F472">
+        <v>76.0877546174524</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="1">
+        <v>3</v>
+      </c>
+      <c r="B473" s="1">
+        <v>136</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473">
+        <v>-271.735329779329</v>
+      </c>
+      <c r="E473">
+        <v>-312.299162686262</v>
+      </c>
+      <c r="F473">
+        <v>697.489381135445</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="1">
+        <v>3</v>
+      </c>
+      <c r="B474" s="1">
+        <v>137</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474">
+        <v>-470.577362231499</v>
+      </c>
+      <c r="E474">
+        <v>-392.1786512408</v>
+      </c>
+      <c r="F474">
+        <v>223.229276428146</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="1">
+        <v>3</v>
+      </c>
+      <c r="B475" s="1">
+        <v>138</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475">
+        <v>111.638891270624</v>
+      </c>
+      <c r="E475">
+        <v>221.040001561012</v>
+      </c>
+      <c r="F475">
+        <v>-483.97937933098</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" s="1">
+        <v>3</v>
+      </c>
+      <c r="B476" s="1">
+        <v>139</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476">
+        <v>-55.6979959008434</v>
+      </c>
+      <c r="E476">
+        <v>-6.10884651556164</v>
+      </c>
+      <c r="F476">
+        <v>-1142.77810472534</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="1">
+        <v>3</v>
+      </c>
+      <c r="B477" s="1">
+        <v>140</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477">
+        <v>-47.8566203252354</v>
+      </c>
+      <c r="E477">
+        <v>280.066093404493</v>
+      </c>
+      <c r="F477">
+        <v>-1472.58280240422</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="1">
+        <v>3</v>
+      </c>
+      <c r="B478" s="1">
+        <v>141</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478">
+        <v>1290.04872149274</v>
+      </c>
+      <c r="E478">
+        <v>865.714581893573</v>
+      </c>
+      <c r="F478">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="1">
+        <v>3</v>
+      </c>
+      <c r="B479" s="1">
+        <v>142</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479">
+        <v>856.469081313155</v>
+      </c>
+      <c r="E479">
+        <v>1714.6100920248</v>
+      </c>
+      <c r="F479">
+        <v>-1271.98920700515</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="1">
+        <v>3</v>
+      </c>
+      <c r="B480" s="1">
+        <v>143</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480">
+        <v>485.562975524894</v>
+      </c>
+      <c r="E480">
+        <v>322.381119075181</v>
+      </c>
+      <c r="F480">
+        <v>-1328.29495155841</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="1">
+        <v>3</v>
+      </c>
+      <c r="B481" s="1">
+        <v>144</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481">
+        <v>206.899889153528</v>
+      </c>
+      <c r="E481">
+        <v>220.162029197399</v>
+      </c>
+      <c r="F481">
+        <v>-594.163614008633</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="1">
+        <v>3</v>
+      </c>
+      <c r="B482" s="1">
+        <v>145</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482">
+        <v>-227.230757672627</v>
+      </c>
+      <c r="E482">
+        <v>-235.465924085424</v>
+      </c>
+      <c r="F482">
+        <v>1237.95067793231</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="1">
+        <v>3</v>
+      </c>
+      <c r="B483" s="1">
+        <v>146</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483">
+        <v>-857.41905893699</v>
+      </c>
+      <c r="E483">
+        <v>-636.163459050055</v>
+      </c>
+      <c r="F483">
+        <v>1805.79176724546</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="1">
+        <v>3</v>
+      </c>
+      <c r="B484" s="1">
+        <v>147</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484">
+        <v>-868.783579956032</v>
+      </c>
+      <c r="E484">
+        <v>-61.9545591390184</v>
+      </c>
+      <c r="F484">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="1">
+        <v>3</v>
+      </c>
+      <c r="B485" s="1">
+        <v>148</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485">
+        <v>-429.047665922907</v>
+      </c>
+      <c r="E485">
+        <v>-695.226978693304</v>
+      </c>
+      <c r="F485">
+        <v>1162.26990235404</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="1">
+        <v>3</v>
+      </c>
+      <c r="B486" s="1">
+        <v>149</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486">
+        <v>317.555970424232</v>
+      </c>
+      <c r="E486">
+        <v>362.187463091303</v>
+      </c>
+      <c r="F486">
+        <v>-141.070699094656</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="1">
+        <v>3</v>
+      </c>
+      <c r="B487" s="1">
+        <v>150</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487">
+        <v>-1072.34785026642</v>
+      </c>
+      <c r="E487">
+        <v>-1441.36906446184</v>
+      </c>
+      <c r="F487">
+        <v>630.484969677642</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="1">
+        <v>3</v>
+      </c>
+      <c r="B488" s="1">
+        <v>151</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488">
+        <v>-164.48156174713</v>
+      </c>
+      <c r="E488">
+        <v>-564.383247501546</v>
+      </c>
+      <c r="F488">
+        <v>1297.21058057687</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="1">
+        <v>3</v>
+      </c>
+      <c r="B489" s="1">
+        <v>152</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489">
+        <v>-3.1128981533254</v>
+      </c>
+      <c r="E489">
+        <v>133.040704232074</v>
+      </c>
+      <c r="F489">
+        <v>-409.088689902756</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="1">
+        <v>3</v>
+      </c>
+      <c r="B490" s="1">
+        <v>153</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>374.22177531807</v>
+      </c>
+      <c r="F490">
+        <v>-731.820381154037</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="1">
+        <v>3</v>
+      </c>
+      <c r="B491" s="1">
+        <v>154</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>1170.01071436228</v>
+      </c>
+      <c r="F491">
+        <v>-1450.4782835749</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="1">
+        <v>3</v>
+      </c>
+      <c r="B492" s="1">
+        <v>155</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492">
+        <v>606.111579166409</v>
+      </c>
+      <c r="E492">
+        <v>1122.48184661763</v>
+      </c>
+      <c r="F492">
+        <v>-1945.33897456146</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="1">
+        <v>3</v>
+      </c>
+      <c r="B493" s="1">
+        <v>156</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493">
+        <v>790.418768764031</v>
+      </c>
+      <c r="E493">
+        <v>722.782121656905</v>
+      </c>
+      <c r="F493">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="1">
+        <v>3</v>
+      </c>
+      <c r="B494" s="1">
+        <v>157</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494">
+        <v>422.680576785219</v>
+      </c>
+      <c r="E494">
+        <v>257.566873896775</v>
+      </c>
+      <c r="F494">
+        <v>-860.10395746762</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="1">
+        <v>3</v>
+      </c>
+      <c r="B495" s="1">
+        <v>158</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495">
+        <v>-209.974516304094</v>
+      </c>
+      <c r="E495">
+        <v>-160.118205158584</v>
+      </c>
+      <c r="F495">
+        <v>404.900129035179</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="1">
+        <v>3</v>
+      </c>
+      <c r="B496" s="1">
+        <v>159</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496">
+        <v>-747.403042833719</v>
+      </c>
+      <c r="E496">
+        <v>-468.325665645267</v>
+      </c>
+      <c r="F496">
+        <v>1057.15399196834</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1">
+        <v>3</v>
+      </c>
+      <c r="B497" s="1">
+        <v>160</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497">
+        <v>-849.309391620791</v>
+      </c>
+      <c r="E497">
+        <v>-782.180831497048</v>
+      </c>
+      <c r="F497">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1">
+        <v>3</v>
+      </c>
+      <c r="B498" s="1">
+        <v>161</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498">
+        <v>-1965.30706185954</v>
+      </c>
+      <c r="E498">
+        <v>-1736.49202268417</v>
+      </c>
+      <c r="F498">
+        <v>751.304777831096</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1">
+        <v>3</v>
+      </c>
+      <c r="B499" s="1">
+        <v>162</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499">
+        <v>-52.0561893310314</v>
+      </c>
+      <c r="E499">
+        <v>-110.628433129719</v>
+      </c>
+      <c r="F499">
+        <v>233.470590819546</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1">
+        <v>3</v>
+      </c>
+      <c r="B500" s="1">
+        <v>163</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500">
+        <v>-36.9709241109803</v>
+      </c>
+      <c r="E500">
+        <v>51.6652387196337</v>
+      </c>
+      <c r="F500">
+        <v>-804.195063210964</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1">
+        <v>3</v>
+      </c>
+      <c r="B501" s="1">
+        <v>164</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>189.241608326208</v>
+      </c>
+      <c r="F501">
+        <v>-1210.52336337812</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1">
+        <v>3</v>
+      </c>
+      <c r="B502" s="1">
+        <v>165</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502">
+        <v>1721.61161396014</v>
+      </c>
+      <c r="E502">
+        <v>785.189395584873</v>
+      </c>
+      <c r="F502">
+        <v>-1880.71317362384</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1">
+        <v>3</v>
+      </c>
+      <c r="B503" s="1">
+        <v>166</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503">
+        <v>941.679283532235</v>
+      </c>
+      <c r="E503">
+        <v>2491.94586076849</v>
+      </c>
+      <c r="F503">
+        <v>-1513.90327514287</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1">
+        <v>3</v>
+      </c>
+      <c r="B504" s="1">
+        <v>167</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504">
+        <v>488.881377442993</v>
+      </c>
+      <c r="E504">
+        <v>529.903644217021</v>
+      </c>
+      <c r="F504">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1">
+        <v>3</v>
+      </c>
+      <c r="B505" s="1">
+        <v>168</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505">
+        <v>235.872271710723</v>
+      </c>
+      <c r="E505">
+        <v>332.810294053358</v>
+      </c>
+      <c r="F505">
+        <v>-948.680938722487</v>
       </c>
     </row>
   </sheetData>
